--- a/test_data/lasercalc_example_export_BCR-2G.xlsx
+++ b/test_data/lasercalc_example_export_BCR-2G.xlsx
@@ -431,7 +431,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AM41"/>
+  <dimension ref="A1:AN41"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -467,170 +467,175 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>omitted_region</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>bkgd_start</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>bkgd_stop</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>int_start</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>int_stop</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>norm</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>norm_cps</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>7Li</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>24Mg</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>27Al</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>43Ca</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>48Ti</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>57Fe</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>88Sr</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>138Ba</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>139La</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>140Ce</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>153Eu</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>208Pb</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>7Li_se</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>24Mg_se</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>27Al_se</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>29Si_se</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>43Ca_se</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>48Ti_se</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>57Fe_se</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>88Sr_se</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>138Ba_se</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>139La_se</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>140Ce_se</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>153Eu_se</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>208Pb_se</t>
         </is>
       </c>
-      <c r="AL1" s="1" t="inlineStr">
+      <c r="AM1" s="1" t="inlineStr">
         <is>
           <t>internal_std_comp</t>
         </is>
       </c>
-      <c r="AM1" s="1" t="inlineStr">
+      <c r="AN1" s="1" t="inlineStr">
         <is>
           <t>internal_std_rel_unc</t>
         </is>
@@ -660,108 +665,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>5.12408</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>8.130559999999999</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>25.11728</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>45.11153</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>2495372.560199064</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.001819487870553265</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>3.156527455164507</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>12.53338760377716</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.03575089876418051</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>4.087084879009584</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>1.252179908095086</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.3332715857737247</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.7223758411350121</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.02887909567751666</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>0.06600177466504836</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>0.001834474424876202</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>0.009295107455099143</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>1.542401369886885</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>0.6810884525518371</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>0.5691037644280008</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>0</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>0.8509635383455335</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>0.6922647252582421</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>0.6821302386819793</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>0.7079978012251211</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>0.5874708188550533</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>0.9927610985977846</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>0.8452442318242974</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>1.635308714334681</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>1.329347896180162</v>
       </c>
-      <c r="AL2" t="n">
+      <c r="AM2" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM2" t="n">
+      <c r="AN2" t="n">
         <v>1</v>
       </c>
     </row>
@@ -789,108 +799,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>5.12417</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>8.130800000000001</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>25.11798</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>45.1115</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>2546833.925725761</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.00179698452462037</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>3.212201622466849</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>12.78604382924759</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.03562949632928845</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>4.10355171371512</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>1.246627070043265</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.3348033466923848</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.7349536064354404</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.02856531980556537</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>0.06666211467976051</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>0.001854911213119123</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>0.009193413703287903</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>1.381451474582434</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>0.4666748198199111</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>0.4996468015498816</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>0</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>0.6375298835758509</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>0.5418996880893449</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>0.4975226511565584</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>0.5685443236926065</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>0.6268963359436202</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>0.5981073820234616</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
         <v>0.5919704282306277</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AK3" t="n">
         <v>1.44427757676521</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AL3" t="n">
         <v>0.8658011835524915</v>
       </c>
-      <c r="AL3" t="n">
+      <c r="AM3" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM3" t="n">
+      <c r="AN3" t="n">
         <v>1</v>
       </c>
     </row>
@@ -918,108 +933,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>5.12431</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>8.13076</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>25.11669</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>45.11084</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>2530573.062027173</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.003786915478974234</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>0.06168895295442026</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>8.441285730554707</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>0.006334850665682013</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>0.3187745206635554</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>0.2223852572537314</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>0.06791371364209663</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>0.4264280689992878</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>0.04892981513450478</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>0.1116971904404021</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>0.001856746736960215</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>0.003575009855663178</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>1.143140353095773</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>7.967411165730121</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>0.4129203675281838</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>0</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>1.321670013044611</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>0.4676947752700705</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>0.4666713747790348</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>0.4980832997140127</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>0.508515851666851</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>0.4762636793538506</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>0.5365684888437298</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AK4" t="n">
         <v>1.509867378434265</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AL4" t="n">
         <v>6.488146012729447</v>
       </c>
-      <c r="AL4" t="n">
+      <c r="AM4" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM4" t="n">
+      <c r="AN4" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1047,108 +1067,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>5.12421</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>8.1309</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>25.11759</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>45.1118</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>2595616.459733022</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0.003874741517949515</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>0.06125343683167284</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>8.454025815875745</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>0.006267205971041634</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>0.3231695289409458</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>0.224120859759749</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>0.06857210189147585</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>0.4256900227259054</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>0.04844091081476593</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>0.1121971883298953</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>0.001896190664309846</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>0.003482265808513921</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>1.049843534881904</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>0.4286302317359483</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>0.3439176760651422</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>0</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>0.8291309836008544</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>0.3656617272876842</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>0.3648312004326049</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>0.4239514833154552</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
         <v>0.3598171459451647</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AI5" t="n">
         <v>0.4233036375661026</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
         <v>0.3938122318893836</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
         <v>1.247435650117256</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
         <v>1.06428450402713</v>
       </c>
-      <c r="AL5" t="n">
+      <c r="AM5" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM5" t="n">
+      <c r="AN5" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1176,108 +1201,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>5.12455</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>8.131489999999999</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>25.11798</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>45.11006</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>1812510.243357766</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>0.0009070332713976572</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>6.731080811536231</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>13.5587868883594</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>0.06059165794709756</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>5.148481094331117</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>1.17994557926482</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>0.4102466592405842</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>0.1483409072162848</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>0.01872562252119308</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>0.04925567443349078</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>0.002020329533870947</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>0.001727271095080584</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
         <v>5.023036310274467</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>1.206998014980155</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>1.052438057323597</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>0</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>1.093566558193583</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>1.223827567708162</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>1.280427447718299</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AG6" t="n">
         <v>1.207771788949465</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>1.257158755102568</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
         <v>0.9705210142115968</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
         <v>1.854825687045019</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AK6" t="n">
         <v>1.657232861238642</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AL6" t="n">
         <v>11.59182298787754</v>
       </c>
-      <c r="AL6" t="n">
+      <c r="AM6" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM6" t="n">
+      <c r="AN6" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1305,108 +1335,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>5.12423</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>8.130890000000001</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>25.11777</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>45.11133</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>1827437.124480309</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0.0008976830005651263</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>6.82681189661598</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>13.55324726980411</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>0.0601759724641621</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>5.153088965953717</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>1.190078975205495</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>0.4150185061274028</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>0.1468985926123919</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>0.01880801882085552</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>0.0498690478561286</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>0.001969623310830274</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>0.001686886674104031</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
         <v>2.64178329798672</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>0.609027252685636</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>0.576039593045653</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>0</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>0.6663204942875253</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AE7" t="n">
         <v>0.5669473683584662</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
         <v>0.8753427213965745</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AG7" t="n">
         <v>0.5685845925861851</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
         <v>0.7851464620625408</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AI7" t="n">
         <v>0.7443540352971745</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AJ7" t="n">
         <v>0.806919323961886</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AK7" t="n">
         <v>1.497656270675825</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AL7" t="n">
         <v>2.046592514003363</v>
       </c>
-      <c r="AL7" t="n">
+      <c r="AM7" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM7" t="n">
+      <c r="AN7" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1434,108 +1469,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>5.12464</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>8.13092</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>25.1173</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>45.11016</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>2847513.161820298</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>0.005748886551469387</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>0.007462332946894215</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>1.514948816562756</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>0.04995590047325885</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>0.1013023179176854</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>0.0005202977716067808</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>0.06542365602625672</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>0.03414732182662175</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>0.03652152938858799</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>0.03987674010707748</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>0.02860757564561767</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>0.02511272165338639</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Z8" t="n">
         <v>0.845924416521425</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
         <v>8.235982415187742</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AB8" t="n">
         <v>0.3215370955284135</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AC8" t="n">
         <v>0</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>0.3903770800385339</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="n">
         <v>0.3563703122652328</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>7.413350811147272</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AG8" t="n">
         <v>0.3764876829156584</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AH8" t="n">
         <v>0.4939139021809476</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AI8" t="n">
         <v>0.4668421720976436</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AJ8" t="n">
         <v>0.454442890972961</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AK8" t="n">
         <v>0.4148640561906712</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AL8" t="n">
         <v>0.5424327733307714</v>
       </c>
-      <c r="AL8" t="n">
+      <c r="AM8" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM8" t="n">
+      <c r="AN8" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1563,108 +1603,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>5.12449</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>8.13078</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>25.11753</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>45.11093</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>2833569.836840853</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>0.005852877161730523</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>0.007257722301839496</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>1.50779090997052</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>0.04980645381494309</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>0.1010588919417555</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>0.0005496550044176518</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>0.0652599726151336</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>0.03414461941300431</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>0.03623445883406794</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>0.03989902515102487</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>0.02860087598272075</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>0.02483439605798756</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
         <v>0.8266125235426038</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9" t="n">
         <v>5.259397827548104</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AB9" t="n">
         <v>0.3393924016759611</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
         <v>0</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>0.4222557018715946</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AE9" t="n">
         <v>0.3837470896410429</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
         <v>2.746732904482427</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AG9" t="n">
         <v>0.425363222810546</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AH9" t="n">
         <v>0.4155598933103808</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AI9" t="n">
         <v>0.4017361268185929</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AJ9" t="n">
         <v>0.4389449481575934</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AK9" t="n">
         <v>0.4875775919970806</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AL9" t="n">
         <v>0.5614114787117258</v>
       </c>
-      <c r="AL9" t="n">
+      <c r="AM9" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM9" t="n">
+      <c r="AN9" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1692,108 +1737,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>5.12444</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>8.1312</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>25.11842</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>45.1112</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>2511343.322653376</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>0.001797784695256798</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>3.134718246851559</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>12.36673928034105</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>0.03550639305434249</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>4.017946827305789</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>1.250323987689472</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>0.3352010849855492</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>0.7304567697863723</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>0.02833811767569805</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>0.06688888506621091</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>0.001817655394130343</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
         <v>0.009238600147167224</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Z10" t="n">
         <v>1.583121359418137</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
         <v>0.5274814889086997</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AB10" t="n">
         <v>0.5049750305979317</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
         <v>0</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
         <v>0.6313194365277971</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
         <v>0.5566579098542751</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AF10" t="n">
         <v>0.5762191394337548</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AG10" t="n">
         <v>0.5996135175630772</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AH10" t="n">
         <v>0.6474674601987246</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AI10" t="n">
         <v>0.6217181742204658</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AJ10" t="n">
         <v>0.7041865790815433</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AK10" t="n">
         <v>1.521693448149569</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AL10" t="n">
         <v>1.01506161567922</v>
       </c>
-      <c r="AL10" t="n">
+      <c r="AM10" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM10" t="n">
+      <c r="AN10" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1821,108 +1871,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>5.1247</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>8.131270000000001</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>25.11773</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>45.11051999999999</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>2461016.010800149</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>0.003854907304128775</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>0.06325825149997677</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>8.542909924816431</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>0.006544411572659883</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>0.3318767377725526</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>0.2282633379536829</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>0.07143590092128363</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>0.4453751862538221</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>0.05131445464824749</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>0.1181131501556091</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>0.001956916388368607</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>0.00360862524628797</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Z11" t="n">
         <v>1.053881257693778</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AA11" t="n">
         <v>0.9296498954012199</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
         <v>0.4364689716628163</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AC11" t="n">
         <v>0</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AD11" t="n">
         <v>0.7307965405502205</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
         <v>0.4243569359763267</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AF11" t="n">
         <v>0.4157151332371787</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AG11" t="n">
         <v>0.4411778003358171</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AH11" t="n">
         <v>0.4516560587457852</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AI11" t="n">
         <v>0.4623429311011981</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AJ11" t="n">
         <v>0.4486519119351961</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AK11" t="n">
         <v>1.381587133996778</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AL11" t="n">
         <v>2.326635277551734</v>
       </c>
-      <c r="AL11" t="n">
+      <c r="AM11" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM11" t="n">
+      <c r="AN11" t="n">
         <v>1</v>
       </c>
     </row>
@@ -1950,108 +2005,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>5.124</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>8.130270000000001</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>25.11731</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>45.11032</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>2439037.611851443</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>0.001947813434072659</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>3.204054687214607</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>12.44552493535593</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>0.03634456040790776</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>4.097492760602218</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>1.256251697140171</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>0.3401022714099787</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>0.7621694395207695</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>0.02953802807975327</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>0.07030222278139482</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>0.001908392736781585</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>0.009694519262572797</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
         <v>1.425787519993284</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AA12" t="n">
         <v>0.5848597592191752</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
         <v>0.5182161134329316</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AC12" t="n">
         <v>0</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
         <v>0.7042089272916633</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AE12" t="n">
         <v>0.5941460128494956</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AF12" t="n">
         <v>0.5553482332321831</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AG12" t="n">
         <v>0.5596358885517538</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AH12" t="n">
         <v>0.6053998830672961</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AI12" t="n">
         <v>0.7324653966104019</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AJ12" t="n">
         <v>0.6677713917986158</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AK12" t="n">
         <v>1.390958576421396</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AL12" t="n">
         <v>0.9030887157433017</v>
       </c>
-      <c r="AL12" t="n">
+      <c r="AM12" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM12" t="n">
+      <c r="AN12" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2079,108 +2139,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>5.1236</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>8.130270000000001</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>25.1176</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>45.1112</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>2495834.81511467</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>0.003936769085789607</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>0.06291525346787294</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>8.527393142883385</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>0.0063895511109813</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>0.3322289428500679</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>0.2295574930727025</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>0.07173752920461099</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>0.4542875808557081</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>0.05147898553810697</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>0.1185904930187095</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>0.001999540201881227</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>0.003659532243729019</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Z13" t="n">
         <v>1.042778556710856</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AA13" t="n">
         <v>0.50862075416262</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AB13" t="n">
         <v>0.3649755448787029</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AC13" t="n">
         <v>0</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AD13" t="n">
         <v>0.938970480339034</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AE13" t="n">
         <v>0.3918252062714149</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AF13" t="n">
         <v>0.3969137367108227</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AG13" t="n">
         <v>0.4221241675530717</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AH13" t="n">
         <v>0.3766239893307906</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AI13" t="n">
         <v>0.4664801947418272</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AJ13" t="n">
         <v>0.4142227574695228</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AK13" t="n">
         <v>1.288618077586301</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AL13" t="n">
         <v>1.150694193969436</v>
       </c>
-      <c r="AL13" t="n">
+      <c r="AM13" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM13" t="n">
+      <c r="AN13" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2208,108 +2273,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>5.12431</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>8.130990000000001</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>25.11819</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>45.11253</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>2320757.239508113</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>0.001924360360559096</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>3.185077126166296</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>12.50833470316967</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>0.03668277590499766</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>4.09134140787321</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>1.250670562658969</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>0.3478558746948479</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>0.7656405063978734</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>0.03008996378564865</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>0.07027513343505486</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>0.001883493791590824</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>0.009730055954760605</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Z14" t="n">
         <v>1.55967515911003</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
         <v>0.5499095224417345</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AB14" t="n">
         <v>0.4567418170001892</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AC14" t="n">
         <v>0</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
         <v>0.6320959946263561</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AE14" t="n">
         <v>0.5415181524258272</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AF14" t="n">
         <v>0.4625159969375263</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AG14" t="n">
         <v>0.6073751836510526</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AH14" t="n">
         <v>0.614296803592023</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AI14" t="n">
         <v>0.6167393178889713</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AJ14" t="n">
         <v>0.6833320349750175</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AK14" t="n">
         <v>1.552675133068137</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AL14" t="n">
         <v>0.7915583632623343</v>
       </c>
-      <c r="AL14" t="n">
+      <c r="AM14" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM14" t="n">
+      <c r="AN14" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2337,108 +2407,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>5.12393</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>8.13021</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>25.11763</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>45.11253</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>2369649.91485625</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>0.004030389824577261</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>0.06437864742159967</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>8.619380520763384</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>0.006634518702880616</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>0.3394745747168085</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>0.2295404406172714</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>0.07342898037494761</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>0.4670959626382886</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>0.05299568274649488</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>0.1225718383151349</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>0.002029044320445502</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>0.003866572202033134</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Z15" t="n">
         <v>1.097877387421055</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AA15" t="n">
         <v>0.4749491275251687</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AB15" t="n">
         <v>0.3772869550012975</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AC15" t="n">
         <v>0</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AD15" t="n">
         <v>0.8321051750587697</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AE15" t="n">
         <v>0.4501396790435415</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AF15" t="n">
         <v>0.4104649822027732</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AG15" t="n">
         <v>0.4242567743325415</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AH15" t="n">
         <v>0.4094181664034384</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AI15" t="n">
         <v>0.4370870136438357</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AJ15" t="n">
         <v>0.442549150582061</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AK15" t="n">
         <v>1.420967295055543</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AL15" t="n">
         <v>1.109131180359379</v>
       </c>
-      <c r="AL15" t="n">
+      <c r="AM15" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM15" t="n">
+      <c r="AN15" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2466,108 +2541,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>5.12418</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>8.13063</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>25.11801</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>45.11081</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>2337218.473916371</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>0.001821771913035615</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>3.191728757808999</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>12.54663146266029</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>0.03680101000257707</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>4.154271929907551</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>1.253296823930967</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>0.3485153969270164</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>0.7836327537452389</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>0.03038836264388928</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>0.07178909113118645</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>0.00186648948349979</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>0.009974223435586342</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Z16" t="n">
         <v>1.737833656542819</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AA16" t="n">
         <v>0.521934563611112</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AB16" t="n">
         <v>0.5070178217279447</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AC16" t="n">
         <v>0</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AD16" t="n">
         <v>0.6206823125035513</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AE16" t="n">
         <v>0.6117527600857128</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AF16" t="n">
         <v>0.4982934371198665</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AG16" t="n">
         <v>0.5881566893093431</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AH16" t="n">
         <v>0.5480381409956826</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AI16" t="n">
         <v>0.6032129074603813</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AJ16" t="n">
         <v>0.7312474094923482</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AK16" t="n">
         <v>1.391158554962758</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AL16" t="n">
         <v>0.8554714165590998</v>
       </c>
-      <c r="AL16" t="n">
+      <c r="AM16" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM16" t="n">
+      <c r="AN16" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2595,108 +2675,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F17" t="n">
+      <c r="F17" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G17" t="n">
         <v>5.1246</v>
       </c>
-      <c r="G17" t="n">
+      <c r="H17" t="n">
         <v>8.131209999999999</v>
       </c>
-      <c r="H17" t="n">
+      <c r="I17" t="n">
         <v>25.11866</v>
       </c>
-      <c r="I17" t="n">
+      <c r="J17" t="n">
         <v>45.1119</v>
       </c>
-      <c r="J17" t="inlineStr">
+      <c r="K17" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K17" t="n">
+      <c r="L17" t="n">
         <v>2309965.934561135</v>
       </c>
-      <c r="L17" t="n">
+      <c r="M17" t="n">
         <v>0.00413345614675038</v>
       </c>
-      <c r="M17" t="n">
+      <c r="N17" t="n">
         <v>0.06414465256669388</v>
       </c>
-      <c r="N17" t="n">
+      <c r="O17" t="n">
         <v>8.55757358252041</v>
       </c>
-      <c r="O17" t="n">
+      <c r="P17" t="n">
         <v>1</v>
       </c>
-      <c r="P17" t="n">
+      <c r="Q17" t="n">
         <v>0.006572396619885447</v>
       </c>
-      <c r="Q17" t="n">
+      <c r="R17" t="n">
         <v>0.3408047050297791</v>
       </c>
-      <c r="R17" t="n">
+      <c r="S17" t="n">
         <v>0.2327746936452124</v>
       </c>
-      <c r="S17" t="n">
+      <c r="T17" t="n">
         <v>0.07371486777394094</v>
       </c>
-      <c r="T17" t="n">
+      <c r="U17" t="n">
         <v>0.4703307510714321</v>
       </c>
-      <c r="U17" t="n">
+      <c r="V17" t="n">
         <v>0.05354246742422908</v>
       </c>
-      <c r="V17" t="n">
+      <c r="W17" t="n">
         <v>0.1249440269998804</v>
       </c>
-      <c r="W17" t="n">
+      <c r="X17" t="n">
         <v>0.002062728641170024</v>
       </c>
-      <c r="X17" t="n">
+      <c r="Y17" t="n">
         <v>0.003904869424968027</v>
       </c>
-      <c r="Y17" t="n">
+      <c r="Z17" t="n">
         <v>1.092370668179121</v>
       </c>
-      <c r="Z17" t="n">
+      <c r="AA17" t="n">
         <v>0.448774192643145</v>
       </c>
-      <c r="AA17" t="n">
+      <c r="AB17" t="n">
         <v>0.3689816125014629</v>
       </c>
-      <c r="AB17" t="n">
+      <c r="AC17" t="n">
         <v>0</v>
       </c>
-      <c r="AC17" t="n">
+      <c r="AD17" t="n">
         <v>0.9333505569622718</v>
       </c>
-      <c r="AD17" t="n">
+      <c r="AE17" t="n">
         <v>0.4117484922025422</v>
       </c>
-      <c r="AE17" t="n">
+      <c r="AF17" t="n">
         <v>0.4078946242923984</v>
       </c>
-      <c r="AF17" t="n">
+      <c r="AG17" t="n">
         <v>0.474874687082452</v>
       </c>
-      <c r="AG17" t="n">
+      <c r="AH17" t="n">
         <v>0.4424647814975631</v>
       </c>
-      <c r="AH17" t="n">
+      <c r="AI17" t="n">
         <v>0.4341365509389177</v>
       </c>
-      <c r="AI17" t="n">
+      <c r="AJ17" t="n">
         <v>0.4761955952996341</v>
       </c>
-      <c r="AJ17" t="n">
+      <c r="AK17" t="n">
         <v>1.428599407933624</v>
       </c>
-      <c r="AK17" t="n">
+      <c r="AL17" t="n">
         <v>1.130872955143885</v>
       </c>
-      <c r="AL17" t="n">
+      <c r="AM17" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM17" t="n">
+      <c r="AN17" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2724,108 +2809,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F18" t="n">
+      <c r="F18" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G18" t="n">
         <v>5.1242</v>
       </c>
-      <c r="G18" t="n">
+      <c r="H18" t="n">
         <v>8.130330000000001</v>
       </c>
-      <c r="H18" t="n">
+      <c r="I18" t="n">
         <v>25.11674</v>
       </c>
-      <c r="I18" t="n">
+      <c r="J18" t="n">
         <v>45.11009</v>
       </c>
-      <c r="J18" t="inlineStr">
+      <c r="K18" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K18" t="n">
+      <c r="L18" t="n">
         <v>2261160.073323353</v>
       </c>
-      <c r="L18" t="n">
+      <c r="M18" t="n">
         <v>0.001927265150587244</v>
       </c>
-      <c r="M18" t="n">
+      <c r="N18" t="n">
         <v>3.204530358917893</v>
       </c>
-      <c r="N18" t="n">
+      <c r="O18" t="n">
         <v>12.57748470387545</v>
       </c>
-      <c r="O18" t="n">
+      <c r="P18" t="n">
         <v>1</v>
       </c>
-      <c r="P18" t="n">
+      <c r="Q18" t="n">
         <v>0.0372367963636233</v>
       </c>
-      <c r="Q18" t="n">
+      <c r="R18" t="n">
         <v>4.196852139996245</v>
       </c>
-      <c r="R18" t="n">
+      <c r="S18" t="n">
         <v>1.258695419849733</v>
       </c>
-      <c r="S18" t="n">
+      <c r="T18" t="n">
         <v>0.3544754288977278</v>
       </c>
-      <c r="T18" t="n">
+      <c r="U18" t="n">
         <v>0.7933808966858241</v>
       </c>
-      <c r="U18" t="n">
+      <c r="V18" t="n">
         <v>0.03090010228803994</v>
       </c>
-      <c r="V18" t="n">
+      <c r="W18" t="n">
         <v>0.07393351829180866</v>
       </c>
-      <c r="W18" t="n">
+      <c r="X18" t="n">
         <v>0.001941749028150849</v>
       </c>
-      <c r="X18" t="n">
+      <c r="Y18" t="n">
         <v>0.01029353438202223</v>
       </c>
-      <c r="Y18" t="n">
+      <c r="Z18" t="n">
         <v>1.580075016021355</v>
       </c>
-      <c r="Z18" t="n">
+      <c r="AA18" t="n">
         <v>0.484590519341962</v>
       </c>
-      <c r="AA18" t="n">
+      <c r="AB18" t="n">
         <v>0.5276990037883598</v>
       </c>
-      <c r="AB18" t="n">
+      <c r="AC18" t="n">
         <v>0</v>
       </c>
-      <c r="AC18" t="n">
+      <c r="AD18" t="n">
         <v>0.6244987628866671</v>
       </c>
-      <c r="AD18" t="n">
+      <c r="AE18" t="n">
         <v>0.6353795091473685</v>
       </c>
-      <c r="AE18" t="n">
+      <c r="AF18" t="n">
         <v>0.48600271959855</v>
       </c>
-      <c r="AF18" t="n">
+      <c r="AG18" t="n">
         <v>0.6152873753581783</v>
       </c>
-      <c r="AG18" t="n">
+      <c r="AH18" t="n">
         <v>0.6008367441017163</v>
       </c>
-      <c r="AH18" t="n">
+      <c r="AI18" t="n">
         <v>0.6406353091281702</v>
       </c>
-      <c r="AI18" t="n">
+      <c r="AJ18" t="n">
         <v>0.7243985333052259</v>
       </c>
-      <c r="AJ18" t="n">
+      <c r="AK18" t="n">
         <v>1.27077791471746</v>
       </c>
-      <c r="AK18" t="n">
+      <c r="AL18" t="n">
         <v>1.38800092780542</v>
       </c>
-      <c r="AL18" t="n">
+      <c r="AM18" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM18" t="n">
+      <c r="AN18" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2853,108 +2943,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F19" t="n">
+      <c r="F19" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G19" t="n">
         <v>5.12376</v>
       </c>
-      <c r="G19" t="n">
+      <c r="H19" t="n">
         <v>8.13045</v>
       </c>
-      <c r="H19" t="n">
+      <c r="I19" t="n">
         <v>25.11662</v>
       </c>
-      <c r="I19" t="n">
+      <c r="J19" t="n">
         <v>45.10948</v>
       </c>
-      <c r="J19" t="inlineStr">
+      <c r="K19" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K19" t="n">
+      <c r="L19" t="n">
         <v>2323253.35707319</v>
       </c>
-      <c r="L19" t="n">
+      <c r="M19" t="n">
         <v>0.00419070656353866</v>
       </c>
-      <c r="M19" t="n">
+      <c r="N19" t="n">
         <v>0.06487428021803954</v>
       </c>
-      <c r="N19" t="n">
+      <c r="O19" t="n">
         <v>8.669178543260092</v>
       </c>
-      <c r="O19" t="n">
+      <c r="P19" t="n">
         <v>1</v>
       </c>
-      <c r="P19" t="n">
+      <c r="Q19" t="n">
         <v>0.006738344899731531</v>
       </c>
-      <c r="Q19" t="n">
+      <c r="R19" t="n">
         <v>0.3471731935395799</v>
       </c>
-      <c r="R19" t="n">
+      <c r="S19" t="n">
         <v>0.2336163244100591</v>
       </c>
-      <c r="S19" t="n">
+      <c r="T19" t="n">
         <v>0.07571658787912509</v>
       </c>
-      <c r="T19" t="n">
+      <c r="U19" t="n">
         <v>0.4827532456815588</v>
       </c>
-      <c r="U19" t="n">
+      <c r="V19" t="n">
         <v>0.05462213077820446</v>
       </c>
-      <c r="V19" t="n">
+      <c r="W19" t="n">
         <v>0.1278715039393375</v>
       </c>
-      <c r="W19" t="n">
+      <c r="X19" t="n">
         <v>0.002114859919778262</v>
       </c>
-      <c r="X19" t="n">
+      <c r="Y19" t="n">
         <v>0.003940726140786549</v>
       </c>
-      <c r="Y19" t="n">
+      <c r="Z19" t="n">
         <v>0.9660888017602792</v>
       </c>
-      <c r="Z19" t="n">
+      <c r="AA19" t="n">
         <v>0.529561968335611</v>
       </c>
-      <c r="AA19" t="n">
+      <c r="AB19" t="n">
         <v>0.4439078092785235</v>
       </c>
-      <c r="AB19" t="n">
+      <c r="AC19" t="n">
         <v>0</v>
       </c>
-      <c r="AC19" t="n">
+      <c r="AD19" t="n">
         <v>0.8270718595247426</v>
       </c>
-      <c r="AD19" t="n">
+      <c r="AE19" t="n">
         <v>0.4959808363411916</v>
       </c>
-      <c r="AE19" t="n">
+      <c r="AF19" t="n">
         <v>0.4485984668635511</v>
       </c>
-      <c r="AF19" t="n">
+      <c r="AG19" t="n">
         <v>0.5183497760141255</v>
       </c>
-      <c r="AG19" t="n">
+      <c r="AH19" t="n">
         <v>0.4839505556235095</v>
       </c>
-      <c r="AH19" t="n">
+      <c r="AI19" t="n">
         <v>0.5446011794696469</v>
       </c>
-      <c r="AI19" t="n">
+      <c r="AJ19" t="n">
         <v>0.5106462801506778</v>
       </c>
-      <c r="AJ19" t="n">
+      <c r="AK19" t="n">
         <v>1.226416918707181</v>
       </c>
-      <c r="AK19" t="n">
+      <c r="AL19" t="n">
         <v>0.9230845820404676</v>
       </c>
-      <c r="AL19" t="n">
+      <c r="AM19" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM19" t="n">
+      <c r="AN19" t="n">
         <v>1</v>
       </c>
     </row>
@@ -2982,108 +3077,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F20" t="n">
+      <c r="F20" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G20" t="n">
         <v>5.12361</v>
       </c>
-      <c r="G20" t="n">
+      <c r="H20" t="n">
         <v>8.130229999999999</v>
       </c>
-      <c r="H20" t="n">
+      <c r="I20" t="n">
         <v>25.11651</v>
       </c>
-      <c r="I20" t="n">
+      <c r="J20" t="n">
         <v>45.11063</v>
       </c>
-      <c r="J20" t="inlineStr">
+      <c r="K20" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K20" t="n">
+      <c r="L20" t="n">
         <v>2160665.642461562</v>
       </c>
-      <c r="L20" t="n">
+      <c r="M20" t="n">
         <v>0.002002677808746594</v>
       </c>
-      <c r="M20" t="n">
+      <c r="N20" t="n">
         <v>3.237309636403238</v>
       </c>
-      <c r="N20" t="n">
+      <c r="O20" t="n">
         <v>12.75239237728145</v>
       </c>
-      <c r="O20" t="n">
+      <c r="P20" t="n">
         <v>1</v>
       </c>
-      <c r="P20" t="n">
+      <c r="Q20" t="n">
         <v>0.03760452386374299</v>
       </c>
-      <c r="Q20" t="n">
+      <c r="R20" t="n">
         <v>4.28916170477715</v>
       </c>
-      <c r="R20" t="n">
+      <c r="S20" t="n">
         <v>1.26533897076093</v>
       </c>
-      <c r="S20" t="n">
+      <c r="T20" t="n">
         <v>0.3603773185322589</v>
       </c>
-      <c r="T20" t="n">
+      <c r="U20" t="n">
         <v>0.814196023726859</v>
       </c>
-      <c r="U20" t="n">
+      <c r="V20" t="n">
         <v>0.0316887468319759</v>
       </c>
-      <c r="V20" t="n">
+      <c r="W20" t="n">
         <v>0.07479706604437771</v>
       </c>
-      <c r="W20" t="n">
+      <c r="X20" t="n">
         <v>0.001975341248894391</v>
       </c>
-      <c r="X20" t="n">
+      <c r="Y20" t="n">
         <v>0.01016243191122417</v>
       </c>
-      <c r="Y20" t="n">
+      <c r="Z20" t="n">
         <v>1.647211143251555</v>
       </c>
-      <c r="Z20" t="n">
+      <c r="AA20" t="n">
         <v>0.6174273364887026</v>
       </c>
-      <c r="AA20" t="n">
+      <c r="AB20" t="n">
         <v>0.5618068888809065</v>
       </c>
-      <c r="AB20" t="n">
+      <c r="AC20" t="n">
         <v>0</v>
       </c>
-      <c r="AC20" t="n">
+      <c r="AD20" t="n">
         <v>0.6881022034640668</v>
       </c>
-      <c r="AD20" t="n">
+      <c r="AE20" t="n">
         <v>0.6015100840450603</v>
       </c>
-      <c r="AE20" t="n">
+      <c r="AF20" t="n">
         <v>0.5941885553469497</v>
       </c>
-      <c r="AF20" t="n">
+      <c r="AG20" t="n">
         <v>0.665101417229399</v>
       </c>
-      <c r="AG20" t="n">
+      <c r="AH20" t="n">
         <v>0.8009688350511533</v>
       </c>
-      <c r="AH20" t="n">
+      <c r="AI20" t="n">
         <v>0.6381352534626643</v>
       </c>
-      <c r="AI20" t="n">
+      <c r="AJ20" t="n">
         <v>0.7590952244279573</v>
       </c>
-      <c r="AJ20" t="n">
+      <c r="AK20" t="n">
         <v>1.500885162764754</v>
       </c>
-      <c r="AK20" t="n">
+      <c r="AL20" t="n">
         <v>1.074094739664661</v>
       </c>
-      <c r="AL20" t="n">
+      <c r="AM20" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM20" t="n">
+      <c r="AN20" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3111,108 +3211,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F21" t="n">
+      <c r="F21" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G21" t="n">
         <v>5.12425</v>
       </c>
-      <c r="G21" t="n">
+      <c r="H21" t="n">
         <v>8.13049</v>
       </c>
-      <c r="H21" t="n">
+      <c r="I21" t="n">
         <v>25.11712</v>
       </c>
-      <c r="I21" t="n">
+      <c r="J21" t="n">
         <v>45.11085</v>
       </c>
-      <c r="J21" t="inlineStr">
+      <c r="K21" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K21" t="n">
+      <c r="L21" t="n">
         <v>2257510.199121854</v>
       </c>
-      <c r="L21" t="n">
+      <c r="M21" t="n">
         <v>0.004128404192657108</v>
       </c>
-      <c r="M21" t="n">
+      <c r="N21" t="n">
         <v>0.06414015166186514</v>
       </c>
-      <c r="N21" t="n">
+      <c r="O21" t="n">
         <v>8.578540711245157</v>
       </c>
-      <c r="O21" t="n">
+      <c r="P21" t="n">
         <v>1</v>
       </c>
-      <c r="P21" t="n">
+      <c r="Q21" t="n">
         <v>0.006673909888174836</v>
       </c>
-      <c r="Q21" t="n">
+      <c r="R21" t="n">
         <v>0.3483110159130342</v>
       </c>
-      <c r="R21" t="n">
+      <c r="S21" t="n">
         <v>0.2330229534597331</v>
       </c>
-      <c r="S21" t="n">
+      <c r="T21" t="n">
         <v>0.07555427702153843</v>
       </c>
-      <c r="T21" t="n">
+      <c r="U21" t="n">
         <v>0.4839048952948083</v>
       </c>
-      <c r="U21" t="n">
+      <c r="V21" t="n">
         <v>0.05534442631803516</v>
       </c>
-      <c r="V21" t="n">
+      <c r="W21" t="n">
         <v>0.129269311730382</v>
       </c>
-      <c r="W21" t="n">
+      <c r="X21" t="n">
         <v>0.002126431080055301</v>
       </c>
-      <c r="X21" t="n">
+      <c r="Y21" t="n">
         <v>0.003982781869419402</v>
       </c>
-      <c r="Y21" t="n">
+      <c r="Z21" t="n">
         <v>1.011322634682628</v>
       </c>
-      <c r="Z21" t="n">
+      <c r="AA21" t="n">
         <v>0.5783690630691024</v>
       </c>
-      <c r="AA21" t="n">
+      <c r="AB21" t="n">
         <v>0.4090444045579625</v>
       </c>
-      <c r="AB21" t="n">
+      <c r="AC21" t="n">
         <v>0</v>
       </c>
-      <c r="AC21" t="n">
+      <c r="AD21" t="n">
         <v>0.8394058281594018</v>
       </c>
-      <c r="AD21" t="n">
+      <c r="AE21" t="n">
         <v>0.4762091250096005</v>
       </c>
-      <c r="AE21" t="n">
+      <c r="AF21" t="n">
         <v>0.414811603080201</v>
       </c>
-      <c r="AF21" t="n">
+      <c r="AG21" t="n">
         <v>0.4775557916262692</v>
       </c>
-      <c r="AG21" t="n">
+      <c r="AH21" t="n">
         <v>0.4502580723609614</v>
       </c>
-      <c r="AH21" t="n">
+      <c r="AI21" t="n">
         <v>0.4054851459121199</v>
       </c>
-      <c r="AI21" t="n">
+      <c r="AJ21" t="n">
         <v>0.4883863202656111</v>
       </c>
-      <c r="AJ21" t="n">
+      <c r="AK21" t="n">
         <v>1.291562030762924</v>
       </c>
-      <c r="AK21" t="n">
+      <c r="AL21" t="n">
         <v>1.044325914118775</v>
       </c>
-      <c r="AL21" t="n">
+      <c r="AM21" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM21" t="n">
+      <c r="AN21" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3240,108 +3345,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F22" t="n">
+      <c r="F22" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G22" t="n">
         <v>5.12441</v>
       </c>
-      <c r="G22" t="n">
+      <c r="H22" t="n">
         <v>8.130699999999999</v>
       </c>
-      <c r="H22" t="n">
+      <c r="I22" t="n">
         <v>25.11767</v>
       </c>
-      <c r="I22" t="n">
+      <c r="J22" t="n">
         <v>45.11036</v>
       </c>
-      <c r="J22" t="inlineStr">
+      <c r="K22" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K22" t="n">
+      <c r="L22" t="n">
         <v>1675374.429047437</v>
       </c>
-      <c r="L22" t="n">
+      <c r="M22" t="n">
         <v>0.001023192808624188</v>
       </c>
-      <c r="M22" t="n">
+      <c r="N22" t="n">
         <v>6.958601300916044</v>
       </c>
-      <c r="N22" t="n">
+      <c r="O22" t="n">
         <v>13.44688124978183</v>
       </c>
-      <c r="O22" t="n">
+      <c r="P22" t="n">
         <v>1</v>
       </c>
-      <c r="P22" t="n">
+      <c r="Q22" t="n">
         <v>0.06414574544104135</v>
       </c>
-      <c r="Q22" t="n">
+      <c r="R22" t="n">
         <v>5.282056086657473</v>
       </c>
-      <c r="R22" t="n">
+      <c r="S22" t="n">
         <v>1.197518895609398</v>
       </c>
-      <c r="S22" t="n">
+      <c r="T22" t="n">
         <v>0.4455207111706747</v>
       </c>
-      <c r="T22" t="n">
+      <c r="U22" t="n">
         <v>0.1623378287509377</v>
       </c>
-      <c r="U22" t="n">
+      <c r="V22" t="n">
         <v>0.0207604092470931</v>
       </c>
-      <c r="V22" t="n">
+      <c r="W22" t="n">
         <v>0.05511236973100542</v>
       </c>
-      <c r="W22" t="n">
+      <c r="X22" t="n">
         <v>0.002185956216715777</v>
       </c>
-      <c r="X22" t="n">
+      <c r="Y22" t="n">
         <v>0.001882086427577275</v>
       </c>
-      <c r="Y22" t="n">
+      <c r="Z22" t="n">
         <v>2.452940141546488</v>
       </c>
-      <c r="Z22" t="n">
+      <c r="AA22" t="n">
         <v>0.4764099334716599</v>
       </c>
-      <c r="AA22" t="n">
+      <c r="AB22" t="n">
         <v>0.4555713365909762</v>
       </c>
-      <c r="AB22" t="n">
+      <c r="AC22" t="n">
         <v>0</v>
       </c>
-      <c r="AC22" t="n">
+      <c r="AD22" t="n">
         <v>0.568043854798116</v>
       </c>
-      <c r="AD22" t="n">
+      <c r="AE22" t="n">
         <v>0.485052881260724</v>
       </c>
-      <c r="AE22" t="n">
+      <c r="AF22" t="n">
         <v>0.6072739521888546</v>
       </c>
-      <c r="AF22" t="n">
+      <c r="AG22" t="n">
         <v>0.4726888802114566</v>
       </c>
-      <c r="AG22" t="n">
+      <c r="AH22" t="n">
         <v>0.5216104781102107</v>
       </c>
-      <c r="AH22" t="n">
+      <c r="AI22" t="n">
         <v>0.5809452374542973</v>
       </c>
-      <c r="AI22" t="n">
+      <c r="AJ22" t="n">
         <v>0.5580611783512452</v>
       </c>
-      <c r="AJ22" t="n">
+      <c r="AK22" t="n">
         <v>1.846409939775989</v>
       </c>
-      <c r="AK22" t="n">
+      <c r="AL22" t="n">
         <v>1.963444441697506</v>
       </c>
-      <c r="AL22" t="n">
+      <c r="AM22" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM22" t="n">
+      <c r="AN22" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3369,108 +3479,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F23" t="n">
+      <c r="F23" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G23" t="n">
         <v>5.12475</v>
       </c>
-      <c r="G23" t="n">
+      <c r="H23" t="n">
         <v>8.131500000000001</v>
       </c>
-      <c r="H23" t="n">
+      <c r="I23" t="n">
         <v>25.11875</v>
       </c>
-      <c r="I23" t="n">
+      <c r="J23" t="n">
         <v>45.11285</v>
       </c>
-      <c r="J23" t="inlineStr">
+      <c r="K23" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K23" t="n">
+      <c r="L23" t="n">
         <v>2546448.969245803</v>
       </c>
-      <c r="L23" t="n">
+      <c r="M23" t="n">
         <v>0.006232356896424166</v>
       </c>
-      <c r="M23" t="n">
+      <c r="N23" t="n">
         <v>0.007682196416975236</v>
       </c>
-      <c r="N23" t="n">
+      <c r="O23" t="n">
         <v>1.521380612075045</v>
       </c>
-      <c r="O23" t="n">
+      <c r="P23" t="n">
         <v>1</v>
       </c>
-      <c r="P23" t="n">
+      <c r="Q23" t="n">
         <v>0.0531013920728454</v>
       </c>
-      <c r="Q23" t="n">
+      <c r="R23" t="n">
         <v>0.1078831269420705</v>
       </c>
-      <c r="R23" t="n">
+      <c r="S23" t="n">
         <v>0.0005315930952562244</v>
       </c>
-      <c r="S23" t="n">
+      <c r="T23" t="n">
         <v>0.07091597501632199</v>
       </c>
-      <c r="T23" t="n">
+      <c r="U23" t="n">
         <v>0.0380600079201075</v>
       </c>
-      <c r="U23" t="n">
+      <c r="V23" t="n">
         <v>0.04090282437150097</v>
       </c>
-      <c r="V23" t="n">
+      <c r="W23" t="n">
         <v>0.04449408014974024</v>
       </c>
-      <c r="W23" t="n">
+      <c r="X23" t="n">
         <v>0.03130940258168723</v>
       </c>
-      <c r="X23" t="n">
+      <c r="Y23" t="n">
         <v>0.02768871811264237</v>
       </c>
-      <c r="Y23" t="n">
+      <c r="Z23" t="n">
         <v>0.823091395558303</v>
       </c>
-      <c r="Z23" t="n">
+      <c r="AA23" t="n">
         <v>0.7797854043050243</v>
       </c>
-      <c r="AA23" t="n">
+      <c r="AB23" t="n">
         <v>0.3779415955160155</v>
       </c>
-      <c r="AB23" t="n">
+      <c r="AC23" t="n">
         <v>0</v>
       </c>
-      <c r="AC23" t="n">
+      <c r="AD23" t="n">
         <v>0.3782380143950656</v>
       </c>
-      <c r="AD23" t="n">
+      <c r="AE23" t="n">
         <v>0.3771606193326388</v>
       </c>
-      <c r="AE23" t="n">
+      <c r="AF23" t="n">
         <v>3.448891496508725</v>
       </c>
-      <c r="AF23" t="n">
+      <c r="AG23" t="n">
         <v>0.4414117746726663</v>
       </c>
-      <c r="AG23" t="n">
+      <c r="AH23" t="n">
         <v>0.542332182405882</v>
       </c>
-      <c r="AH23" t="n">
+      <c r="AI23" t="n">
         <v>0.4415354382438089</v>
       </c>
-      <c r="AI23" t="n">
+      <c r="AJ23" t="n">
         <v>0.5153288256143338</v>
       </c>
-      <c r="AJ23" t="n">
+      <c r="AK23" t="n">
         <v>0.5402615650782718</v>
       </c>
-      <c r="AK23" t="n">
+      <c r="AL23" t="n">
         <v>0.4644545152641755</v>
       </c>
-      <c r="AL23" t="n">
+      <c r="AM23" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM23" t="n">
+      <c r="AN23" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3498,108 +3613,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F24" t="n">
+      <c r="F24" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G24" t="n">
         <v>5.12453</v>
       </c>
-      <c r="G24" t="n">
+      <c r="H24" t="n">
         <v>8.13105</v>
       </c>
-      <c r="H24" t="n">
+      <c r="I24" t="n">
         <v>25.11824</v>
       </c>
-      <c r="I24" t="n">
+      <c r="J24" t="n">
         <v>45.11105999999999</v>
       </c>
-      <c r="J24" t="inlineStr">
+      <c r="K24" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K24" t="n">
+      <c r="L24" t="n">
         <v>2103967.128205007</v>
       </c>
-      <c r="L24" t="n">
+      <c r="M24" t="n">
         <v>0.00188862416475147</v>
       </c>
-      <c r="M24" t="n">
+      <c r="N24" t="n">
         <v>3.192493642983861</v>
       </c>
-      <c r="N24" t="n">
+      <c r="O24" t="n">
         <v>12.71816601806047</v>
       </c>
-      <c r="O24" t="n">
+      <c r="P24" t="n">
         <v>1</v>
       </c>
-      <c r="P24" t="n">
+      <c r="Q24" t="n">
         <v>0.03764410266603299</v>
       </c>
-      <c r="Q24" t="n">
+      <c r="R24" t="n">
         <v>4.166024731277146</v>
       </c>
-      <c r="R24" t="n">
+      <c r="S24" t="n">
         <v>1.240894051605122</v>
       </c>
-      <c r="S24" t="n">
+      <c r="T24" t="n">
         <v>0.3597080308756166</v>
       </c>
-      <c r="T24" t="n">
+      <c r="U24" t="n">
         <v>0.8152731581982411</v>
       </c>
-      <c r="U24" t="n">
+      <c r="V24" t="n">
         <v>0.0323171342240221</v>
       </c>
-      <c r="V24" t="n">
+      <c r="W24" t="n">
         <v>0.0748514719699885</v>
       </c>
-      <c r="W24" t="n">
+      <c r="X24" t="n">
         <v>0.002023427796882576</v>
       </c>
-      <c r="X24" t="n">
+      <c r="Y24" t="n">
         <v>0.01013465118149935</v>
       </c>
-      <c r="Y24" t="n">
+      <c r="Z24" t="n">
         <v>1.55288753013669</v>
       </c>
-      <c r="Z24" t="n">
+      <c r="AA24" t="n">
         <v>0.5265070005817314</v>
       </c>
-      <c r="AA24" t="n">
+      <c r="AB24" t="n">
         <v>0.4781770419308315</v>
       </c>
-      <c r="AB24" t="n">
+      <c r="AC24" t="n">
         <v>0</v>
       </c>
-      <c r="AC24" t="n">
+      <c r="AD24" t="n">
         <v>0.7046104064988286</v>
       </c>
-      <c r="AD24" t="n">
+      <c r="AE24" t="n">
         <v>0.5665006180642527</v>
       </c>
-      <c r="AE24" t="n">
+      <c r="AF24" t="n">
         <v>0.5039238458660562</v>
       </c>
-      <c r="AF24" t="n">
+      <c r="AG24" t="n">
         <v>0.5534972235913354</v>
       </c>
-      <c r="AG24" t="n">
+      <c r="AH24" t="n">
         <v>0.5518750289064898</v>
       </c>
-      <c r="AH24" t="n">
+      <c r="AI24" t="n">
         <v>0.663312809982094</v>
       </c>
-      <c r="AI24" t="n">
+      <c r="AJ24" t="n">
         <v>0.6404880114182396</v>
       </c>
-      <c r="AJ24" t="n">
+      <c r="AK24" t="n">
         <v>1.438164196154744</v>
       </c>
-      <c r="AK24" t="n">
+      <c r="AL24" t="n">
         <v>0.8177805277389124</v>
       </c>
-      <c r="AL24" t="n">
+      <c r="AM24" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM24" t="n">
+      <c r="AN24" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3627,108 +3747,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F25" t="n">
+      <c r="F25" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G25" t="n">
         <v>5.12491</v>
       </c>
-      <c r="G25" t="n">
+      <c r="H25" t="n">
         <v>8.13147</v>
       </c>
-      <c r="H25" t="n">
+      <c r="I25" t="n">
         <v>25.11839</v>
       </c>
-      <c r="I25" t="n">
+      <c r="J25" t="n">
         <v>45.11167</v>
       </c>
-      <c r="J25" t="inlineStr">
+      <c r="K25" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K25" t="n">
+      <c r="L25" t="n">
         <v>2267557.090992551</v>
       </c>
-      <c r="L25" t="n">
+      <c r="M25" t="n">
         <v>0.004201488285483635</v>
       </c>
-      <c r="M25" t="n">
+      <c r="N25" t="n">
         <v>0.06469768720478965</v>
       </c>
-      <c r="N25" t="n">
+      <c r="O25" t="n">
         <v>8.578743996663997</v>
       </c>
-      <c r="O25" t="n">
+      <c r="P25" t="n">
         <v>1</v>
       </c>
-      <c r="P25" t="n">
+      <c r="Q25" t="n">
         <v>0.006714287025282548</v>
       </c>
-      <c r="Q25" t="n">
+      <c r="R25" t="n">
         <v>0.348322295398345</v>
       </c>
-      <c r="R25" t="n">
+      <c r="S25" t="n">
         <v>0.2319040740178367</v>
       </c>
-      <c r="S25" t="n">
+      <c r="T25" t="n">
         <v>0.07598046948752002</v>
       </c>
-      <c r="T25" t="n">
+      <c r="U25" t="n">
         <v>0.4873694019751741</v>
       </c>
-      <c r="U25" t="n">
+      <c r="V25" t="n">
         <v>0.05579412464671284</v>
       </c>
-      <c r="V25" t="n">
+      <c r="W25" t="n">
         <v>0.1292521665709423</v>
       </c>
-      <c r="W25" t="n">
+      <c r="X25" t="n">
         <v>0.002062661300833214</v>
       </c>
-      <c r="X25" t="n">
+      <c r="Y25" t="n">
         <v>0.003943915240961352</v>
       </c>
-      <c r="Y25" t="n">
+      <c r="Z25" t="n">
         <v>1.101189682107808</v>
       </c>
-      <c r="Z25" t="n">
+      <c r="AA25" t="n">
         <v>0.4694530154042754</v>
       </c>
-      <c r="AA25" t="n">
+      <c r="AB25" t="n">
         <v>0.390966788367161</v>
       </c>
-      <c r="AB25" t="n">
+      <c r="AC25" t="n">
         <v>0</v>
       </c>
-      <c r="AC25" t="n">
+      <c r="AD25" t="n">
         <v>0.8376925215729641</v>
       </c>
-      <c r="AD25" t="n">
+      <c r="AE25" t="n">
         <v>0.4311500948507436</v>
       </c>
-      <c r="AE25" t="n">
+      <c r="AF25" t="n">
         <v>0.4086905400581557</v>
       </c>
-      <c r="AF25" t="n">
+      <c r="AG25" t="n">
         <v>0.4645738101386345</v>
       </c>
-      <c r="AG25" t="n">
+      <c r="AH25" t="n">
         <v>0.4525586364920046</v>
       </c>
-      <c r="AH25" t="n">
+      <c r="AI25" t="n">
         <v>0.450436560349381</v>
       </c>
-      <c r="AI25" t="n">
+      <c r="AJ25" t="n">
         <v>0.4064858730036197</v>
       </c>
-      <c r="AJ25" t="n">
+      <c r="AK25" t="n">
         <v>1.444600357390183</v>
       </c>
-      <c r="AK25" t="n">
+      <c r="AL25" t="n">
         <v>1.111893527688693</v>
       </c>
-      <c r="AL25" t="n">
+      <c r="AM25" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM25" t="n">
+      <c r="AN25" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3756,108 +3881,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F26" t="n">
+      <c r="F26" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G26" t="n">
         <v>5.12455</v>
       </c>
-      <c r="G26" t="n">
+      <c r="H26" t="n">
         <v>8.131320000000001</v>
       </c>
-      <c r="H26" t="n">
+      <c r="I26" t="n">
         <v>25.11909</v>
       </c>
-      <c r="I26" t="n">
+      <c r="J26" t="n">
         <v>45.11283</v>
       </c>
-      <c r="J26" t="inlineStr">
+      <c r="K26" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K26" t="n">
+      <c r="L26" t="n">
         <v>2117980.022733969</v>
       </c>
-      <c r="L26" t="n">
+      <c r="M26" t="n">
         <v>0.001883354454453255</v>
       </c>
-      <c r="M26" t="n">
+      <c r="N26" t="n">
         <v>3.194390131061695</v>
       </c>
-      <c r="N26" t="n">
+      <c r="O26" t="n">
         <v>12.49788884061636</v>
       </c>
-      <c r="O26" t="n">
+      <c r="P26" t="n">
         <v>1</v>
       </c>
-      <c r="P26" t="n">
+      <c r="Q26" t="n">
         <v>0.03713865600519831</v>
       </c>
-      <c r="Q26" t="n">
+      <c r="R26" t="n">
         <v>4.175742139339492</v>
       </c>
-      <c r="R26" t="n">
+      <c r="S26" t="n">
         <v>1.263068045808184</v>
       </c>
-      <c r="S26" t="n">
+      <c r="T26" t="n">
         <v>0.3598496524291067</v>
       </c>
-      <c r="T26" t="n">
+      <c r="U26" t="n">
         <v>0.8184583155755337</v>
       </c>
-      <c r="U26" t="n">
+      <c r="V26" t="n">
         <v>0.03188083093266413</v>
       </c>
-      <c r="V26" t="n">
+      <c r="W26" t="n">
         <v>0.07517911165726705</v>
       </c>
-      <c r="W26" t="n">
+      <c r="X26" t="n">
         <v>0.002009817562444189</v>
       </c>
-      <c r="X26" t="n">
+      <c r="Y26" t="n">
         <v>0.01033109512102885</v>
       </c>
-      <c r="Y26" t="n">
+      <c r="Z26" t="n">
         <v>1.689016331137912</v>
       </c>
-      <c r="Z26" t="n">
+      <c r="AA26" t="n">
         <v>0.4613973003703676</v>
       </c>
-      <c r="AA26" t="n">
+      <c r="AB26" t="n">
         <v>0.4470275911687803</v>
       </c>
-      <c r="AB26" t="n">
+      <c r="AC26" t="n">
         <v>0</v>
       </c>
-      <c r="AC26" t="n">
+      <c r="AD26" t="n">
         <v>0.6301411645884718</v>
       </c>
-      <c r="AD26" t="n">
+      <c r="AE26" t="n">
         <v>0.5288328384535995</v>
       </c>
-      <c r="AE26" t="n">
+      <c r="AF26" t="n">
         <v>0.4697278366154575</v>
       </c>
-      <c r="AF26" t="n">
+      <c r="AG26" t="n">
         <v>0.5333795603465166</v>
       </c>
-      <c r="AG26" t="n">
+      <c r="AH26" t="n">
         <v>0.5387954039504722</v>
       </c>
-      <c r="AH26" t="n">
+      <c r="AI26" t="n">
         <v>0.6199393754739441</v>
       </c>
-      <c r="AI26" t="n">
+      <c r="AJ26" t="n">
         <v>0.6101743314201927</v>
       </c>
-      <c r="AJ26" t="n">
+      <c r="AK26" t="n">
         <v>1.316042139297936</v>
       </c>
-      <c r="AK26" t="n">
+      <c r="AL26" t="n">
         <v>0.8098849611298274</v>
       </c>
-      <c r="AL26" t="n">
+      <c r="AM26" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM26" t="n">
+      <c r="AN26" t="n">
         <v>1</v>
       </c>
     </row>
@@ -3885,108 +4015,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F27" t="n">
+      <c r="F27" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G27" t="n">
         <v>5.12438</v>
       </c>
-      <c r="G27" t="n">
+      <c r="H27" t="n">
         <v>8.131169999999999</v>
       </c>
-      <c r="H27" t="n">
+      <c r="I27" t="n">
         <v>25.11813</v>
       </c>
-      <c r="I27" t="n">
+      <c r="J27" t="n">
         <v>45.11134</v>
       </c>
-      <c r="J27" t="inlineStr">
+      <c r="K27" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K27" t="n">
+      <c r="L27" t="n">
         <v>2238586.602712948</v>
       </c>
-      <c r="L27" t="n">
+      <c r="M27" t="n">
         <v>0.004148094703335216</v>
       </c>
-      <c r="M27" t="n">
+      <c r="N27" t="n">
         <v>0.06455729321519818</v>
       </c>
-      <c r="N27" t="n">
+      <c r="O27" t="n">
         <v>8.609045119871295</v>
       </c>
-      <c r="O27" t="n">
+      <c r="P27" t="n">
         <v>1</v>
       </c>
-      <c r="P27" t="n">
+      <c r="Q27" t="n">
         <v>0.006744251419300366</v>
       </c>
-      <c r="Q27" t="n">
+      <c r="R27" t="n">
         <v>0.3494944129957659</v>
       </c>
-      <c r="R27" t="n">
+      <c r="S27" t="n">
         <v>0.2369398311057344</v>
       </c>
-      <c r="S27" t="n">
+      <c r="T27" t="n">
         <v>0.07595195671456668</v>
       </c>
-      <c r="T27" t="n">
+      <c r="U27" t="n">
         <v>0.4955322591500092</v>
       </c>
-      <c r="U27" t="n">
+      <c r="V27" t="n">
         <v>0.0558010062443134</v>
       </c>
-      <c r="V27" t="n">
+      <c r="W27" t="n">
         <v>0.1310167888394519</v>
       </c>
-      <c r="W27" t="n">
+      <c r="X27" t="n">
         <v>0.002134739186641072</v>
       </c>
-      <c r="X27" t="n">
+      <c r="Y27" t="n">
         <v>0.004059560952072135</v>
       </c>
-      <c r="Y27" t="n">
+      <c r="Z27" t="n">
         <v>1.081784131897422</v>
       </c>
-      <c r="Z27" t="n">
+      <c r="AA27" t="n">
         <v>0.5048528168126892</v>
       </c>
-      <c r="AA27" t="n">
+      <c r="AB27" t="n">
         <v>0.4075694891183466</v>
       </c>
-      <c r="AB27" t="n">
+      <c r="AC27" t="n">
         <v>0</v>
       </c>
-      <c r="AC27" t="n">
+      <c r="AD27" t="n">
         <v>0.7567001066523221</v>
       </c>
-      <c r="AD27" t="n">
+      <c r="AE27" t="n">
         <v>0.4542386527802174</v>
       </c>
-      <c r="AE27" t="n">
+      <c r="AF27" t="n">
         <v>0.4327574163456699</v>
       </c>
-      <c r="AF27" t="n">
+      <c r="AG27" t="n">
         <v>0.4524525648395792</v>
       </c>
-      <c r="AG27" t="n">
+      <c r="AH27" t="n">
         <v>0.4711377287842587</v>
       </c>
-      <c r="AH27" t="n">
+      <c r="AI27" t="n">
         <v>0.4662545602413002</v>
       </c>
-      <c r="AI27" t="n">
+      <c r="AJ27" t="n">
         <v>0.5198737443312909</v>
       </c>
-      <c r="AJ27" t="n">
+      <c r="AK27" t="n">
         <v>1.31777872605302</v>
       </c>
-      <c r="AK27" t="n">
+      <c r="AL27" t="n">
         <v>1.796950712046908</v>
       </c>
-      <c r="AL27" t="n">
+      <c r="AM27" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM27" t="n">
+      <c r="AN27" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4014,108 +4149,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F28" t="n">
+      <c r="F28" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G28" t="n">
         <v>5.124559999999999</v>
       </c>
-      <c r="G28" t="n">
+      <c r="H28" t="n">
         <v>8.131180000000001</v>
       </c>
-      <c r="H28" t="n">
+      <c r="I28" t="n">
         <v>25.11844</v>
       </c>
-      <c r="I28" t="n">
+      <c r="J28" t="n">
         <v>45.11235</v>
       </c>
-      <c r="J28" t="inlineStr">
+      <c r="K28" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K28" t="n">
+      <c r="L28" t="n">
         <v>2220561.346201427</v>
       </c>
-      <c r="L28" t="n">
+      <c r="M28" t="n">
         <v>0.002039041548044575</v>
       </c>
-      <c r="M28" t="n">
+      <c r="N28" t="n">
         <v>3.208762138951128</v>
       </c>
-      <c r="N28" t="n">
+      <c r="O28" t="n">
         <v>12.53697076380755</v>
       </c>
-      <c r="O28" t="n">
+      <c r="P28" t="n">
         <v>1</v>
       </c>
-      <c r="P28" t="n">
+      <c r="Q28" t="n">
         <v>0.03774631439539228</v>
       </c>
-      <c r="Q28" t="n">
+      <c r="R28" t="n">
         <v>4.196346056994455</v>
       </c>
-      <c r="R28" t="n">
+      <c r="S28" t="n">
         <v>1.259466144112443</v>
       </c>
-      <c r="S28" t="n">
+      <c r="T28" t="n">
         <v>0.3596011452919686</v>
       </c>
-      <c r="T28" t="n">
+      <c r="U28" t="n">
         <v>0.8212008780306342</v>
       </c>
-      <c r="U28" t="n">
+      <c r="V28" t="n">
         <v>0.03184009203435652</v>
       </c>
-      <c r="V28" t="n">
+      <c r="W28" t="n">
         <v>0.0762336942572598</v>
       </c>
-      <c r="W28" t="n">
+      <c r="X28" t="n">
         <v>0.002036059383370096</v>
       </c>
-      <c r="X28" t="n">
+      <c r="Y28" t="n">
         <v>0.01049554042722229</v>
       </c>
-      <c r="Y28" t="n">
+      <c r="Z28" t="n">
         <v>1.490979722260863</v>
       </c>
-      <c r="Z28" t="n">
+      <c r="AA28" t="n">
         <v>0.484748500550047</v>
       </c>
-      <c r="AA28" t="n">
+      <c r="AB28" t="n">
         <v>0.5073908732184244</v>
       </c>
-      <c r="AB28" t="n">
+      <c r="AC28" t="n">
         <v>0</v>
       </c>
-      <c r="AC28" t="n">
+      <c r="AD28" t="n">
         <v>0.6259512613432839</v>
       </c>
-      <c r="AD28" t="n">
+      <c r="AE28" t="n">
         <v>0.5337325038877925</v>
       </c>
-      <c r="AE28" t="n">
+      <c r="AF28" t="n">
         <v>0.433222062745409</v>
       </c>
-      <c r="AF28" t="n">
+      <c r="AG28" t="n">
         <v>0.5638285506902118</v>
       </c>
-      <c r="AG28" t="n">
+      <c r="AH28" t="n">
         <v>0.5911472297602212</v>
       </c>
-      <c r="AH28" t="n">
+      <c r="AI28" t="n">
         <v>0.5912571149370062</v>
       </c>
-      <c r="AI28" t="n">
+      <c r="AJ28" t="n">
         <v>0.6886736849454177</v>
       </c>
-      <c r="AJ28" t="n">
+      <c r="AK28" t="n">
         <v>1.540080599270511</v>
       </c>
-      <c r="AK28" t="n">
+      <c r="AL28" t="n">
         <v>0.9598243148554005</v>
       </c>
-      <c r="AL28" t="n">
+      <c r="AM28" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM28" t="n">
+      <c r="AN28" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4143,108 +4283,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F29" t="n">
+      <c r="F29" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G29" t="n">
         <v>5.12425</v>
       </c>
-      <c r="G29" t="n">
+      <c r="H29" t="n">
         <v>8.13054</v>
       </c>
-      <c r="H29" t="n">
+      <c r="I29" t="n">
         <v>25.11649</v>
       </c>
-      <c r="I29" t="n">
+      <c r="J29" t="n">
         <v>45.1099</v>
       </c>
-      <c r="J29" t="inlineStr">
+      <c r="K29" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K29" t="n">
+      <c r="L29" t="n">
         <v>2236711.049012059</v>
       </c>
-      <c r="L29" t="n">
+      <c r="M29" t="n">
         <v>0.004248437853894301</v>
       </c>
-      <c r="M29" t="n">
+      <c r="N29" t="n">
         <v>0.0641956336675691</v>
       </c>
-      <c r="N29" t="n">
+      <c r="O29" t="n">
         <v>8.515132493926487</v>
       </c>
-      <c r="O29" t="n">
+      <c r="P29" t="n">
         <v>1</v>
       </c>
-      <c r="P29" t="n">
+      <c r="Q29" t="n">
         <v>0.006485154868074531</v>
       </c>
-      <c r="Q29" t="n">
+      <c r="R29" t="n">
         <v>0.3451943998423082</v>
       </c>
-      <c r="R29" t="n">
+      <c r="S29" t="n">
         <v>0.2333817027010843</v>
       </c>
-      <c r="S29" t="n">
+      <c r="T29" t="n">
         <v>0.0751793908017529</v>
       </c>
-      <c r="T29" t="n">
+      <c r="U29" t="n">
         <v>0.4813905631798651</v>
       </c>
-      <c r="U29" t="n">
+      <c r="V29" t="n">
         <v>0.05529259270333216</v>
       </c>
-      <c r="V29" t="n">
+      <c r="W29" t="n">
         <v>0.1286573636293266</v>
       </c>
-      <c r="W29" t="n">
+      <c r="X29" t="n">
         <v>0.002106818057610389</v>
       </c>
-      <c r="X29" t="n">
+      <c r="Y29" t="n">
         <v>0.004042322554764314</v>
       </c>
-      <c r="Y29" t="n">
+      <c r="Z29" t="n">
         <v>0.9409627508279108</v>
       </c>
-      <c r="Z29" t="n">
+      <c r="AA29" t="n">
         <v>0.5057182118911245</v>
       </c>
-      <c r="AA29" t="n">
+      <c r="AB29" t="n">
         <v>0.411536526351837</v>
       </c>
-      <c r="AB29" t="n">
+      <c r="AC29" t="n">
         <v>0</v>
       </c>
-      <c r="AC29" t="n">
+      <c r="AD29" t="n">
         <v>0.9283239107691148</v>
       </c>
-      <c r="AD29" t="n">
+      <c r="AE29" t="n">
         <v>0.4165840106476995</v>
       </c>
-      <c r="AE29" t="n">
+      <c r="AF29" t="n">
         <v>0.385596235808046</v>
       </c>
-      <c r="AF29" t="n">
+      <c r="AG29" t="n">
         <v>0.4776411382610659</v>
       </c>
-      <c r="AG29" t="n">
+      <c r="AH29" t="n">
         <v>0.4736589908997155</v>
       </c>
-      <c r="AH29" t="n">
+      <c r="AI29" t="n">
         <v>0.4792076632372672</v>
       </c>
-      <c r="AI29" t="n">
+      <c r="AJ29" t="n">
         <v>0.5037122699157334</v>
       </c>
-      <c r="AJ29" t="n">
+      <c r="AK29" t="n">
         <v>1.255980277995817</v>
       </c>
-      <c r="AK29" t="n">
+      <c r="AL29" t="n">
         <v>1.0553914117927</v>
       </c>
-      <c r="AL29" t="n">
+      <c r="AM29" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM29" t="n">
+      <c r="AN29" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4272,108 +4417,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F30" t="n">
+      <c r="F30" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G30" t="n">
         <v>5.12439</v>
       </c>
-      <c r="G30" t="n">
+      <c r="H30" t="n">
         <v>8.130800000000001</v>
       </c>
-      <c r="H30" t="n">
+      <c r="I30" t="n">
         <v>25.11685</v>
       </c>
-      <c r="I30" t="n">
+      <c r="J30" t="n">
         <v>45.11045</v>
       </c>
-      <c r="J30" t="inlineStr">
+      <c r="K30" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K30" t="n">
+      <c r="L30" t="n">
         <v>2128954.031391683</v>
       </c>
-      <c r="L30" t="n">
+      <c r="M30" t="n">
         <v>0.002015569370835713</v>
       </c>
-      <c r="M30" t="n">
+      <c r="N30" t="n">
         <v>3.273195326982742</v>
       </c>
-      <c r="N30" t="n">
+      <c r="O30" t="n">
         <v>12.83001426886738</v>
       </c>
-      <c r="O30" t="n">
+      <c r="P30" t="n">
         <v>1</v>
       </c>
-      <c r="P30" t="n">
+      <c r="Q30" t="n">
         <v>0.03809055892091404</v>
       </c>
-      <c r="Q30" t="n">
+      <c r="R30" t="n">
         <v>4.326648007733017</v>
       </c>
-      <c r="R30" t="n">
+      <c r="S30" t="n">
         <v>1.27682382107015</v>
       </c>
-      <c r="S30" t="n">
+      <c r="T30" t="n">
         <v>0.3722523466231651</v>
       </c>
-      <c r="T30" t="n">
+      <c r="U30" t="n">
         <v>0.849054169949625</v>
       </c>
-      <c r="U30" t="n">
+      <c r="V30" t="n">
         <v>0.03326614659368833</v>
       </c>
-      <c r="V30" t="n">
+      <c r="W30" t="n">
         <v>0.07813225910609882</v>
       </c>
-      <c r="W30" t="n">
+      <c r="X30" t="n">
         <v>0.002082128311992728</v>
       </c>
-      <c r="X30" t="n">
+      <c r="Y30" t="n">
         <v>0.01056085960334063</v>
       </c>
-      <c r="Y30" t="n">
+      <c r="Z30" t="n">
         <v>1.263728307197311</v>
       </c>
-      <c r="Z30" t="n">
+      <c r="AA30" t="n">
         <v>0.4866334583094221</v>
       </c>
-      <c r="AA30" t="n">
+      <c r="AB30" t="n">
         <v>0.4653069364982221</v>
       </c>
-      <c r="AB30" t="n">
+      <c r="AC30" t="n">
         <v>0</v>
       </c>
-      <c r="AC30" t="n">
+      <c r="AD30" t="n">
         <v>0.607262136204057</v>
       </c>
-      <c r="AD30" t="n">
+      <c r="AE30" t="n">
         <v>0.5289189927346507</v>
       </c>
-      <c r="AE30" t="n">
+      <c r="AF30" t="n">
         <v>0.4375026258085023</v>
       </c>
-      <c r="AF30" t="n">
+      <c r="AG30" t="n">
         <v>0.5830047186148154</v>
       </c>
-      <c r="AG30" t="n">
+      <c r="AH30" t="n">
         <v>0.5430619148736839</v>
       </c>
-      <c r="AH30" t="n">
+      <c r="AI30" t="n">
         <v>0.609187031660764</v>
       </c>
-      <c r="AI30" t="n">
+      <c r="AJ30" t="n">
         <v>0.6021143953294202</v>
       </c>
-      <c r="AJ30" t="n">
+      <c r="AK30" t="n">
         <v>1.422557573993921</v>
       </c>
-      <c r="AK30" t="n">
+      <c r="AL30" t="n">
         <v>0.7906753120424582</v>
       </c>
-      <c r="AL30" t="n">
+      <c r="AM30" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM30" t="n">
+      <c r="AN30" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4401,108 +4551,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F31" t="n">
+      <c r="F31" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G31" t="n">
         <v>5.12467</v>
       </c>
-      <c r="G31" t="n">
+      <c r="H31" t="n">
         <v>8.13129</v>
       </c>
-      <c r="H31" t="n">
+      <c r="I31" t="n">
         <v>25.11849</v>
       </c>
-      <c r="I31" t="n">
+      <c r="J31" t="n">
         <v>45.11219999999999</v>
       </c>
-      <c r="J31" t="inlineStr">
+      <c r="K31" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K31" t="n">
+      <c r="L31" t="n">
         <v>2122652.804777228</v>
       </c>
-      <c r="L31" t="n">
+      <c r="M31" t="n">
         <v>0.004034529423947654</v>
       </c>
-      <c r="M31" t="n">
+      <c r="N31" t="n">
         <v>0.06454419724894904</v>
       </c>
-      <c r="N31" t="n">
+      <c r="O31" t="n">
         <v>8.481290610675636</v>
       </c>
-      <c r="O31" t="n">
+      <c r="P31" t="n">
         <v>1</v>
       </c>
-      <c r="P31" t="n">
+      <c r="Q31" t="n">
         <v>0.006661124565351109</v>
       </c>
-      <c r="Q31" t="n">
+      <c r="R31" t="n">
         <v>0.3443410955321482</v>
       </c>
-      <c r="R31" t="n">
+      <c r="S31" t="n">
         <v>0.2317562425619033</v>
       </c>
-      <c r="S31" t="n">
+      <c r="T31" t="n">
         <v>0.07559708975397124</v>
       </c>
-      <c r="T31" t="n">
+      <c r="U31" t="n">
         <v>0.4911834902497473</v>
       </c>
-      <c r="U31" t="n">
+      <c r="V31" t="n">
         <v>0.055136748827698</v>
       </c>
-      <c r="V31" t="n">
+      <c r="W31" t="n">
         <v>0.1302674634699074</v>
       </c>
-      <c r="W31" t="n">
+      <c r="X31" t="n">
         <v>0.002107450356834699</v>
       </c>
-      <c r="X31" t="n">
+      <c r="Y31" t="n">
         <v>0.004090232130816968</v>
       </c>
-      <c r="Y31" t="n">
+      <c r="Z31" t="n">
         <v>1.219828913980606</v>
       </c>
-      <c r="Z31" t="n">
+      <c r="AA31" t="n">
         <v>0.4791077973452658</v>
       </c>
-      <c r="AA31" t="n">
+      <c r="AB31" t="n">
         <v>0.4061735093903062</v>
       </c>
-      <c r="AB31" t="n">
+      <c r="AC31" t="n">
         <v>0</v>
       </c>
-      <c r="AC31" t="n">
+      <c r="AD31" t="n">
         <v>0.7435414439900624</v>
       </c>
-      <c r="AD31" t="n">
+      <c r="AE31" t="n">
         <v>0.4570836630659999</v>
       </c>
-      <c r="AE31" t="n">
+      <c r="AF31" t="n">
         <v>0.4665912226952794</v>
       </c>
-      <c r="AF31" t="n">
+      <c r="AG31" t="n">
         <v>0.4982589304509485</v>
       </c>
-      <c r="AG31" t="n">
+      <c r="AH31" t="n">
         <v>0.4189593306757762</v>
       </c>
-      <c r="AH31" t="n">
+      <c r="AI31" t="n">
         <v>0.4675571234277281</v>
       </c>
-      <c r="AI31" t="n">
+      <c r="AJ31" t="n">
         <v>0.4970085549362817</v>
       </c>
-      <c r="AJ31" t="n">
+      <c r="AK31" t="n">
         <v>1.428862534570501</v>
       </c>
-      <c r="AK31" t="n">
+      <c r="AL31" t="n">
         <v>1.170338501013819</v>
       </c>
-      <c r="AL31" t="n">
+      <c r="AM31" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM31" t="n">
+      <c r="AN31" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4530,108 +4685,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F32" t="n">
+      <c r="F32" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G32" t="n">
         <v>5.12446</v>
       </c>
-      <c r="G32" t="n">
+      <c r="H32" t="n">
         <v>8.13111</v>
       </c>
-      <c r="H32" t="n">
+      <c r="I32" t="n">
         <v>25.11842</v>
       </c>
-      <c r="I32" t="n">
+      <c r="J32" t="n">
         <v>45.11156</v>
       </c>
-      <c r="J32" t="inlineStr">
+      <c r="K32" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K32" t="n">
+      <c r="L32" t="n">
         <v>2079467.128124865</v>
       </c>
-      <c r="L32" t="n">
+      <c r="M32" t="n">
         <v>0.001943307648254221</v>
       </c>
-      <c r="M32" t="n">
+      <c r="N32" t="n">
         <v>3.239762064787166</v>
       </c>
-      <c r="N32" t="n">
+      <c r="O32" t="n">
         <v>12.8118153399365</v>
       </c>
-      <c r="O32" t="n">
+      <c r="P32" t="n">
         <v>1</v>
       </c>
-      <c r="P32" t="n">
+      <c r="Q32" t="n">
         <v>0.03834008783177818</v>
       </c>
-      <c r="Q32" t="n">
+      <c r="R32" t="n">
         <v>4.294644117572177</v>
       </c>
-      <c r="R32" t="n">
+      <c r="S32" t="n">
         <v>1.256908673349408</v>
       </c>
-      <c r="S32" t="n">
+      <c r="T32" t="n">
         <v>0.3767121486149465</v>
       </c>
-      <c r="T32" t="n">
+      <c r="U32" t="n">
         <v>0.8485776676642659</v>
       </c>
-      <c r="U32" t="n">
+      <c r="V32" t="n">
         <v>0.03333259760764238</v>
       </c>
-      <c r="V32" t="n">
+      <c r="W32" t="n">
         <v>0.07960457406085251</v>
       </c>
-      <c r="W32" t="n">
+      <c r="X32" t="n">
         <v>0.002096509443156228</v>
       </c>
-      <c r="X32" t="n">
+      <c r="Y32" t="n">
         <v>0.01047481570319546</v>
       </c>
-      <c r="Y32" t="n">
+      <c r="Z32" t="n">
         <v>1.575192647832703</v>
       </c>
-      <c r="Z32" t="n">
+      <c r="AA32" t="n">
         <v>0.5322356408641326</v>
       </c>
-      <c r="AA32" t="n">
+      <c r="AB32" t="n">
         <v>0.5127066011242348</v>
       </c>
-      <c r="AB32" t="n">
+      <c r="AC32" t="n">
         <v>0</v>
       </c>
-      <c r="AC32" t="n">
+      <c r="AD32" t="n">
         <v>0.7998576533528189</v>
       </c>
-      <c r="AD32" t="n">
+      <c r="AE32" t="n">
         <v>0.5674577564094192</v>
       </c>
-      <c r="AE32" t="n">
+      <c r="AF32" t="n">
         <v>0.5013985160860526</v>
       </c>
-      <c r="AF32" t="n">
+      <c r="AG32" t="n">
         <v>0.603800645073831</v>
       </c>
-      <c r="AG32" t="n">
+      <c r="AH32" t="n">
         <v>0.604752352580738</v>
       </c>
-      <c r="AH32" t="n">
+      <c r="AI32" t="n">
         <v>0.6804986201262877</v>
       </c>
-      <c r="AI32" t="n">
+      <c r="AJ32" t="n">
         <v>0.676255225713709</v>
       </c>
-      <c r="AJ32" t="n">
+      <c r="AK32" t="n">
         <v>1.443060380567493</v>
       </c>
-      <c r="AK32" t="n">
+      <c r="AL32" t="n">
         <v>0.7934856844874983</v>
       </c>
-      <c r="AL32" t="n">
+      <c r="AM32" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM32" t="n">
+      <c r="AN32" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4659,108 +4819,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F33" t="n">
+      <c r="F33" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G33" t="n">
         <v>5.12437</v>
       </c>
-      <c r="G33" t="n">
+      <c r="H33" t="n">
         <v>8.130309999999998</v>
       </c>
-      <c r="H33" t="n">
+      <c r="I33" t="n">
         <v>25.11665</v>
       </c>
-      <c r="I33" t="n">
+      <c r="J33" t="n">
         <v>45.10946</v>
       </c>
-      <c r="J33" t="inlineStr">
+      <c r="K33" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K33" t="n">
+      <c r="L33" t="n">
         <v>2143256.643950939</v>
       </c>
-      <c r="L33" t="n">
+      <c r="M33" t="n">
         <v>0.004235912797340829</v>
       </c>
-      <c r="M33" t="n">
+      <c r="N33" t="n">
         <v>0.06461556241209244</v>
       </c>
-      <c r="N33" t="n">
+      <c r="O33" t="n">
         <v>8.608597448048098</v>
       </c>
-      <c r="O33" t="n">
+      <c r="P33" t="n">
         <v>1</v>
       </c>
-      <c r="P33" t="n">
+      <c r="Q33" t="n">
         <v>0.006668123744365291</v>
       </c>
-      <c r="Q33" t="n">
+      <c r="R33" t="n">
         <v>0.3459711833080035</v>
       </c>
-      <c r="R33" t="n">
+      <c r="S33" t="n">
         <v>0.2318744790836756</v>
       </c>
-      <c r="S33" t="n">
+      <c r="T33" t="n">
         <v>0.07665323115348442</v>
       </c>
-      <c r="T33" t="n">
+      <c r="U33" t="n">
         <v>0.5025047801587682</v>
       </c>
-      <c r="U33" t="n">
+      <c r="V33" t="n">
         <v>0.05732841549552965</v>
       </c>
-      <c r="V33" t="n">
+      <c r="W33" t="n">
         <v>0.1339266276801677</v>
       </c>
-      <c r="W33" t="n">
+      <c r="X33" t="n">
         <v>0.002205123375583263</v>
       </c>
-      <c r="X33" t="n">
+      <c r="Y33" t="n">
         <v>0.00409619404189526</v>
       </c>
-      <c r="Y33" t="n">
+      <c r="Z33" t="n">
         <v>1.036857119025081</v>
       </c>
-      <c r="Z33" t="n">
+      <c r="AA33" t="n">
         <v>0.5087385813950174</v>
       </c>
-      <c r="AA33" t="n">
+      <c r="AB33" t="n">
         <v>0.4096205351349937</v>
       </c>
-      <c r="AB33" t="n">
+      <c r="AC33" t="n">
         <v>0</v>
       </c>
-      <c r="AC33" t="n">
+      <c r="AD33" t="n">
         <v>0.8500687700400793</v>
       </c>
-      <c r="AD33" t="n">
+      <c r="AE33" t="n">
         <v>0.4554384421772616</v>
       </c>
-      <c r="AE33" t="n">
+      <c r="AF33" t="n">
         <v>0.4448650160971204</v>
       </c>
-      <c r="AF33" t="n">
+      <c r="AG33" t="n">
         <v>0.4912624823465609</v>
       </c>
-      <c r="AG33" t="n">
+      <c r="AH33" t="n">
         <v>0.463454266522924</v>
       </c>
-      <c r="AH33" t="n">
+      <c r="AI33" t="n">
         <v>0.4886716743746255</v>
       </c>
-      <c r="AI33" t="n">
+      <c r="AJ33" t="n">
         <v>0.4470698004824348</v>
       </c>
-      <c r="AJ33" t="n">
+      <c r="AK33" t="n">
         <v>1.324191537561661</v>
       </c>
-      <c r="AK33" t="n">
+      <c r="AL33" t="n">
         <v>1.058003241306581</v>
       </c>
-      <c r="AL33" t="n">
+      <c r="AM33" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM33" t="n">
+      <c r="AN33" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4788,108 +4953,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F34" t="n">
+      <c r="F34" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G34" t="n">
         <v>5.12401</v>
       </c>
-      <c r="G34" t="n">
+      <c r="H34" t="n">
         <v>8.13043</v>
       </c>
-      <c r="H34" t="n">
+      <c r="I34" t="n">
         <v>25.11745</v>
       </c>
-      <c r="I34" t="n">
+      <c r="J34" t="n">
         <v>45.10981</v>
       </c>
-      <c r="J34" t="inlineStr">
+      <c r="K34" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K34" t="n">
+      <c r="L34" t="n">
         <v>2004356.407138355</v>
       </c>
-      <c r="L34" t="n">
+      <c r="M34" t="n">
         <v>0.002029284703832693</v>
       </c>
-      <c r="M34" t="n">
+      <c r="N34" t="n">
         <v>3.224639146248085</v>
       </c>
-      <c r="N34" t="n">
+      <c r="O34" t="n">
         <v>12.62415998178579</v>
       </c>
-      <c r="O34" t="n">
+      <c r="P34" t="n">
         <v>1</v>
       </c>
-      <c r="P34" t="n">
+      <c r="Q34" t="n">
         <v>0.03780656250101101</v>
       </c>
-      <c r="Q34" t="n">
+      <c r="R34" t="n">
         <v>4.205993758088525</v>
       </c>
-      <c r="R34" t="n">
+      <c r="S34" t="n">
         <v>1.253770196627998</v>
       </c>
-      <c r="S34" t="n">
+      <c r="T34" t="n">
         <v>0.3680596581613256</v>
       </c>
-      <c r="T34" t="n">
+      <c r="U34" t="n">
         <v>0.8419466121267805</v>
       </c>
-      <c r="U34" t="n">
+      <c r="V34" t="n">
         <v>0.03250784922664857</v>
       </c>
-      <c r="V34" t="n">
+      <c r="W34" t="n">
         <v>0.07723507088651016</v>
       </c>
-      <c r="W34" t="n">
+      <c r="X34" t="n">
         <v>0.002099151019670588</v>
       </c>
-      <c r="X34" t="n">
+      <c r="Y34" t="n">
         <v>0.0108742394302702</v>
       </c>
-      <c r="Y34" t="n">
+      <c r="Z34" t="n">
         <v>1.631240683214678</v>
       </c>
-      <c r="Z34" t="n">
+      <c r="AA34" t="n">
         <v>0.5224638140643718</v>
       </c>
-      <c r="AA34" t="n">
+      <c r="AB34" t="n">
         <v>0.5318412779750546</v>
       </c>
-      <c r="AB34" t="n">
+      <c r="AC34" t="n">
         <v>0</v>
       </c>
-      <c r="AC34" t="n">
+      <c r="AD34" t="n">
         <v>0.6546927417710832</v>
       </c>
-      <c r="AD34" t="n">
+      <c r="AE34" t="n">
         <v>0.6260299459351174</v>
       </c>
-      <c r="AE34" t="n">
+      <c r="AF34" t="n">
         <v>0.5050443624491581</v>
       </c>
-      <c r="AF34" t="n">
+      <c r="AG34" t="n">
         <v>0.6364853651728669</v>
       </c>
-      <c r="AG34" t="n">
+      <c r="AH34" t="n">
         <v>0.6058997579859173</v>
       </c>
-      <c r="AH34" t="n">
+      <c r="AI34" t="n">
         <v>0.6486755027180994</v>
       </c>
-      <c r="AI34" t="n">
+      <c r="AJ34" t="n">
         <v>0.7106769734102044</v>
       </c>
-      <c r="AJ34" t="n">
+      <c r="AK34" t="n">
         <v>1.365114363238498</v>
       </c>
-      <c r="AK34" t="n">
+      <c r="AL34" t="n">
         <v>0.9716703433733345</v>
       </c>
-      <c r="AL34" t="n">
+      <c r="AM34" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM34" t="n">
+      <c r="AN34" t="n">
         <v>1</v>
       </c>
     </row>
@@ -4917,108 +5087,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F35" t="n">
+      <c r="F35" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G35" t="n">
         <v>5.12421</v>
       </c>
-      <c r="G35" t="n">
+      <c r="H35" t="n">
         <v>8.130660000000001</v>
       </c>
-      <c r="H35" t="n">
+      <c r="I35" t="n">
         <v>25.11819</v>
       </c>
-      <c r="I35" t="n">
+      <c r="J35" t="n">
         <v>45.11136</v>
       </c>
-      <c r="J35" t="inlineStr">
+      <c r="K35" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K35" t="n">
+      <c r="L35" t="n">
         <v>1975148.549766207</v>
       </c>
-      <c r="L35" t="n">
+      <c r="M35" t="n">
         <v>0.002071514729886146</v>
       </c>
-      <c r="M35" t="n">
+      <c r="N35" t="n">
         <v>3.253407322950313</v>
       </c>
-      <c r="N35" t="n">
+      <c r="O35" t="n">
         <v>12.72417518130938</v>
       </c>
-      <c r="O35" t="n">
+      <c r="P35" t="n">
         <v>1</v>
       </c>
-      <c r="P35" t="n">
+      <c r="Q35" t="n">
         <v>0.0379739363281269</v>
       </c>
-      <c r="Q35" t="n">
+      <c r="R35" t="n">
         <v>4.270071676237633</v>
       </c>
-      <c r="R35" t="n">
+      <c r="S35" t="n">
         <v>1.261176091858358</v>
       </c>
-      <c r="S35" t="n">
+      <c r="T35" t="n">
         <v>0.3735639707691562</v>
       </c>
-      <c r="T35" t="n">
+      <c r="U35" t="n">
         <v>0.8561418140140254</v>
       </c>
-      <c r="U35" t="n">
+      <c r="V35" t="n">
         <v>0.03356491483229469</v>
       </c>
-      <c r="V35" t="n">
+      <c r="W35" t="n">
         <v>0.07892778026385226</v>
       </c>
-      <c r="W35" t="n">
+      <c r="X35" t="n">
         <v>0.002071894041699227</v>
       </c>
-      <c r="X35" t="n">
+      <c r="Y35" t="n">
         <v>0.0109653354660356</v>
       </c>
-      <c r="Y35" t="n">
+      <c r="Z35" t="n">
         <v>2.813713162369086</v>
       </c>
-      <c r="Z35" t="n">
+      <c r="AA35" t="n">
         <v>0.5404367091238069</v>
       </c>
-      <c r="AA35" t="n">
+      <c r="AB35" t="n">
         <v>0.5175519448980166</v>
       </c>
-      <c r="AB35" t="n">
+      <c r="AC35" t="n">
         <v>0</v>
       </c>
-      <c r="AC35" t="n">
+      <c r="AD35" t="n">
         <v>0.7489965898447049</v>
       </c>
-      <c r="AD35" t="n">
+      <c r="AE35" t="n">
         <v>0.5473643260155244</v>
       </c>
-      <c r="AE35" t="n">
+      <c r="AF35" t="n">
         <v>0.5289958560169776</v>
       </c>
-      <c r="AF35" t="n">
+      <c r="AG35" t="n">
         <v>0.6211266625336708</v>
       </c>
-      <c r="AG35" t="n">
+      <c r="AH35" t="n">
         <v>0.6438217590861892</v>
       </c>
-      <c r="AH35" t="n">
+      <c r="AI35" t="n">
         <v>0.6977608615700761</v>
       </c>
-      <c r="AI35" t="n">
+      <c r="AJ35" t="n">
         <v>0.7689073759757983</v>
       </c>
-      <c r="AJ35" t="n">
+      <c r="AK35" t="n">
         <v>1.423250364981343</v>
       </c>
-      <c r="AK35" t="n">
+      <c r="AL35" t="n">
         <v>0.869237964433734</v>
       </c>
-      <c r="AL35" t="n">
+      <c r="AM35" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM35" t="n">
+      <c r="AN35" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5046,108 +5221,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F36" t="n">
+      <c r="F36" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G36" t="n">
         <v>5.124020000000001</v>
       </c>
-      <c r="G36" t="n">
+      <c r="H36" t="n">
         <v>8.1303</v>
       </c>
-      <c r="H36" t="n">
+      <c r="I36" t="n">
         <v>25.11719</v>
       </c>
-      <c r="I36" t="n">
+      <c r="J36" t="n">
         <v>45.11032</v>
       </c>
-      <c r="J36" t="inlineStr">
+      <c r="K36" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K36" t="n">
+      <c r="L36" t="n">
         <v>2101686.010981425</v>
       </c>
-      <c r="L36" t="n">
+      <c r="M36" t="n">
         <v>0.004271574714331075</v>
       </c>
-      <c r="M36" t="n">
+      <c r="N36" t="n">
         <v>0.06579923919897457</v>
       </c>
-      <c r="N36" t="n">
+      <c r="O36" t="n">
         <v>8.635416849172785</v>
       </c>
-      <c r="O36" t="n">
+      <c r="P36" t="n">
         <v>1</v>
       </c>
-      <c r="P36" t="n">
+      <c r="Q36" t="n">
         <v>0.006745012268898497</v>
       </c>
-      <c r="Q36" t="n">
+      <c r="R36" t="n">
         <v>0.3543188570698982</v>
       </c>
-      <c r="R36" t="n">
+      <c r="S36" t="n">
         <v>0.2339739736087581</v>
       </c>
-      <c r="S36" t="n">
+      <c r="T36" t="n">
         <v>0.07829359816041677</v>
       </c>
-      <c r="T36" t="n">
+      <c r="U36" t="n">
         <v>0.5124678148700609</v>
       </c>
-      <c r="U36" t="n">
+      <c r="V36" t="n">
         <v>0.05787420172398554</v>
       </c>
-      <c r="V36" t="n">
+      <c r="W36" t="n">
         <v>0.1369498121036084</v>
       </c>
-      <c r="W36" t="n">
+      <c r="X36" t="n">
         <v>0.002178837031185911</v>
       </c>
-      <c r="X36" t="n">
+      <c r="Y36" t="n">
         <v>0.004333119810810655</v>
       </c>
-      <c r="Y36" t="n">
+      <c r="Z36" t="n">
         <v>1.016153990324141</v>
       </c>
-      <c r="Z36" t="n">
+      <c r="AA36" t="n">
         <v>0.4766303976406124</v>
       </c>
-      <c r="AA36" t="n">
+      <c r="AB36" t="n">
         <v>0.3789722367771874</v>
       </c>
-      <c r="AB36" t="n">
+      <c r="AC36" t="n">
         <v>0</v>
       </c>
-      <c r="AC36" t="n">
+      <c r="AD36" t="n">
         <v>0.9173895255434208</v>
       </c>
-      <c r="AD36" t="n">
+      <c r="AE36" t="n">
         <v>0.43792083456171</v>
       </c>
-      <c r="AE36" t="n">
+      <c r="AF36" t="n">
         <v>0.4177711991777501</v>
       </c>
-      <c r="AF36" t="n">
+      <c r="AG36" t="n">
         <v>0.442439589913879</v>
       </c>
-      <c r="AG36" t="n">
+      <c r="AH36" t="n">
         <v>0.4339760871101948</v>
       </c>
-      <c r="AH36" t="n">
+      <c r="AI36" t="n">
         <v>0.4498809475439751</v>
       </c>
-      <c r="AI36" t="n">
+      <c r="AJ36" t="n">
         <v>0.4535412540364331</v>
       </c>
-      <c r="AJ36" t="n">
+      <c r="AK36" t="n">
         <v>1.403248251360303</v>
       </c>
-      <c r="AK36" t="n">
+      <c r="AL36" t="n">
         <v>1.022056074548224</v>
       </c>
-      <c r="AL36" t="n">
+      <c r="AM36" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM36" t="n">
+      <c r="AN36" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5175,108 +5355,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F37" t="n">
+      <c r="F37" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G37" t="n">
         <v>5.12425</v>
       </c>
-      <c r="G37" t="n">
+      <c r="H37" t="n">
         <v>8.13086</v>
       </c>
-      <c r="H37" t="n">
+      <c r="I37" t="n">
         <v>25.11881</v>
       </c>
-      <c r="I37" t="n">
+      <c r="J37" t="n">
         <v>45.11231</v>
       </c>
-      <c r="J37" t="inlineStr">
+      <c r="K37" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K37" t="n">
+      <c r="L37" t="n">
         <v>2156293.388324638</v>
       </c>
-      <c r="L37" t="n">
+      <c r="M37" t="n">
         <v>0.00425352579042063</v>
       </c>
-      <c r="M37" t="n">
+      <c r="N37" t="n">
         <v>0.06486339451477696</v>
       </c>
-      <c r="N37" t="n">
+      <c r="O37" t="n">
         <v>8.653445022909542</v>
       </c>
-      <c r="O37" t="n">
+      <c r="P37" t="n">
         <v>1</v>
       </c>
-      <c r="P37" t="n">
+      <c r="Q37" t="n">
         <v>0.006760966064415539</v>
       </c>
-      <c r="Q37" t="n">
+      <c r="R37" t="n">
         <v>0.3543274263365002</v>
       </c>
-      <c r="R37" t="n">
+      <c r="S37" t="n">
         <v>0.23664866208344</v>
       </c>
-      <c r="S37" t="n">
+      <c r="T37" t="n">
         <v>0.07867256312730696</v>
       </c>
-      <c r="T37" t="n">
+      <c r="U37" t="n">
         <v>0.5129376812791636</v>
       </c>
-      <c r="U37" t="n">
+      <c r="V37" t="n">
         <v>0.05810188820421382</v>
       </c>
-      <c r="V37" t="n">
+      <c r="W37" t="n">
         <v>0.1362649400722554</v>
       </c>
-      <c r="W37" t="n">
+      <c r="X37" t="n">
         <v>0.002198545077746552</v>
       </c>
-      <c r="X37" t="n">
+      <c r="Y37" t="n">
         <v>0.004252873862958677</v>
       </c>
-      <c r="Y37" t="n">
+      <c r="Z37" t="n">
         <v>1.080450646050954</v>
       </c>
-      <c r="Z37" t="n">
+      <c r="AA37" t="n">
         <v>0.4778541793189724</v>
       </c>
-      <c r="AA37" t="n">
+      <c r="AB37" t="n">
         <v>0.3781080734579023</v>
       </c>
-      <c r="AB37" t="n">
+      <c r="AC37" t="n">
         <v>0</v>
       </c>
-      <c r="AC37" t="n">
+      <c r="AD37" t="n">
         <v>0.8771464939859478</v>
       </c>
-      <c r="AD37" t="n">
+      <c r="AE37" t="n">
         <v>0.4066909999387506</v>
       </c>
-      <c r="AE37" t="n">
+      <c r="AF37" t="n">
         <v>0.4360152567701862</v>
       </c>
-      <c r="AF37" t="n">
+      <c r="AG37" t="n">
         <v>0.5056579671272299</v>
       </c>
-      <c r="AG37" t="n">
+      <c r="AH37" t="n">
         <v>0.4231276030123773</v>
       </c>
-      <c r="AH37" t="n">
+      <c r="AI37" t="n">
         <v>0.5107571969766195</v>
       </c>
-      <c r="AI37" t="n">
+      <c r="AJ37" t="n">
         <v>0.4258142408822467</v>
       </c>
-      <c r="AJ37" t="n">
+      <c r="AK37" t="n">
         <v>1.301519120685298</v>
       </c>
-      <c r="AK37" t="n">
+      <c r="AL37" t="n">
         <v>0.9794050189703055</v>
       </c>
-      <c r="AL37" t="n">
+      <c r="AM37" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM37" t="n">
+      <c r="AN37" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5304,108 +5489,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F38" t="n">
+      <c r="F38" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G38" t="n">
         <v>5.12451</v>
       </c>
-      <c r="G38" t="n">
+      <c r="H38" t="n">
         <v>8.13105</v>
       </c>
-      <c r="H38" t="n">
+      <c r="I38" t="n">
         <v>25.11708</v>
       </c>
-      <c r="I38" t="n">
+      <c r="J38" t="n">
         <v>45.11095</v>
       </c>
-      <c r="J38" t="inlineStr">
+      <c r="K38" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K38" t="n">
+      <c r="L38" t="n">
         <v>1529161.449230742</v>
       </c>
-      <c r="L38" t="n">
+      <c r="M38" t="n">
         <v>0.0009369623308057646</v>
       </c>
-      <c r="M38" t="n">
+      <c r="N38" t="n">
         <v>7.034500750671479</v>
       </c>
-      <c r="N38" t="n">
+      <c r="O38" t="n">
         <v>13.57882936391944</v>
       </c>
-      <c r="O38" t="n">
+      <c r="P38" t="n">
         <v>1</v>
       </c>
-      <c r="P38" t="n">
+      <c r="Q38" t="n">
         <v>0.06553782219457405</v>
       </c>
-      <c r="Q38" t="n">
+      <c r="R38" t="n">
         <v>5.464932198335431</v>
       </c>
-      <c r="R38" t="n">
+      <c r="S38" t="n">
         <v>1.207635008441355</v>
       </c>
-      <c r="S38" t="n">
+      <c r="T38" t="n">
         <v>0.4693834938316361</v>
       </c>
-      <c r="T38" t="n">
+      <c r="U38" t="n">
         <v>0.1729407578413603</v>
       </c>
-      <c r="U38" t="n">
+      <c r="V38" t="n">
         <v>0.02230827687343808</v>
       </c>
-      <c r="V38" t="n">
+      <c r="W38" t="n">
         <v>0.05952527352284511</v>
       </c>
-      <c r="W38" t="n">
+      <c r="X38" t="n">
         <v>0.002339753930714603</v>
       </c>
-      <c r="X38" t="n">
+      <c r="Y38" t="n">
         <v>0.001941525684916167</v>
       </c>
-      <c r="Y38" t="n">
+      <c r="Z38" t="n">
         <v>3.147819573293849</v>
       </c>
-      <c r="Z38" t="n">
+      <c r="AA38" t="n">
         <v>0.5084201179425657</v>
       </c>
-      <c r="AA38" t="n">
+      <c r="AB38" t="n">
         <v>0.5134187763824885</v>
       </c>
-      <c r="AB38" t="n">
+      <c r="AC38" t="n">
         <v>0</v>
       </c>
-      <c r="AC38" t="n">
+      <c r="AD38" t="n">
         <v>0.5803216637593229</v>
       </c>
-      <c r="AD38" t="n">
+      <c r="AE38" t="n">
         <v>0.5262517128383867</v>
       </c>
-      <c r="AE38" t="n">
+      <c r="AF38" t="n">
         <v>0.532897354759487</v>
       </c>
-      <c r="AF38" t="n">
+      <c r="AG38" t="n">
         <v>0.5252669340715752</v>
       </c>
-      <c r="AG38" t="n">
+      <c r="AH38" t="n">
         <v>0.7700728909483925</v>
       </c>
-      <c r="AH38" t="n">
+      <c r="AI38" t="n">
         <v>0.8079151758594838</v>
       </c>
-      <c r="AI38" t="n">
+      <c r="AJ38" t="n">
         <v>0.6585378586608243</v>
       </c>
-      <c r="AJ38" t="n">
+      <c r="AK38" t="n">
         <v>1.448777927061455</v>
       </c>
-      <c r="AK38" t="n">
+      <c r="AL38" t="n">
         <v>3.661498184475139</v>
       </c>
-      <c r="AL38" t="n">
+      <c r="AM38" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM38" t="n">
+      <c r="AN38" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5433,108 +5623,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F39" t="n">
+      <c r="F39" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G39" t="n">
         <v>5.12452</v>
       </c>
-      <c r="G39" t="n">
+      <c r="H39" t="n">
         <v>8.131080000000001</v>
       </c>
-      <c r="H39" t="n">
+      <c r="I39" t="n">
         <v>25.11862</v>
       </c>
-      <c r="I39" t="n">
+      <c r="J39" t="n">
         <v>45.11213</v>
       </c>
-      <c r="J39" t="inlineStr">
+      <c r="K39" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K39" t="n">
+      <c r="L39" t="n">
         <v>1533992.046828933</v>
       </c>
-      <c r="L39" t="n">
+      <c r="M39" t="n">
         <v>0.001027202437117747</v>
       </c>
-      <c r="M39" t="n">
+      <c r="N39" t="n">
         <v>6.989035855350719</v>
       </c>
-      <c r="N39" t="n">
+      <c r="O39" t="n">
         <v>13.4796424022983</v>
       </c>
-      <c r="O39" t="n">
+      <c r="P39" t="n">
         <v>1</v>
       </c>
-      <c r="P39" t="n">
+      <c r="Q39" t="n">
         <v>0.06502471290534689</v>
       </c>
-      <c r="Q39" t="n">
+      <c r="R39" t="n">
         <v>5.394859828288063</v>
       </c>
-      <c r="R39" t="n">
+      <c r="S39" t="n">
         <v>1.197078144549261</v>
       </c>
-      <c r="S39" t="n">
+      <c r="T39" t="n">
         <v>0.4667711951400981</v>
       </c>
-      <c r="T39" t="n">
+      <c r="U39" t="n">
         <v>0.1750623177150383</v>
       </c>
-      <c r="U39" t="n">
+      <c r="V39" t="n">
         <v>0.02164402912079468</v>
       </c>
-      <c r="V39" t="n">
+      <c r="W39" t="n">
         <v>0.05822731787993624</v>
       </c>
-      <c r="W39" t="n">
+      <c r="X39" t="n">
         <v>0.002416732177508504</v>
       </c>
-      <c r="X39" t="n">
+      <c r="Y39" t="n">
         <v>0.002039369422783967</v>
       </c>
-      <c r="Y39" t="n">
+      <c r="Z39" t="n">
         <v>2.637983055448288</v>
       </c>
-      <c r="Z39" t="n">
+      <c r="AA39" t="n">
         <v>0.5122121209678731</v>
       </c>
-      <c r="AA39" t="n">
+      <c r="AB39" t="n">
         <v>0.3867171155870372</v>
       </c>
-      <c r="AB39" t="n">
+      <c r="AC39" t="n">
         <v>0</v>
       </c>
-      <c r="AC39" t="n">
+      <c r="AD39" t="n">
         <v>0.5817789231585604</v>
       </c>
-      <c r="AD39" t="n">
+      <c r="AE39" t="n">
         <v>0.4476688734193686</v>
       </c>
-      <c r="AE39" t="n">
+      <c r="AF39" t="n">
         <v>0.5201376214448741</v>
       </c>
-      <c r="AF39" t="n">
+      <c r="AG39" t="n">
         <v>0.404475055299718</v>
       </c>
-      <c r="AG39" t="n">
+      <c r="AH39" t="n">
         <v>0.4747213156648709</v>
       </c>
-      <c r="AH39" t="n">
+      <c r="AI39" t="n">
         <v>0.6415645631869585</v>
       </c>
-      <c r="AI39" t="n">
+      <c r="AJ39" t="n">
         <v>0.621827412099223</v>
       </c>
-      <c r="AJ39" t="n">
+      <c r="AK39" t="n">
         <v>1.593447281891381</v>
       </c>
-      <c r="AK39" t="n">
+      <c r="AL39" t="n">
         <v>1.950493109030175</v>
       </c>
-      <c r="AL39" t="n">
+      <c r="AM39" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM39" t="n">
+      <c r="AN39" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5562,108 +5757,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F40" t="n">
+      <c r="F40" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G40" t="n">
         <v>5.12417</v>
       </c>
-      <c r="G40" t="n">
+      <c r="H40" t="n">
         <v>8.130789999999999</v>
       </c>
-      <c r="H40" t="n">
+      <c r="I40" t="n">
         <v>25.1184</v>
       </c>
-      <c r="I40" t="n">
+      <c r="J40" t="n">
         <v>45.11097</v>
       </c>
-      <c r="J40" t="inlineStr">
+      <c r="K40" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K40" t="n">
+      <c r="L40" t="n">
         <v>2284687.117768588</v>
       </c>
-      <c r="L40" t="n">
+      <c r="M40" t="n">
         <v>0.006179106809526256</v>
       </c>
-      <c r="M40" t="n">
+      <c r="N40" t="n">
         <v>0.007684174847397733</v>
       </c>
-      <c r="N40" t="n">
+      <c r="O40" t="n">
         <v>1.538915414558264</v>
       </c>
-      <c r="O40" t="n">
+      <c r="P40" t="n">
         <v>1</v>
       </c>
-      <c r="P40" t="n">
+      <c r="Q40" t="n">
         <v>0.05393604357686931</v>
       </c>
-      <c r="Q40" t="n">
+      <c r="R40" t="n">
         <v>0.109255052462065</v>
       </c>
-      <c r="R40" t="n">
+      <c r="S40" t="n">
         <v>0.0005034822956579396</v>
       </c>
-      <c r="S40" t="n">
+      <c r="T40" t="n">
         <v>0.0742614940569969</v>
       </c>
-      <c r="T40" t="n">
+      <c r="U40" t="n">
         <v>0.04100404768933232</v>
       </c>
-      <c r="U40" t="n">
+      <c r="V40" t="n">
         <v>0.04299415315297047</v>
       </c>
-      <c r="V40" t="n">
+      <c r="W40" t="n">
         <v>0.04727204995791104</v>
       </c>
-      <c r="W40" t="n">
+      <c r="X40" t="n">
         <v>0.03335542481901787</v>
       </c>
-      <c r="X40" t="n">
+      <c r="Y40" t="n">
         <v>0.0296902472103565</v>
       </c>
-      <c r="Y40" t="n">
+      <c r="Z40" t="n">
         <v>0.8747028509491548</v>
       </c>
-      <c r="Z40" t="n">
+      <c r="AA40" t="n">
         <v>0.8572703581694876</v>
       </c>
-      <c r="AA40" t="n">
+      <c r="AB40" t="n">
         <v>0.3889317017962394</v>
       </c>
-      <c r="AB40" t="n">
+      <c r="AC40" t="n">
         <v>0</v>
       </c>
-      <c r="AC40" t="n">
+      <c r="AD40" t="n">
         <v>0.4689068492388361</v>
       </c>
-      <c r="AD40" t="n">
+      <c r="AE40" t="n">
         <v>0.433453865083577</v>
       </c>
-      <c r="AE40" t="n">
+      <c r="AF40" t="n">
         <v>4.380423418951158</v>
       </c>
-      <c r="AF40" t="n">
+      <c r="AG40" t="n">
         <v>0.4371772268156277</v>
       </c>
-      <c r="AG40" t="n">
+      <c r="AH40" t="n">
         <v>0.54648310178495</v>
       </c>
-      <c r="AH40" t="n">
+      <c r="AI40" t="n">
         <v>0.483540872037747</v>
       </c>
-      <c r="AI40" t="n">
+      <c r="AJ40" t="n">
         <v>0.5298737562527552</v>
       </c>
-      <c r="AJ40" t="n">
+      <c r="AK40" t="n">
         <v>0.5641509009067948</v>
       </c>
-      <c r="AK40" t="n">
+      <c r="AL40" t="n">
         <v>0.4965353539471129</v>
       </c>
-      <c r="AL40" t="n">
+      <c r="AM40" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM40" t="n">
+      <c r="AN40" t="n">
         <v>1</v>
       </c>
     </row>
@@ -5691,108 +5891,113 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F41" t="n">
+      <c r="F41" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G41" t="n">
         <v>5.12385</v>
       </c>
-      <c r="G41" t="n">
+      <c r="H41" t="n">
         <v>8.13045</v>
       </c>
-      <c r="H41" t="n">
+      <c r="I41" t="n">
         <v>25.11738</v>
       </c>
-      <c r="I41" t="n">
+      <c r="J41" t="n">
         <v>45.1105</v>
       </c>
-      <c r="J41" t="inlineStr">
+      <c r="K41" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K41" t="n">
+      <c r="L41" t="n">
         <v>2296523.620534098</v>
       </c>
-      <c r="L41" t="n">
+      <c r="M41" t="n">
         <v>0.006198197493043419</v>
       </c>
-      <c r="M41" t="n">
+      <c r="N41" t="n">
         <v>0.007775886169892693</v>
       </c>
-      <c r="N41" t="n">
+      <c r="O41" t="n">
         <v>1.521701671266362</v>
       </c>
-      <c r="O41" t="n">
+      <c r="P41" t="n">
         <v>1</v>
       </c>
-      <c r="P41" t="n">
+      <c r="Q41" t="n">
         <v>0.05386857091816342</v>
       </c>
-      <c r="Q41" t="n">
+      <c r="R41" t="n">
         <v>0.1086216763962135</v>
       </c>
-      <c r="R41" t="n">
+      <c r="S41" t="n">
         <v>0.0004862512125690809</v>
       </c>
-      <c r="S41" t="n">
+      <c r="T41" t="n">
         <v>0.07372982944250088</v>
       </c>
-      <c r="T41" t="n">
+      <c r="U41" t="n">
         <v>0.04034121556107898</v>
       </c>
-      <c r="U41" t="n">
+      <c r="V41" t="n">
         <v>0.04201315960988305</v>
       </c>
-      <c r="V41" t="n">
+      <c r="W41" t="n">
         <v>0.04651466320801172</v>
       </c>
-      <c r="W41" t="n">
+      <c r="X41" t="n">
         <v>0.03307418056677187</v>
       </c>
-      <c r="X41" t="n">
+      <c r="Y41" t="n">
         <v>0.0294847214072321</v>
       </c>
-      <c r="Y41" t="n">
+      <c r="Z41" t="n">
         <v>0.8382129572850406</v>
       </c>
-      <c r="Z41" t="n">
+      <c r="AA41" t="n">
         <v>0.8209593785382321</v>
       </c>
-      <c r="AA41" t="n">
+      <c r="AB41" t="n">
         <v>0.3410748469677208</v>
       </c>
-      <c r="AB41" t="n">
+      <c r="AC41" t="n">
         <v>0</v>
       </c>
-      <c r="AC41" t="n">
+      <c r="AD41" t="n">
         <v>0.3797255549598154</v>
       </c>
-      <c r="AD41" t="n">
+      <c r="AE41" t="n">
         <v>0.3876215821710119</v>
       </c>
-      <c r="AE41" t="n">
+      <c r="AF41" t="n">
         <v>3.078778289048623</v>
       </c>
-      <c r="AF41" t="n">
+      <c r="AG41" t="n">
         <v>0.413190939018735</v>
       </c>
-      <c r="AG41" t="n">
+      <c r="AH41" t="n">
         <v>0.4774825348731904</v>
       </c>
-      <c r="AH41" t="n">
+      <c r="AI41" t="n">
         <v>0.4193437180105709</v>
       </c>
-      <c r="AI41" t="n">
+      <c r="AJ41" t="n">
         <v>0.4801252384898295</v>
       </c>
-      <c r="AJ41" t="n">
+      <c r="AK41" t="n">
         <v>0.5136809862538807</v>
       </c>
-      <c r="AK41" t="n">
+      <c r="AL41" t="n">
         <v>0.5122174832299773</v>
       </c>
-      <c r="AL41" t="n">
+      <c r="AM41" t="n">
         <v>71.90000000000001</v>
       </c>
-      <c r="AM41" t="n">
+      <c r="AN41" t="n">
         <v>1</v>
       </c>
     </row>
@@ -13940,7 +14145,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AK16"/>
+  <dimension ref="A1:AL16"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -13976,160 +14181,165 @@
       </c>
       <c r="F1" s="1" t="inlineStr">
         <is>
+          <t>omitted_region</t>
+        </is>
+      </c>
+      <c r="G1" s="1" t="inlineStr">
+        <is>
           <t>bkgd_start</t>
         </is>
       </c>
-      <c r="G1" s="1" t="inlineStr">
+      <c r="H1" s="1" t="inlineStr">
         <is>
           <t>bkgd_stop</t>
         </is>
       </c>
-      <c r="H1" s="1" t="inlineStr">
+      <c r="I1" s="1" t="inlineStr">
         <is>
           <t>int_start</t>
         </is>
       </c>
-      <c r="I1" s="1" t="inlineStr">
+      <c r="J1" s="1" t="inlineStr">
         <is>
           <t>int_stop</t>
         </is>
       </c>
-      <c r="J1" s="1" t="inlineStr">
+      <c r="K1" s="1" t="inlineStr">
         <is>
           <t>norm</t>
         </is>
       </c>
-      <c r="K1" s="1" t="inlineStr">
+      <c r="L1" s="1" t="inlineStr">
         <is>
           <t>norm_cps</t>
         </is>
       </c>
-      <c r="L1" s="1" t="inlineStr">
+      <c r="M1" s="1" t="inlineStr">
         <is>
           <t>7Li</t>
         </is>
       </c>
-      <c r="M1" s="1" t="inlineStr">
+      <c r="N1" s="1" t="inlineStr">
         <is>
           <t>24Mg</t>
         </is>
       </c>
-      <c r="N1" s="1" t="inlineStr">
+      <c r="O1" s="1" t="inlineStr">
         <is>
           <t>27Al</t>
         </is>
       </c>
-      <c r="O1" s="1" t="inlineStr">
+      <c r="P1" s="1" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="P1" s="1" t="inlineStr">
+      <c r="Q1" s="1" t="inlineStr">
         <is>
           <t>43Ca</t>
         </is>
       </c>
-      <c r="Q1" s="1" t="inlineStr">
+      <c r="R1" s="1" t="inlineStr">
         <is>
           <t>48Ti</t>
         </is>
       </c>
-      <c r="R1" s="1" t="inlineStr">
+      <c r="S1" s="1" t="inlineStr">
         <is>
           <t>57Fe</t>
         </is>
       </c>
-      <c r="S1" s="1" t="inlineStr">
+      <c r="T1" s="1" t="inlineStr">
         <is>
           <t>88Sr</t>
         </is>
       </c>
-      <c r="T1" s="1" t="inlineStr">
+      <c r="U1" s="1" t="inlineStr">
         <is>
           <t>138Ba</t>
         </is>
       </c>
-      <c r="U1" s="1" t="inlineStr">
+      <c r="V1" s="1" t="inlineStr">
         <is>
           <t>139La</t>
         </is>
       </c>
-      <c r="V1" s="1" t="inlineStr">
+      <c r="W1" s="1" t="inlineStr">
         <is>
           <t>140Ce</t>
         </is>
       </c>
-      <c r="W1" s="1" t="inlineStr">
+      <c r="X1" s="1" t="inlineStr">
         <is>
           <t>153Eu</t>
         </is>
       </c>
-      <c r="X1" s="1" t="inlineStr">
+      <c r="Y1" s="1" t="inlineStr">
         <is>
           <t>208Pb</t>
         </is>
       </c>
-      <c r="Y1" s="1" t="inlineStr">
+      <c r="Z1" s="1" t="inlineStr">
         <is>
           <t>7Li_se</t>
         </is>
       </c>
-      <c r="Z1" s="1" t="inlineStr">
+      <c r="AA1" s="1" t="inlineStr">
         <is>
           <t>24Mg_se</t>
         </is>
       </c>
-      <c r="AA1" s="1" t="inlineStr">
+      <c r="AB1" s="1" t="inlineStr">
         <is>
           <t>27Al_se</t>
         </is>
       </c>
-      <c r="AB1" s="1" t="inlineStr">
+      <c r="AC1" s="1" t="inlineStr">
         <is>
           <t>29Si_se</t>
         </is>
       </c>
-      <c r="AC1" s="1" t="inlineStr">
+      <c r="AD1" s="1" t="inlineStr">
         <is>
           <t>43Ca_se</t>
         </is>
       </c>
-      <c r="AD1" s="1" t="inlineStr">
+      <c r="AE1" s="1" t="inlineStr">
         <is>
           <t>48Ti_se</t>
         </is>
       </c>
-      <c r="AE1" s="1" t="inlineStr">
+      <c r="AF1" s="1" t="inlineStr">
         <is>
           <t>57Fe_se</t>
         </is>
       </c>
-      <c r="AF1" s="1" t="inlineStr">
+      <c r="AG1" s="1" t="inlineStr">
         <is>
           <t>88Sr_se</t>
         </is>
       </c>
-      <c r="AG1" s="1" t="inlineStr">
+      <c r="AH1" s="1" t="inlineStr">
         <is>
           <t>138Ba_se</t>
         </is>
       </c>
-      <c r="AH1" s="1" t="inlineStr">
+      <c r="AI1" s="1" t="inlineStr">
         <is>
           <t>139La_se</t>
         </is>
       </c>
-      <c r="AI1" s="1" t="inlineStr">
+      <c r="AJ1" s="1" t="inlineStr">
         <is>
           <t>140Ce_se</t>
         </is>
       </c>
-      <c r="AJ1" s="1" t="inlineStr">
+      <c r="AK1" s="1" t="inlineStr">
         <is>
           <t>153Eu_se</t>
         </is>
       </c>
-      <c r="AK1" s="1" t="inlineStr">
+      <c r="AL1" s="1" t="inlineStr">
         <is>
           <t>208Pb_se</t>
         </is>
@@ -14159,102 +14369,107 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F2" t="n">
+      <c r="F2" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G2" t="n">
         <v>5.12408</v>
       </c>
-      <c r="G2" t="n">
+      <c r="H2" t="n">
         <v>8.130559999999999</v>
       </c>
-      <c r="H2" t="n">
+      <c r="I2" t="n">
         <v>25.11728</v>
       </c>
-      <c r="I2" t="n">
+      <c r="J2" t="n">
         <v>45.11153</v>
       </c>
-      <c r="J2" t="inlineStr">
+      <c r="K2" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K2" t="n">
+      <c r="L2" t="n">
         <v>2495372.560199064</v>
       </c>
-      <c r="L2" t="n">
+      <c r="M2" t="n">
         <v>0.001819487870553265</v>
       </c>
-      <c r="M2" t="n">
+      <c r="N2" t="n">
         <v>3.156527455164507</v>
       </c>
-      <c r="N2" t="n">
+      <c r="O2" t="n">
         <v>12.53338760377716</v>
       </c>
-      <c r="O2" t="n">
+      <c r="P2" t="n">
         <v>1</v>
       </c>
-      <c r="P2" t="n">
+      <c r="Q2" t="n">
         <v>0.03575089876418051</v>
       </c>
-      <c r="Q2" t="n">
+      <c r="R2" t="n">
         <v>4.087084879009584</v>
       </c>
-      <c r="R2" t="n">
+      <c r="S2" t="n">
         <v>1.252179908095086</v>
       </c>
-      <c r="S2" t="n">
+      <c r="T2" t="n">
         <v>0.3332715857737247</v>
       </c>
-      <c r="T2" t="n">
+      <c r="U2" t="n">
         <v>0.7223758411350121</v>
       </c>
-      <c r="U2" t="n">
+      <c r="V2" t="n">
         <v>0.02887909567751666</v>
       </c>
-      <c r="V2" t="n">
+      <c r="W2" t="n">
         <v>0.06600177466504836</v>
       </c>
-      <c r="W2" t="n">
+      <c r="X2" t="n">
         <v>0.001834474424876202</v>
       </c>
-      <c r="X2" t="n">
+      <c r="Y2" t="n">
         <v>0.009295107455099143</v>
       </c>
-      <c r="Y2" t="n">
+      <c r="Z2" t="n">
         <v>1.542401369886885</v>
       </c>
-      <c r="Z2" t="n">
+      <c r="AA2" t="n">
         <v>0.6810884525518371</v>
       </c>
-      <c r="AA2" t="n">
+      <c r="AB2" t="n">
         <v>0.5691037644280008</v>
       </c>
-      <c r="AB2" t="n">
+      <c r="AC2" t="n">
         <v>0</v>
       </c>
-      <c r="AC2" t="n">
+      <c r="AD2" t="n">
         <v>0.8509635383455335</v>
       </c>
-      <c r="AD2" t="n">
+      <c r="AE2" t="n">
         <v>0.6922647252582421</v>
       </c>
-      <c r="AE2" t="n">
+      <c r="AF2" t="n">
         <v>0.6821302386819793</v>
       </c>
-      <c r="AF2" t="n">
+      <c r="AG2" t="n">
         <v>0.7079978012251211</v>
       </c>
-      <c r="AG2" t="n">
+      <c r="AH2" t="n">
         <v>0.5874708188550533</v>
       </c>
-      <c r="AH2" t="n">
+      <c r="AI2" t="n">
         <v>0.9927610985977846</v>
       </c>
-      <c r="AI2" t="n">
+      <c r="AJ2" t="n">
         <v>0.8452442318242974</v>
       </c>
-      <c r="AJ2" t="n">
+      <c r="AK2" t="n">
         <v>1.635308714334681</v>
       </c>
-      <c r="AK2" t="n">
+      <c r="AL2" t="n">
         <v>1.329347896180162</v>
       </c>
     </row>
@@ -14282,102 +14497,107 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F3" t="n">
+      <c r="F3" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G3" t="n">
         <v>5.12417</v>
       </c>
-      <c r="G3" t="n">
+      <c r="H3" t="n">
         <v>8.130800000000001</v>
       </c>
-      <c r="H3" t="n">
+      <c r="I3" t="n">
         <v>25.11798</v>
       </c>
-      <c r="I3" t="n">
+      <c r="J3" t="n">
         <v>45.1115</v>
       </c>
-      <c r="J3" t="inlineStr">
+      <c r="K3" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K3" t="n">
+      <c r="L3" t="n">
         <v>2546833.925725761</v>
       </c>
-      <c r="L3" t="n">
+      <c r="M3" t="n">
         <v>0.00179698452462037</v>
       </c>
-      <c r="M3" t="n">
+      <c r="N3" t="n">
         <v>3.212201622466849</v>
       </c>
-      <c r="N3" t="n">
+      <c r="O3" t="n">
         <v>12.78604382924759</v>
       </c>
-      <c r="O3" t="n">
+      <c r="P3" t="n">
         <v>1</v>
       </c>
-      <c r="P3" t="n">
+      <c r="Q3" t="n">
         <v>0.03562949632928845</v>
       </c>
-      <c r="Q3" t="n">
+      <c r="R3" t="n">
         <v>4.10355171371512</v>
       </c>
-      <c r="R3" t="n">
+      <c r="S3" t="n">
         <v>1.246627070043265</v>
       </c>
-      <c r="S3" t="n">
+      <c r="T3" t="n">
         <v>0.3348033466923848</v>
       </c>
-      <c r="T3" t="n">
+      <c r="U3" t="n">
         <v>0.7349536064354404</v>
       </c>
-      <c r="U3" t="n">
+      <c r="V3" t="n">
         <v>0.02856531980556537</v>
       </c>
-      <c r="V3" t="n">
+      <c r="W3" t="n">
         <v>0.06666211467976051</v>
       </c>
-      <c r="W3" t="n">
+      <c r="X3" t="n">
         <v>0.001854911213119123</v>
       </c>
-      <c r="X3" t="n">
+      <c r="Y3" t="n">
         <v>0.009193413703287903</v>
       </c>
-      <c r="Y3" t="n">
+      <c r="Z3" t="n">
         <v>1.381451474582434</v>
       </c>
-      <c r="Z3" t="n">
+      <c r="AA3" t="n">
         <v>0.4666748198199111</v>
       </c>
-      <c r="AA3" t="n">
+      <c r="AB3" t="n">
         <v>0.4996468015498816</v>
       </c>
-      <c r="AB3" t="n">
+      <c r="AC3" t="n">
         <v>0</v>
       </c>
-      <c r="AC3" t="n">
+      <c r="AD3" t="n">
         <v>0.6375298835758509</v>
       </c>
-      <c r="AD3" t="n">
+      <c r="AE3" t="n">
         <v>0.5418996880893449</v>
       </c>
-      <c r="AE3" t="n">
+      <c r="AF3" t="n">
         <v>0.4975226511565584</v>
       </c>
-      <c r="AF3" t="n">
+      <c r="AG3" t="n">
         <v>0.5685443236926065</v>
       </c>
-      <c r="AG3" t="n">
+      <c r="AH3" t="n">
         <v>0.6268963359436202</v>
       </c>
-      <c r="AH3" t="n">
+      <c r="AI3" t="n">
         <v>0.5981073820234616</v>
       </c>
-      <c r="AI3" t="n">
+      <c r="AJ3" t="n">
         <v>0.5919704282306277</v>
       </c>
-      <c r="AJ3" t="n">
+      <c r="AK3" t="n">
         <v>1.44427757676521</v>
       </c>
-      <c r="AK3" t="n">
+      <c r="AL3" t="n">
         <v>0.8658011835524915</v>
       </c>
     </row>
@@ -14405,102 +14625,107 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F4" t="n">
+      <c r="F4" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G4" t="n">
         <v>5.12444</v>
       </c>
-      <c r="G4" t="n">
+      <c r="H4" t="n">
         <v>8.1312</v>
       </c>
-      <c r="H4" t="n">
+      <c r="I4" t="n">
         <v>25.11842</v>
       </c>
-      <c r="I4" t="n">
+      <c r="J4" t="n">
         <v>45.1112</v>
       </c>
-      <c r="J4" t="inlineStr">
+      <c r="K4" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K4" t="n">
+      <c r="L4" t="n">
         <v>2511343.322653376</v>
       </c>
-      <c r="L4" t="n">
+      <c r="M4" t="n">
         <v>0.001797784695256798</v>
       </c>
-      <c r="M4" t="n">
+      <c r="N4" t="n">
         <v>3.134718246851559</v>
       </c>
-      <c r="N4" t="n">
+      <c r="O4" t="n">
         <v>12.36673928034105</v>
       </c>
-      <c r="O4" t="n">
+      <c r="P4" t="n">
         <v>1</v>
       </c>
-      <c r="P4" t="n">
+      <c r="Q4" t="n">
         <v>0.03550639305434249</v>
       </c>
-      <c r="Q4" t="n">
+      <c r="R4" t="n">
         <v>4.017946827305789</v>
       </c>
-      <c r="R4" t="n">
+      <c r="S4" t="n">
         <v>1.250323987689472</v>
       </c>
-      <c r="S4" t="n">
+      <c r="T4" t="n">
         <v>0.3352010849855492</v>
       </c>
-      <c r="T4" t="n">
+      <c r="U4" t="n">
         <v>0.7304567697863723</v>
       </c>
-      <c r="U4" t="n">
+      <c r="V4" t="n">
         <v>0.02833811767569805</v>
       </c>
-      <c r="V4" t="n">
+      <c r="W4" t="n">
         <v>0.06688888506621091</v>
       </c>
-      <c r="W4" t="n">
+      <c r="X4" t="n">
         <v>0.001817655394130343</v>
       </c>
-      <c r="X4" t="n">
+      <c r="Y4" t="n">
         <v>0.009238600147167224</v>
       </c>
-      <c r="Y4" t="n">
+      <c r="Z4" t="n">
         <v>1.583121359418137</v>
       </c>
-      <c r="Z4" t="n">
+      <c r="AA4" t="n">
         <v>0.5274814889086997</v>
       </c>
-      <c r="AA4" t="n">
+      <c r="AB4" t="n">
         <v>0.5049750305979317</v>
       </c>
-      <c r="AB4" t="n">
+      <c r="AC4" t="n">
         <v>0</v>
       </c>
-      <c r="AC4" t="n">
+      <c r="AD4" t="n">
         <v>0.6313194365277971</v>
       </c>
-      <c r="AD4" t="n">
+      <c r="AE4" t="n">
         <v>0.5566579098542751</v>
       </c>
-      <c r="AE4" t="n">
+      <c r="AF4" t="n">
         <v>0.5762191394337548</v>
       </c>
-      <c r="AF4" t="n">
+      <c r="AG4" t="n">
         <v>0.5996135175630772</v>
       </c>
-      <c r="AG4" t="n">
+      <c r="AH4" t="n">
         <v>0.6474674601987246</v>
       </c>
-      <c r="AH4" t="n">
+      <c r="AI4" t="n">
         <v>0.6217181742204658</v>
       </c>
-      <c r="AI4" t="n">
+      <c r="AJ4" t="n">
         <v>0.7041865790815433</v>
       </c>
-      <c r="AJ4" t="n">
+      <c r="AK4" t="n">
         <v>1.521693448149569</v>
       </c>
-      <c r="AK4" t="n">
+      <c r="AL4" t="n">
         <v>1.01506161567922</v>
       </c>
     </row>
@@ -14528,102 +14753,107 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F5" t="n">
+      <c r="F5" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G5" t="n">
         <v>5.124</v>
       </c>
-      <c r="G5" t="n">
+      <c r="H5" t="n">
         <v>8.130270000000001</v>
       </c>
-      <c r="H5" t="n">
+      <c r="I5" t="n">
         <v>25.11731</v>
       </c>
-      <c r="I5" t="n">
+      <c r="J5" t="n">
         <v>45.11032</v>
       </c>
-      <c r="J5" t="inlineStr">
+      <c r="K5" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K5" t="n">
+      <c r="L5" t="n">
         <v>2439037.611851443</v>
       </c>
-      <c r="L5" t="n">
+      <c r="M5" t="n">
         <v>0.001947813434072659</v>
       </c>
-      <c r="M5" t="n">
+      <c r="N5" t="n">
         <v>3.204054687214607</v>
       </c>
-      <c r="N5" t="n">
+      <c r="O5" t="n">
         <v>12.44552493535593</v>
       </c>
-      <c r="O5" t="n">
+      <c r="P5" t="n">
         <v>1</v>
       </c>
-      <c r="P5" t="n">
+      <c r="Q5" t="n">
         <v>0.03634456040790776</v>
       </c>
-      <c r="Q5" t="n">
+      <c r="R5" t="n">
         <v>4.097492760602218</v>
       </c>
-      <c r="R5" t="n">
+      <c r="S5" t="n">
         <v>1.256251697140171</v>
       </c>
-      <c r="S5" t="n">
+      <c r="T5" t="n">
         <v>0.3401022714099787</v>
       </c>
-      <c r="T5" t="n">
+      <c r="U5" t="n">
         <v>0.7621694395207695</v>
       </c>
-      <c r="U5" t="n">
+      <c r="V5" t="n">
         <v>0.02953802807975327</v>
       </c>
-      <c r="V5" t="n">
+      <c r="W5" t="n">
         <v>0.07030222278139482</v>
       </c>
-      <c r="W5" t="n">
+      <c r="X5" t="n">
         <v>0.001908392736781585</v>
       </c>
-      <c r="X5" t="n">
+      <c r="Y5" t="n">
         <v>0.009694519262572797</v>
       </c>
-      <c r="Y5" t="n">
+      <c r="Z5" t="n">
         <v>1.425787519993284</v>
       </c>
-      <c r="Z5" t="n">
+      <c r="AA5" t="n">
         <v>0.5848597592191752</v>
       </c>
-      <c r="AA5" t="n">
+      <c r="AB5" t="n">
         <v>0.5182161134329316</v>
       </c>
-      <c r="AB5" t="n">
+      <c r="AC5" t="n">
         <v>0</v>
       </c>
-      <c r="AC5" t="n">
+      <c r="AD5" t="n">
         <v>0.7042089272916633</v>
       </c>
-      <c r="AD5" t="n">
+      <c r="AE5" t="n">
         <v>0.5941460128494956</v>
       </c>
-      <c r="AE5" t="n">
+      <c r="AF5" t="n">
         <v>0.5553482332321831</v>
       </c>
-      <c r="AF5" t="n">
+      <c r="AG5" t="n">
         <v>0.5596358885517538</v>
       </c>
-      <c r="AG5" t="n">
+      <c r="AH5" t="n">
         <v>0.6053998830672961</v>
       </c>
-      <c r="AH5" t="n">
+      <c r="AI5" t="n">
         <v>0.7324653966104019</v>
       </c>
-      <c r="AI5" t="n">
+      <c r="AJ5" t="n">
         <v>0.6677713917986158</v>
       </c>
-      <c r="AJ5" t="n">
+      <c r="AK5" t="n">
         <v>1.390958576421396</v>
       </c>
-      <c r="AK5" t="n">
+      <c r="AL5" t="n">
         <v>0.9030887157433017</v>
       </c>
     </row>
@@ -14651,102 +14881,107 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F6" t="n">
+      <c r="F6" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G6" t="n">
         <v>5.12431</v>
       </c>
-      <c r="G6" t="n">
+      <c r="H6" t="n">
         <v>8.130990000000001</v>
       </c>
-      <c r="H6" t="n">
+      <c r="I6" t="n">
         <v>25.11819</v>
       </c>
-      <c r="I6" t="n">
+      <c r="J6" t="n">
         <v>45.11253</v>
       </c>
-      <c r="J6" t="inlineStr">
+      <c r="K6" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K6" t="n">
+      <c r="L6" t="n">
         <v>2320757.239508113</v>
       </c>
-      <c r="L6" t="n">
+      <c r="M6" t="n">
         <v>0.001924360360559096</v>
       </c>
-      <c r="M6" t="n">
+      <c r="N6" t="n">
         <v>3.185077126166296</v>
       </c>
-      <c r="N6" t="n">
+      <c r="O6" t="n">
         <v>12.50833470316967</v>
       </c>
-      <c r="O6" t="n">
+      <c r="P6" t="n">
         <v>1</v>
       </c>
-      <c r="P6" t="n">
+      <c r="Q6" t="n">
         <v>0.03668277590499766</v>
       </c>
-      <c r="Q6" t="n">
+      <c r="R6" t="n">
         <v>4.09134140787321</v>
       </c>
-      <c r="R6" t="n">
+      <c r="S6" t="n">
         <v>1.250670562658969</v>
       </c>
-      <c r="S6" t="n">
+      <c r="T6" t="n">
         <v>0.3478558746948479</v>
       </c>
-      <c r="T6" t="n">
+      <c r="U6" t="n">
         <v>0.7656405063978734</v>
       </c>
-      <c r="U6" t="n">
+      <c r="V6" t="n">
         <v>0.03008996378564865</v>
       </c>
-      <c r="V6" t="n">
+      <c r="W6" t="n">
         <v>0.07027513343505486</v>
       </c>
-      <c r="W6" t="n">
+      <c r="X6" t="n">
         <v>0.001883493791590824</v>
       </c>
-      <c r="X6" t="n">
+      <c r="Y6" t="n">
         <v>0.009730055954760605</v>
       </c>
-      <c r="Y6" t="n">
+      <c r="Z6" t="n">
         <v>1.55967515911003</v>
       </c>
-      <c r="Z6" t="n">
+      <c r="AA6" t="n">
         <v>0.5499095224417345</v>
       </c>
-      <c r="AA6" t="n">
+      <c r="AB6" t="n">
         <v>0.4567418170001892</v>
       </c>
-      <c r="AB6" t="n">
+      <c r="AC6" t="n">
         <v>0</v>
       </c>
-      <c r="AC6" t="n">
+      <c r="AD6" t="n">
         <v>0.6320959946263561</v>
       </c>
-      <c r="AD6" t="n">
+      <c r="AE6" t="n">
         <v>0.5415181524258272</v>
       </c>
-      <c r="AE6" t="n">
+      <c r="AF6" t="n">
         <v>0.4625159969375263</v>
       </c>
-      <c r="AF6" t="n">
+      <c r="AG6" t="n">
         <v>0.6073751836510526</v>
       </c>
-      <c r="AG6" t="n">
+      <c r="AH6" t="n">
         <v>0.614296803592023</v>
       </c>
-      <c r="AH6" t="n">
+      <c r="AI6" t="n">
         <v>0.6167393178889713</v>
       </c>
-      <c r="AI6" t="n">
+      <c r="AJ6" t="n">
         <v>0.6833320349750175</v>
       </c>
-      <c r="AJ6" t="n">
+      <c r="AK6" t="n">
         <v>1.552675133068137</v>
       </c>
-      <c r="AK6" t="n">
+      <c r="AL6" t="n">
         <v>0.7915583632623343</v>
       </c>
     </row>
@@ -14774,102 +15009,107 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F7" t="n">
+      <c r="F7" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G7" t="n">
         <v>5.12418</v>
       </c>
-      <c r="G7" t="n">
+      <c r="H7" t="n">
         <v>8.13063</v>
       </c>
-      <c r="H7" t="n">
+      <c r="I7" t="n">
         <v>25.11801</v>
       </c>
-      <c r="I7" t="n">
+      <c r="J7" t="n">
         <v>45.11081</v>
       </c>
-      <c r="J7" t="inlineStr">
+      <c r="K7" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K7" t="n">
+      <c r="L7" t="n">
         <v>2337218.473916371</v>
       </c>
-      <c r="L7" t="n">
+      <c r="M7" t="n">
         <v>0.001821771913035615</v>
       </c>
-      <c r="M7" t="n">
+      <c r="N7" t="n">
         <v>3.191728757808999</v>
       </c>
-      <c r="N7" t="n">
+      <c r="O7" t="n">
         <v>12.54663146266029</v>
       </c>
-      <c r="O7" t="n">
+      <c r="P7" t="n">
         <v>1</v>
       </c>
-      <c r="P7" t="n">
+      <c r="Q7" t="n">
         <v>0.03680101000257707</v>
       </c>
-      <c r="Q7" t="n">
+      <c r="R7" t="n">
         <v>4.154271929907551</v>
       </c>
-      <c r="R7" t="n">
+      <c r="S7" t="n">
         <v>1.253296823930967</v>
       </c>
-      <c r="S7" t="n">
+      <c r="T7" t="n">
         <v>0.3485153969270164</v>
       </c>
-      <c r="T7" t="n">
+      <c r="U7" t="n">
         <v>0.7836327537452389</v>
       </c>
-      <c r="U7" t="n">
+      <c r="V7" t="n">
         <v>0.03038836264388928</v>
       </c>
-      <c r="V7" t="n">
+      <c r="W7" t="n">
         <v>0.07178909113118645</v>
       </c>
-      <c r="W7" t="n">
+      <c r="X7" t="n">
         <v>0.00186648948349979</v>
       </c>
-      <c r="X7" t="n">
+      <c r="Y7" t="n">
         <v>0.009974223435586342</v>
       </c>
-      <c r="Y7" t="n">
+      <c r="Z7" t="n">
         <v>1.737833656542819</v>
       </c>
-      <c r="Z7" t="n">
+      <c r="AA7" t="n">
         <v>0.521934563611112</v>
       </c>
-      <c r="AA7" t="n">
+      <c r="AB7" t="n">
         <v>0.5070178217279447</v>
       </c>
-      <c r="AB7" t="n">
+      <c r="AC7" t="n">
         <v>0</v>
       </c>
-      <c r="AC7" t="n">
+      <c r="AD7" t="n">
         <v>0.6206823125035513</v>
       </c>
-      <c r="AD7" t="n">
+      <c r="AE7" t="n">
         <v>0.6117527600857128</v>
       </c>
-      <c r="AE7" t="n">
+      <c r="AF7" t="n">
         <v>0.4982934371198665</v>
       </c>
-      <c r="AF7" t="n">
+      <c r="AG7" t="n">
         <v>0.5881566893093431</v>
       </c>
-      <c r="AG7" t="n">
+      <c r="AH7" t="n">
         <v>0.5480381409956826</v>
       </c>
-      <c r="AH7" t="n">
+      <c r="AI7" t="n">
         <v>0.6032129074603813</v>
       </c>
-      <c r="AI7" t="n">
+      <c r="AJ7" t="n">
         <v>0.7312474094923482</v>
       </c>
-      <c r="AJ7" t="n">
+      <c r="AK7" t="n">
         <v>1.391158554962758</v>
       </c>
-      <c r="AK7" t="n">
+      <c r="AL7" t="n">
         <v>0.8554714165590998</v>
       </c>
     </row>
@@ -14897,102 +15137,107 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F8" t="n">
+      <c r="F8" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G8" t="n">
         <v>5.1242</v>
       </c>
-      <c r="G8" t="n">
+      <c r="H8" t="n">
         <v>8.130330000000001</v>
       </c>
-      <c r="H8" t="n">
+      <c r="I8" t="n">
         <v>25.11674</v>
       </c>
-      <c r="I8" t="n">
+      <c r="J8" t="n">
         <v>45.11009</v>
       </c>
-      <c r="J8" t="inlineStr">
+      <c r="K8" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K8" t="n">
+      <c r="L8" t="n">
         <v>2261160.073323353</v>
       </c>
-      <c r="L8" t="n">
+      <c r="M8" t="n">
         <v>0.001927265150587244</v>
       </c>
-      <c r="M8" t="n">
+      <c r="N8" t="n">
         <v>3.204530358917893</v>
       </c>
-      <c r="N8" t="n">
+      <c r="O8" t="n">
         <v>12.57748470387545</v>
       </c>
-      <c r="O8" t="n">
+      <c r="P8" t="n">
         <v>1</v>
       </c>
-      <c r="P8" t="n">
+      <c r="Q8" t="n">
         <v>0.0372367963636233</v>
       </c>
-      <c r="Q8" t="n">
+      <c r="R8" t="n">
         <v>4.196852139996245</v>
       </c>
-      <c r="R8" t="n">
+      <c r="S8" t="n">
         <v>1.258695419849733</v>
       </c>
-      <c r="S8" t="n">
+      <c r="T8" t="n">
         <v>0.3544754288977278</v>
       </c>
-      <c r="T8" t="n">
+      <c r="U8" t="n">
         <v>0.7933808966858241</v>
       </c>
-      <c r="U8" t="n">
+      <c r="V8" t="n">
         <v>0.03090010228803994</v>
       </c>
-      <c r="V8" t="n">
+      <c r="W8" t="n">
         <v>0.07393351829180866</v>
       </c>
-      <c r="W8" t="n">
+      <c r="X8" t="n">
         <v>0.001941749028150849</v>
       </c>
-      <c r="X8" t="n">
+      <c r="Y8" t="n">
         <v>0.01029353438202223</v>
       </c>
-      <c r="Y8" t="n">
+      <c r="Z8" t="n">
         <v>1.580075016021355</v>
       </c>
-      <c r="Z8" t="n">
+      <c r="AA8" t="n">
         <v>0.484590519341962</v>
       </c>
-      <c r="AA8" t="n">
+      <c r="AB8" t="n">
         <v>0.5276990037883598</v>
       </c>
-      <c r="AB8" t="n">
+      <c r="AC8" t="n">
         <v>0</v>
       </c>
-      <c r="AC8" t="n">
+      <c r="AD8" t="n">
         <v>0.6244987628866671</v>
       </c>
-      <c r="AD8" t="n">
+      <c r="AE8" t="n">
         <v>0.6353795091473685</v>
       </c>
-      <c r="AE8" t="n">
+      <c r="AF8" t="n">
         <v>0.48600271959855</v>
       </c>
-      <c r="AF8" t="n">
+      <c r="AG8" t="n">
         <v>0.6152873753581783</v>
       </c>
-      <c r="AG8" t="n">
+      <c r="AH8" t="n">
         <v>0.6008367441017163</v>
       </c>
-      <c r="AH8" t="n">
+      <c r="AI8" t="n">
         <v>0.6406353091281702</v>
       </c>
-      <c r="AI8" t="n">
+      <c r="AJ8" t="n">
         <v>0.7243985333052259</v>
       </c>
-      <c r="AJ8" t="n">
+      <c r="AK8" t="n">
         <v>1.27077791471746</v>
       </c>
-      <c r="AK8" t="n">
+      <c r="AL8" t="n">
         <v>1.38800092780542</v>
       </c>
     </row>
@@ -15020,102 +15265,107 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F9" t="n">
+      <c r="F9" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G9" t="n">
         <v>5.12361</v>
       </c>
-      <c r="G9" t="n">
+      <c r="H9" t="n">
         <v>8.130229999999999</v>
       </c>
-      <c r="H9" t="n">
+      <c r="I9" t="n">
         <v>25.11651</v>
       </c>
-      <c r="I9" t="n">
+      <c r="J9" t="n">
         <v>45.11063</v>
       </c>
-      <c r="J9" t="inlineStr">
+      <c r="K9" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K9" t="n">
+      <c r="L9" t="n">
         <v>2160665.642461562</v>
       </c>
-      <c r="L9" t="n">
+      <c r="M9" t="n">
         <v>0.002002677808746594</v>
       </c>
-      <c r="M9" t="n">
+      <c r="N9" t="n">
         <v>3.237309636403238</v>
       </c>
-      <c r="N9" t="n">
+      <c r="O9" t="n">
         <v>12.75239237728145</v>
       </c>
-      <c r="O9" t="n">
+      <c r="P9" t="n">
         <v>1</v>
       </c>
-      <c r="P9" t="n">
+      <c r="Q9" t="n">
         <v>0.03760452386374299</v>
       </c>
-      <c r="Q9" t="n">
+      <c r="R9" t="n">
         <v>4.28916170477715</v>
       </c>
-      <c r="R9" t="n">
+      <c r="S9" t="n">
         <v>1.26533897076093</v>
       </c>
-      <c r="S9" t="n">
+      <c r="T9" t="n">
         <v>0.3603773185322589</v>
       </c>
-      <c r="T9" t="n">
+      <c r="U9" t="n">
         <v>0.814196023726859</v>
       </c>
-      <c r="U9" t="n">
+      <c r="V9" t="n">
         <v>0.0316887468319759</v>
       </c>
-      <c r="V9" t="n">
+      <c r="W9" t="n">
         <v>0.07479706604437771</v>
       </c>
-      <c r="W9" t="n">
+      <c r="X9" t="n">
         <v>0.001975341248894391</v>
       </c>
-      <c r="X9" t="n">
+      <c r="Y9" t="n">
         <v>0.01016243191122417</v>
       </c>
-      <c r="Y9" t="n">
+      <c r="Z9" t="n">
         <v>1.647211143251555</v>
       </c>
-      <c r="Z9" t="n">
+      <c r="AA9" t="n">
         <v>0.6174273364887026</v>
       </c>
-      <c r="AA9" t="n">
+      <c r="AB9" t="n">
         <v>0.5618068888809065</v>
       </c>
-      <c r="AB9" t="n">
+      <c r="AC9" t="n">
         <v>0</v>
       </c>
-      <c r="AC9" t="n">
+      <c r="AD9" t="n">
         <v>0.6881022034640668</v>
       </c>
-      <c r="AD9" t="n">
+      <c r="AE9" t="n">
         <v>0.6015100840450603</v>
       </c>
-      <c r="AE9" t="n">
+      <c r="AF9" t="n">
         <v>0.5941885553469497</v>
       </c>
-      <c r="AF9" t="n">
+      <c r="AG9" t="n">
         <v>0.665101417229399</v>
       </c>
-      <c r="AG9" t="n">
+      <c r="AH9" t="n">
         <v>0.8009688350511533</v>
       </c>
-      <c r="AH9" t="n">
+      <c r="AI9" t="n">
         <v>0.6381352534626643</v>
       </c>
-      <c r="AI9" t="n">
+      <c r="AJ9" t="n">
         <v>0.7590952244279573</v>
       </c>
-      <c r="AJ9" t="n">
+      <c r="AK9" t="n">
         <v>1.500885162764754</v>
       </c>
-      <c r="AK9" t="n">
+      <c r="AL9" t="n">
         <v>1.074094739664661</v>
       </c>
     </row>
@@ -15143,102 +15393,107 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F10" t="n">
+      <c r="F10" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G10" t="n">
         <v>5.12453</v>
       </c>
-      <c r="G10" t="n">
+      <c r="H10" t="n">
         <v>8.13105</v>
       </c>
-      <c r="H10" t="n">
+      <c r="I10" t="n">
         <v>25.11824</v>
       </c>
-      <c r="I10" t="n">
+      <c r="J10" t="n">
         <v>45.11105999999999</v>
       </c>
-      <c r="J10" t="inlineStr">
+      <c r="K10" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K10" t="n">
+      <c r="L10" t="n">
         <v>2103967.128205007</v>
       </c>
-      <c r="L10" t="n">
+      <c r="M10" t="n">
         <v>0.00188862416475147</v>
       </c>
-      <c r="M10" t="n">
+      <c r="N10" t="n">
         <v>3.192493642983861</v>
       </c>
-      <c r="N10" t="n">
+      <c r="O10" t="n">
         <v>12.71816601806047</v>
       </c>
-      <c r="O10" t="n">
+      <c r="P10" t="n">
         <v>1</v>
       </c>
-      <c r="P10" t="n">
+      <c r="Q10" t="n">
         <v>0.03764410266603299</v>
       </c>
-      <c r="Q10" t="n">
+      <c r="R10" t="n">
         <v>4.166024731277146</v>
       </c>
-      <c r="R10" t="n">
+      <c r="S10" t="n">
         <v>1.240894051605122</v>
       </c>
-      <c r="S10" t="n">
+      <c r="T10" t="n">
         <v>0.3597080308756166</v>
       </c>
-      <c r="T10" t="n">
+      <c r="U10" t="n">
         <v>0.8152731581982411</v>
       </c>
-      <c r="U10" t="n">
+      <c r="V10" t="n">
         <v>0.0323171342240221</v>
       </c>
-      <c r="V10" t="n">
+      <c r="W10" t="n">
         <v>0.0748514719699885</v>
       </c>
-      <c r="W10" t="n">
+      <c r="X10" t="n">
         <v>0.002023427796882576</v>
       </c>
-      <c r="X10" t="n">
+      <c r="Y10" t="n">
         <v>0.01013465118149935</v>
       </c>
-      <c r="Y10" t="n">
+      <c r="Z10" t="n">
         <v>1.55288753013669</v>
       </c>
-      <c r="Z10" t="n">
+      <c r="AA10" t="n">
         <v>0.5265070005817314</v>
       </c>
-      <c r="AA10" t="n">
+      <c r="AB10" t="n">
         <v>0.4781770419308315</v>
       </c>
-      <c r="AB10" t="n">
+      <c r="AC10" t="n">
         <v>0</v>
       </c>
-      <c r="AC10" t="n">
+      <c r="AD10" t="n">
         <v>0.7046104064988286</v>
       </c>
-      <c r="AD10" t="n">
+      <c r="AE10" t="n">
         <v>0.5665006180642527</v>
       </c>
-      <c r="AE10" t="n">
+      <c r="AF10" t="n">
         <v>0.5039238458660562</v>
       </c>
-      <c r="AF10" t="n">
+      <c r="AG10" t="n">
         <v>0.5534972235913354</v>
       </c>
-      <c r="AG10" t="n">
+      <c r="AH10" t="n">
         <v>0.5518750289064898</v>
       </c>
-      <c r="AH10" t="n">
+      <c r="AI10" t="n">
         <v>0.663312809982094</v>
       </c>
-      <c r="AI10" t="n">
+      <c r="AJ10" t="n">
         <v>0.6404880114182396</v>
       </c>
-      <c r="AJ10" t="n">
+      <c r="AK10" t="n">
         <v>1.438164196154744</v>
       </c>
-      <c r="AK10" t="n">
+      <c r="AL10" t="n">
         <v>0.8177805277389124</v>
       </c>
     </row>
@@ -15266,102 +15521,107 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F11" t="n">
+      <c r="F11" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G11" t="n">
         <v>5.12455</v>
       </c>
-      <c r="G11" t="n">
+      <c r="H11" t="n">
         <v>8.131320000000001</v>
       </c>
-      <c r="H11" t="n">
+      <c r="I11" t="n">
         <v>25.11909</v>
       </c>
-      <c r="I11" t="n">
+      <c r="J11" t="n">
         <v>45.11283</v>
       </c>
-      <c r="J11" t="inlineStr">
+      <c r="K11" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K11" t="n">
+      <c r="L11" t="n">
         <v>2117980.022733969</v>
       </c>
-      <c r="L11" t="n">
+      <c r="M11" t="n">
         <v>0.001883354454453255</v>
       </c>
-      <c r="M11" t="n">
+      <c r="N11" t="n">
         <v>3.194390131061695</v>
       </c>
-      <c r="N11" t="n">
+      <c r="O11" t="n">
         <v>12.49788884061636</v>
       </c>
-      <c r="O11" t="n">
+      <c r="P11" t="n">
         <v>1</v>
       </c>
-      <c r="P11" t="n">
+      <c r="Q11" t="n">
         <v>0.03713865600519831</v>
       </c>
-      <c r="Q11" t="n">
+      <c r="R11" t="n">
         <v>4.175742139339492</v>
       </c>
-      <c r="R11" t="n">
+      <c r="S11" t="n">
         <v>1.263068045808184</v>
       </c>
-      <c r="S11" t="n">
+      <c r="T11" t="n">
         <v>0.3598496524291067</v>
       </c>
-      <c r="T11" t="n">
+      <c r="U11" t="n">
         <v>0.8184583155755337</v>
       </c>
-      <c r="U11" t="n">
+      <c r="V11" t="n">
         <v>0.03188083093266413</v>
       </c>
-      <c r="V11" t="n">
+      <c r="W11" t="n">
         <v>0.07517911165726705</v>
       </c>
-      <c r="W11" t="n">
+      <c r="X11" t="n">
         <v>0.002009817562444189</v>
       </c>
-      <c r="X11" t="n">
+      <c r="Y11" t="n">
         <v>0.01033109512102885</v>
       </c>
-      <c r="Y11" t="n">
+      <c r="Z11" t="n">
         <v>1.689016331137912</v>
       </c>
-      <c r="Z11" t="n">
+      <c r="AA11" t="n">
         <v>0.4613973003703676</v>
       </c>
-      <c r="AA11" t="n">
+      <c r="AB11" t="n">
         <v>0.4470275911687803</v>
       </c>
-      <c r="AB11" t="n">
+      <c r="AC11" t="n">
         <v>0</v>
       </c>
-      <c r="AC11" t="n">
+      <c r="AD11" t="n">
         <v>0.6301411645884718</v>
       </c>
-      <c r="AD11" t="n">
+      <c r="AE11" t="n">
         <v>0.5288328384535995</v>
       </c>
-      <c r="AE11" t="n">
+      <c r="AF11" t="n">
         <v>0.4697278366154575</v>
       </c>
-      <c r="AF11" t="n">
+      <c r="AG11" t="n">
         <v>0.5333795603465166</v>
       </c>
-      <c r="AG11" t="n">
+      <c r="AH11" t="n">
         <v>0.5387954039504722</v>
       </c>
-      <c r="AH11" t="n">
+      <c r="AI11" t="n">
         <v>0.6199393754739441</v>
       </c>
-      <c r="AI11" t="n">
+      <c r="AJ11" t="n">
         <v>0.6101743314201927</v>
       </c>
-      <c r="AJ11" t="n">
+      <c r="AK11" t="n">
         <v>1.316042139297936</v>
       </c>
-      <c r="AK11" t="n">
+      <c r="AL11" t="n">
         <v>0.8098849611298274</v>
       </c>
     </row>
@@ -15389,102 +15649,107 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F12" t="n">
+      <c r="F12" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G12" t="n">
         <v>5.124559999999999</v>
       </c>
-      <c r="G12" t="n">
+      <c r="H12" t="n">
         <v>8.131180000000001</v>
       </c>
-      <c r="H12" t="n">
+      <c r="I12" t="n">
         <v>25.11844</v>
       </c>
-      <c r="I12" t="n">
+      <c r="J12" t="n">
         <v>45.11235</v>
       </c>
-      <c r="J12" t="inlineStr">
+      <c r="K12" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K12" t="n">
+      <c r="L12" t="n">
         <v>2220561.346201427</v>
       </c>
-      <c r="L12" t="n">
+      <c r="M12" t="n">
         <v>0.002039041548044575</v>
       </c>
-      <c r="M12" t="n">
+      <c r="N12" t="n">
         <v>3.208762138951128</v>
       </c>
-      <c r="N12" t="n">
+      <c r="O12" t="n">
         <v>12.53697076380755</v>
       </c>
-      <c r="O12" t="n">
+      <c r="P12" t="n">
         <v>1</v>
       </c>
-      <c r="P12" t="n">
+      <c r="Q12" t="n">
         <v>0.03774631439539228</v>
       </c>
-      <c r="Q12" t="n">
+      <c r="R12" t="n">
         <v>4.196346056994455</v>
       </c>
-      <c r="R12" t="n">
+      <c r="S12" t="n">
         <v>1.259466144112443</v>
       </c>
-      <c r="S12" t="n">
+      <c r="T12" t="n">
         <v>0.3596011452919686</v>
       </c>
-      <c r="T12" t="n">
+      <c r="U12" t="n">
         <v>0.8212008780306342</v>
       </c>
-      <c r="U12" t="n">
+      <c r="V12" t="n">
         <v>0.03184009203435652</v>
       </c>
-      <c r="V12" t="n">
+      <c r="W12" t="n">
         <v>0.0762336942572598</v>
       </c>
-      <c r="W12" t="n">
+      <c r="X12" t="n">
         <v>0.002036059383370096</v>
       </c>
-      <c r="X12" t="n">
+      <c r="Y12" t="n">
         <v>0.01049554042722229</v>
       </c>
-      <c r="Y12" t="n">
+      <c r="Z12" t="n">
         <v>1.490979722260863</v>
       </c>
-      <c r="Z12" t="n">
+      <c r="AA12" t="n">
         <v>0.484748500550047</v>
       </c>
-      <c r="AA12" t="n">
+      <c r="AB12" t="n">
         <v>0.5073908732184244</v>
       </c>
-      <c r="AB12" t="n">
+      <c r="AC12" t="n">
         <v>0</v>
       </c>
-      <c r="AC12" t="n">
+      <c r="AD12" t="n">
         <v>0.6259512613432839</v>
       </c>
-      <c r="AD12" t="n">
+      <c r="AE12" t="n">
         <v>0.5337325038877925</v>
       </c>
-      <c r="AE12" t="n">
+      <c r="AF12" t="n">
         <v>0.433222062745409</v>
       </c>
-      <c r="AF12" t="n">
+      <c r="AG12" t="n">
         <v>0.5638285506902118</v>
       </c>
-      <c r="AG12" t="n">
+      <c r="AH12" t="n">
         <v>0.5911472297602212</v>
       </c>
-      <c r="AH12" t="n">
+      <c r="AI12" t="n">
         <v>0.5912571149370062</v>
       </c>
-      <c r="AI12" t="n">
+      <c r="AJ12" t="n">
         <v>0.6886736849454177</v>
       </c>
-      <c r="AJ12" t="n">
+      <c r="AK12" t="n">
         <v>1.540080599270511</v>
       </c>
-      <c r="AK12" t="n">
+      <c r="AL12" t="n">
         <v>0.9598243148554005</v>
       </c>
     </row>
@@ -15512,102 +15777,107 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F13" t="n">
+      <c r="F13" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G13" t="n">
         <v>5.12439</v>
       </c>
-      <c r="G13" t="n">
+      <c r="H13" t="n">
         <v>8.130800000000001</v>
       </c>
-      <c r="H13" t="n">
+      <c r="I13" t="n">
         <v>25.11685</v>
       </c>
-      <c r="I13" t="n">
+      <c r="J13" t="n">
         <v>45.11045</v>
       </c>
-      <c r="J13" t="inlineStr">
+      <c r="K13" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K13" t="n">
+      <c r="L13" t="n">
         <v>2128954.031391683</v>
       </c>
-      <c r="L13" t="n">
+      <c r="M13" t="n">
         <v>0.002015569370835713</v>
       </c>
-      <c r="M13" t="n">
+      <c r="N13" t="n">
         <v>3.273195326982742</v>
       </c>
-      <c r="N13" t="n">
+      <c r="O13" t="n">
         <v>12.83001426886738</v>
       </c>
-      <c r="O13" t="n">
+      <c r="P13" t="n">
         <v>1</v>
       </c>
-      <c r="P13" t="n">
+      <c r="Q13" t="n">
         <v>0.03809055892091404</v>
       </c>
-      <c r="Q13" t="n">
+      <c r="R13" t="n">
         <v>4.326648007733017</v>
       </c>
-      <c r="R13" t="n">
+      <c r="S13" t="n">
         <v>1.27682382107015</v>
       </c>
-      <c r="S13" t="n">
+      <c r="T13" t="n">
         <v>0.3722523466231651</v>
       </c>
-      <c r="T13" t="n">
+      <c r="U13" t="n">
         <v>0.849054169949625</v>
       </c>
-      <c r="U13" t="n">
+      <c r="V13" t="n">
         <v>0.03326614659368833</v>
       </c>
-      <c r="V13" t="n">
+      <c r="W13" t="n">
         <v>0.07813225910609882</v>
       </c>
-      <c r="W13" t="n">
+      <c r="X13" t="n">
         <v>0.002082128311992728</v>
       </c>
-      <c r="X13" t="n">
+      <c r="Y13" t="n">
         <v>0.01056085960334063</v>
       </c>
-      <c r="Y13" t="n">
+      <c r="Z13" t="n">
         <v>1.263728307197311</v>
       </c>
-      <c r="Z13" t="n">
+      <c r="AA13" t="n">
         <v>0.4866334583094221</v>
       </c>
-      <c r="AA13" t="n">
+      <c r="AB13" t="n">
         <v>0.4653069364982221</v>
       </c>
-      <c r="AB13" t="n">
+      <c r="AC13" t="n">
         <v>0</v>
       </c>
-      <c r="AC13" t="n">
+      <c r="AD13" t="n">
         <v>0.607262136204057</v>
       </c>
-      <c r="AD13" t="n">
+      <c r="AE13" t="n">
         <v>0.5289189927346507</v>
       </c>
-      <c r="AE13" t="n">
+      <c r="AF13" t="n">
         <v>0.4375026258085023</v>
       </c>
-      <c r="AF13" t="n">
+      <c r="AG13" t="n">
         <v>0.5830047186148154</v>
       </c>
-      <c r="AG13" t="n">
+      <c r="AH13" t="n">
         <v>0.5430619148736839</v>
       </c>
-      <c r="AH13" t="n">
+      <c r="AI13" t="n">
         <v>0.609187031660764</v>
       </c>
-      <c r="AI13" t="n">
+      <c r="AJ13" t="n">
         <v>0.6021143953294202</v>
       </c>
-      <c r="AJ13" t="n">
+      <c r="AK13" t="n">
         <v>1.422557573993921</v>
       </c>
-      <c r="AK13" t="n">
+      <c r="AL13" t="n">
         <v>0.7906753120424582</v>
       </c>
     </row>
@@ -15635,102 +15905,107 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F14" t="n">
+      <c r="F14" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G14" t="n">
         <v>5.12446</v>
       </c>
-      <c r="G14" t="n">
+      <c r="H14" t="n">
         <v>8.13111</v>
       </c>
-      <c r="H14" t="n">
+      <c r="I14" t="n">
         <v>25.11842</v>
       </c>
-      <c r="I14" t="n">
+      <c r="J14" t="n">
         <v>45.11156</v>
       </c>
-      <c r="J14" t="inlineStr">
+      <c r="K14" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K14" t="n">
+      <c r="L14" t="n">
         <v>2079467.128124865</v>
       </c>
-      <c r="L14" t="n">
+      <c r="M14" t="n">
         <v>0.001943307648254221</v>
       </c>
-      <c r="M14" t="n">
+      <c r="N14" t="n">
         <v>3.239762064787166</v>
       </c>
-      <c r="N14" t="n">
+      <c r="O14" t="n">
         <v>12.8118153399365</v>
       </c>
-      <c r="O14" t="n">
+      <c r="P14" t="n">
         <v>1</v>
       </c>
-      <c r="P14" t="n">
+      <c r="Q14" t="n">
         <v>0.03834008783177818</v>
       </c>
-      <c r="Q14" t="n">
+      <c r="R14" t="n">
         <v>4.294644117572177</v>
       </c>
-      <c r="R14" t="n">
+      <c r="S14" t="n">
         <v>1.256908673349408</v>
       </c>
-      <c r="S14" t="n">
+      <c r="T14" t="n">
         <v>0.3767121486149465</v>
       </c>
-      <c r="T14" t="n">
+      <c r="U14" t="n">
         <v>0.8485776676642659</v>
       </c>
-      <c r="U14" t="n">
+      <c r="V14" t="n">
         <v>0.03333259760764238</v>
       </c>
-      <c r="V14" t="n">
+      <c r="W14" t="n">
         <v>0.07960457406085251</v>
       </c>
-      <c r="W14" t="n">
+      <c r="X14" t="n">
         <v>0.002096509443156228</v>
       </c>
-      <c r="X14" t="n">
+      <c r="Y14" t="n">
         <v>0.01047481570319546</v>
       </c>
-      <c r="Y14" t="n">
+      <c r="Z14" t="n">
         <v>1.575192647832703</v>
       </c>
-      <c r="Z14" t="n">
+      <c r="AA14" t="n">
         <v>0.5322356408641326</v>
       </c>
-      <c r="AA14" t="n">
+      <c r="AB14" t="n">
         <v>0.5127066011242348</v>
       </c>
-      <c r="AB14" t="n">
+      <c r="AC14" t="n">
         <v>0</v>
       </c>
-      <c r="AC14" t="n">
+      <c r="AD14" t="n">
         <v>0.7998576533528189</v>
       </c>
-      <c r="AD14" t="n">
+      <c r="AE14" t="n">
         <v>0.5674577564094192</v>
       </c>
-      <c r="AE14" t="n">
+      <c r="AF14" t="n">
         <v>0.5013985160860526</v>
       </c>
-      <c r="AF14" t="n">
+      <c r="AG14" t="n">
         <v>0.603800645073831</v>
       </c>
-      <c r="AG14" t="n">
+      <c r="AH14" t="n">
         <v>0.604752352580738</v>
       </c>
-      <c r="AH14" t="n">
+      <c r="AI14" t="n">
         <v>0.6804986201262877</v>
       </c>
-      <c r="AI14" t="n">
+      <c r="AJ14" t="n">
         <v>0.676255225713709</v>
       </c>
-      <c r="AJ14" t="n">
+      <c r="AK14" t="n">
         <v>1.443060380567493</v>
       </c>
-      <c r="AK14" t="n">
+      <c r="AL14" t="n">
         <v>0.7934856844874983</v>
       </c>
     </row>
@@ -15758,102 +16033,107 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F15" t="n">
+      <c r="F15" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G15" t="n">
         <v>5.12401</v>
       </c>
-      <c r="G15" t="n">
+      <c r="H15" t="n">
         <v>8.13043</v>
       </c>
-      <c r="H15" t="n">
+      <c r="I15" t="n">
         <v>25.11745</v>
       </c>
-      <c r="I15" t="n">
+      <c r="J15" t="n">
         <v>45.10981</v>
       </c>
-      <c r="J15" t="inlineStr">
+      <c r="K15" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K15" t="n">
+      <c r="L15" t="n">
         <v>2004356.407138355</v>
       </c>
-      <c r="L15" t="n">
+      <c r="M15" t="n">
         <v>0.002029284703832693</v>
       </c>
-      <c r="M15" t="n">
+      <c r="N15" t="n">
         <v>3.224639146248085</v>
       </c>
-      <c r="N15" t="n">
+      <c r="O15" t="n">
         <v>12.62415998178579</v>
       </c>
-      <c r="O15" t="n">
+      <c r="P15" t="n">
         <v>1</v>
       </c>
-      <c r="P15" t="n">
+      <c r="Q15" t="n">
         <v>0.03780656250101101</v>
       </c>
-      <c r="Q15" t="n">
+      <c r="R15" t="n">
         <v>4.205993758088525</v>
       </c>
-      <c r="R15" t="n">
+      <c r="S15" t="n">
         <v>1.253770196627998</v>
       </c>
-      <c r="S15" t="n">
+      <c r="T15" t="n">
         <v>0.3680596581613256</v>
       </c>
-      <c r="T15" t="n">
+      <c r="U15" t="n">
         <v>0.8419466121267805</v>
       </c>
-      <c r="U15" t="n">
+      <c r="V15" t="n">
         <v>0.03250784922664857</v>
       </c>
-      <c r="V15" t="n">
+      <c r="W15" t="n">
         <v>0.07723507088651016</v>
       </c>
-      <c r="W15" t="n">
+      <c r="X15" t="n">
         <v>0.002099151019670588</v>
       </c>
-      <c r="X15" t="n">
+      <c r="Y15" t="n">
         <v>0.0108742394302702</v>
       </c>
-      <c r="Y15" t="n">
+      <c r="Z15" t="n">
         <v>1.631240683214678</v>
       </c>
-      <c r="Z15" t="n">
+      <c r="AA15" t="n">
         <v>0.5224638140643718</v>
       </c>
-      <c r="AA15" t="n">
+      <c r="AB15" t="n">
         <v>0.5318412779750546</v>
       </c>
-      <c r="AB15" t="n">
+      <c r="AC15" t="n">
         <v>0</v>
       </c>
-      <c r="AC15" t="n">
+      <c r="AD15" t="n">
         <v>0.6546927417710832</v>
       </c>
-      <c r="AD15" t="n">
+      <c r="AE15" t="n">
         <v>0.6260299459351174</v>
       </c>
-      <c r="AE15" t="n">
+      <c r="AF15" t="n">
         <v>0.5050443624491581</v>
       </c>
-      <c r="AF15" t="n">
+      <c r="AG15" t="n">
         <v>0.6364853651728669</v>
       </c>
-      <c r="AG15" t="n">
+      <c r="AH15" t="n">
         <v>0.6058997579859173</v>
       </c>
-      <c r="AH15" t="n">
+      <c r="AI15" t="n">
         <v>0.6486755027180994</v>
       </c>
-      <c r="AI15" t="n">
+      <c r="AJ15" t="n">
         <v>0.7106769734102044</v>
       </c>
-      <c r="AJ15" t="n">
+      <c r="AK15" t="n">
         <v>1.365114363238498</v>
       </c>
-      <c r="AK15" t="n">
+      <c r="AL15" t="n">
         <v>0.9716703433733345</v>
       </c>
     </row>
@@ -15881,102 +16161,107 @@
           <t>None</t>
         </is>
       </c>
-      <c r="F16" t="n">
+      <c r="F16" t="inlineStr">
+        <is>
+          <t>None</t>
+        </is>
+      </c>
+      <c r="G16" t="n">
         <v>5.12421</v>
       </c>
-      <c r="G16" t="n">
+      <c r="H16" t="n">
         <v>8.130660000000001</v>
       </c>
-      <c r="H16" t="n">
+      <c r="I16" t="n">
         <v>25.11819</v>
       </c>
-      <c r="I16" t="n">
+      <c r="J16" t="n">
         <v>45.11136</v>
       </c>
-      <c r="J16" t="inlineStr">
+      <c r="K16" t="inlineStr">
         <is>
           <t>29Si</t>
         </is>
       </c>
-      <c r="K16" t="n">
+      <c r="L16" t="n">
         <v>1975148.549766207</v>
       </c>
-      <c r="L16" t="n">
+      <c r="M16" t="n">
         <v>0.002071514729886146</v>
       </c>
-      <c r="M16" t="n">
+      <c r="N16" t="n">
         <v>3.253407322950313</v>
       </c>
-      <c r="N16" t="n">
+      <c r="O16" t="n">
         <v>12.72417518130938</v>
       </c>
-      <c r="O16" t="n">
+      <c r="P16" t="n">
         <v>1</v>
       </c>
-      <c r="P16" t="n">
+      <c r="Q16" t="n">
         <v>0.0379739363281269</v>
       </c>
-      <c r="Q16" t="n">
+      <c r="R16" t="n">
         <v>4.270071676237633</v>
       </c>
-      <c r="R16" t="n">
+      <c r="S16" t="n">
         <v>1.261176091858358</v>
       </c>
-      <c r="S16" t="n">
+      <c r="T16" t="n">
         <v>0.3735639707691562</v>
       </c>
-      <c r="T16" t="n">
+      <c r="U16" t="n">
         <v>0.8561418140140254</v>
       </c>
-      <c r="U16" t="n">
+      <c r="V16" t="n">
         <v>0.03356491483229469</v>
       </c>
-      <c r="V16" t="n">
+      <c r="W16" t="n">
         <v>0.07892778026385226</v>
       </c>
-      <c r="W16" t="n">
+      <c r="X16" t="n">
         <v>0.002071894041699227</v>
       </c>
-      <c r="X16" t="n">
+      <c r="Y16" t="n">
         <v>0.0109653354660356</v>
       </c>
-      <c r="Y16" t="n">
+      <c r="Z16" t="n">
         <v>2.813713162369086</v>
       </c>
-      <c r="Z16" t="n">
+      <c r="AA16" t="n">
         <v>0.5404367091238069</v>
       </c>
-      <c r="AA16" t="n">
+      <c r="AB16" t="n">
         <v>0.5175519448980166</v>
       </c>
-      <c r="AB16" t="n">
+      <c r="AC16" t="n">
         <v>0</v>
       </c>
-      <c r="AC16" t="n">
+      <c r="AD16" t="n">
         <v>0.7489965898447049</v>
       </c>
-      <c r="AD16" t="n">
+      <c r="AE16" t="n">
         <v>0.5473643260155244</v>
       </c>
-      <c r="AE16" t="n">
+      <c r="AF16" t="n">
         <v>0.5289958560169776</v>
       </c>
-      <c r="AF16" t="n">
+      <c r="AG16" t="n">
         <v>0.6211266625336708</v>
       </c>
-      <c r="AG16" t="n">
+      <c r="AH16" t="n">
         <v>0.6438217590861892</v>
       </c>
-      <c r="AH16" t="n">
+      <c r="AI16" t="n">
         <v>0.6977608615700761</v>
       </c>
-      <c r="AI16" t="n">
+      <c r="AJ16" t="n">
         <v>0.7689073759757983</v>
       </c>
-      <c r="AJ16" t="n">
+      <c r="AK16" t="n">
         <v>1.423250364981343</v>
       </c>
-      <c r="AK16" t="n">
+      <c r="AL16" t="n">
         <v>0.869237964433734</v>
       </c>
     </row>

--- a/test_data/lasercalc_example_export_BCR-2G.xlsx
+++ b/test_data/lasercalc_example_export_BCR-2G.xlsx
@@ -16854,7 +16854,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC21"/>
+  <dimension ref="A1:AP21"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -16945,67 +16945,132 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>7Li_se</t>
+          <t>7Li_exterr</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>24Mg_se</t>
+          <t>24Mg_exterr</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>27Al_se</t>
+          <t>27Al_exterr</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>29Si_se</t>
+          <t>29Si_exterr</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>43Ca_se</t>
+          <t>43Ca_exterr</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>48Ti_se</t>
+          <t>48Ti_exterr</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>57Fe_se</t>
+          <t>57Fe_exterr</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>88Sr_se</t>
+          <t>88Sr_exterr</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>138Ba_se</t>
+          <t>138Ba_exterr</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>139La_se</t>
+          <t>139La_exterr</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>140Ce_se</t>
+          <t>140Ce_exterr</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>153Eu_se</t>
+          <t>153Eu_exterr</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>208Pb_se</t>
+          <t>208Pb_exterr</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>7Li_interr</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>24Mg_interr</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>27Al_interr</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>29Si_interr</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>43Ca_interr</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>48Ti_interr</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>57Fe_interr</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>88Sr_interr</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>138Ba_interr</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>139La_interr</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>140Ce_interr</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>153Eu_interr</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>208Pb_interr</t>
         </is>
       </c>
     </row>
@@ -17103,6 +17168,45 @@
       <c r="AC2" t="n">
         <v>0.6644538762439895</v>
       </c>
+      <c r="AD2" t="n">
+        <v>2.99884954517325</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>48.89894113114184</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>2054.470196328495</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>3674.908202193714</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>288.3988600395895</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>111.107842412584</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>611.0676505325631</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1.687864375368129</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>9.692056101501699</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>1.221923406170256</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>2.317004528629859</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.0648134729050522</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>0.6622267791898836</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -17198,6 +17302,45 @@
       <c r="AC3" t="n">
         <v>0.5331471995062036</v>
       </c>
+      <c r="AD3" t="n">
+        <v>3.063484187314715</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>15.96768893768607</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>2052.029463518423</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>3674.908202193714</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>255.7431783670662</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>112.5062105657118</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>611.8986831716545</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.683607805334793</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>9.458524230717785</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>1.201585809031792</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>2.279990595576796</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.06154961528371558</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>0.5305181401048905</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -17293,6 +17436,45 @@
       <c r="AC4" t="n">
         <v>0.5566525763285903</v>
       </c>
+      <c r="AD4" t="n">
+        <v>3.013958139085485</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>17.16654268608011</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>2081.344579068213</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>3674.908202193714</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>260.5078612846243</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>115.0057949850195</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>625.0929332459941</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1.737508862968636</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>9.851096965883187</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>1.256847508806852</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>2.372410924149129</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.06488106396811474</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>0.5540364298939671</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -17388,6 +17570,45 @@
       <c r="AC5" t="n">
         <v>0.5448124450633746</v>
       </c>
+      <c r="AD5" t="n">
+        <v>3.051264093685064</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>16.41450068572062</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>2071.437042740539</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>3674.908202193714</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>263.2575557525885</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>114.6491165379979</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>627.9086184498912</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1.724226175882502</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>9.815957466681054</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>1.245431961277169</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>2.338513401763503</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.0639069417626261</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>0.5421317640714155</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -17483,6 +17704,45 @@
       <c r="AC6" t="n">
         <v>0.5678599065224346</v>
       </c>
+      <c r="AD6" t="n">
+        <v>3.097347602283943</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>16.72955856561553</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>2094.771179519221</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>3674.908202193714</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>266.1213050856113</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>116.7266881221813</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>628.3835748407728</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1.748732673360951</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>10.00092050331233</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>1.261438857762394</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>2.390571890564169</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.06643033124233753</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>0.5650628078403056</v>
+      </c>
     </row>
     <row r="7">
       <c r="A7" s="1" t="inlineStr">
@@ -17578,6 +17838,45 @@
       <c r="AC7" t="n">
         <v>0.5662956448359023</v>
       </c>
+      <c r="AD7" t="n">
+        <v>3.148340124627654</v>
+      </c>
+      <c r="AE7" t="n">
+        <v>16.61207386922101</v>
+      </c>
+      <c r="AF7" t="n">
+        <v>2079.084315315049</v>
+      </c>
+      <c r="AG7" t="n">
+        <v>3674.908202193714</v>
+      </c>
+      <c r="AH7" t="n">
+        <v>267.5037539872917</v>
+      </c>
+      <c r="AI7" t="n">
+        <v>116.6716110198576</v>
+      </c>
+      <c r="AJ7" t="n">
+        <v>637.1359167474503</v>
+      </c>
+      <c r="AK7" t="n">
+        <v>1.752277281380337</v>
+      </c>
+      <c r="AL7" t="n">
+        <v>9.983931239484622</v>
+      </c>
+      <c r="AM7" t="n">
+        <v>1.257580190222183</v>
+      </c>
+      <c r="AN7" t="n">
+        <v>2.412926728357637</v>
+      </c>
+      <c r="AO7" t="n">
+        <v>0.0668838391239651</v>
+      </c>
+      <c r="AP7" t="n">
+        <v>0.5635078113309172</v>
+      </c>
     </row>
     <row r="8">
       <c r="A8" s="1" t="inlineStr">
@@ -17673,6 +17972,45 @@
       <c r="AC8" t="n">
         <v>0.5625624787611712</v>
       </c>
+      <c r="AD8" t="n">
+        <v>3.159637294009065</v>
+      </c>
+      <c r="AE8" t="n">
+        <v>16.85472657989437</v>
+      </c>
+      <c r="AF8" t="n">
+        <v>2112.818711005713</v>
+      </c>
+      <c r="AG8" t="n">
+        <v>3674.908202193714</v>
+      </c>
+      <c r="AH8" t="n">
+        <v>267.0079023070129</v>
+      </c>
+      <c r="AI8" t="n">
+        <v>118.4358305629869</v>
+      </c>
+      <c r="AJ8" t="n">
+        <v>641.1284596286813</v>
+      </c>
+      <c r="AK8" t="n">
+        <v>1.795034333221278</v>
+      </c>
+      <c r="AL8" t="n">
+        <v>10.17228462369724</v>
+      </c>
+      <c r="AM8" t="n">
+        <v>1.281551318539665</v>
+      </c>
+      <c r="AN8" t="n">
+        <v>2.445148069826108</v>
+      </c>
+      <c r="AO8" t="n">
+        <v>0.06414456886466371</v>
+      </c>
+      <c r="AP8" t="n">
+        <v>0.5597793824161401</v>
+      </c>
     </row>
     <row r="9">
       <c r="A9" s="1" t="inlineStr">
@@ -17768,6 +18106,45 @@
       <c r="AC9" t="n">
         <v>0.5622388184462893</v>
       </c>
+      <c r="AD9" t="n">
+        <v>3.086683972577208</v>
+      </c>
+      <c r="AE9" t="n">
+        <v>16.69125305716587</v>
+      </c>
+      <c r="AF9" t="n">
+        <v>2087.533201793496</v>
+      </c>
+      <c r="AG9" t="n">
+        <v>3674.908202193714</v>
+      </c>
+      <c r="AH9" t="n">
+        <v>263.6378708495386</v>
+      </c>
+      <c r="AI9" t="n">
+        <v>118.3240095599956</v>
+      </c>
+      <c r="AJ9" t="n">
+        <v>638.0907190648031</v>
+      </c>
+      <c r="AK9" t="n">
+        <v>1.76300325192444</v>
+      </c>
+      <c r="AL9" t="n">
+        <v>10.0136251965347</v>
+      </c>
+      <c r="AM9" t="n">
+        <v>1.262837401112847</v>
+      </c>
+      <c r="AN9" t="n">
+        <v>2.42992066217099</v>
+      </c>
+      <c r="AO9" t="n">
+        <v>0.06487385524833321</v>
+      </c>
+      <c r="AP9" t="n">
+        <v>0.5594649593380577</v>
+      </c>
     </row>
     <row r="10">
       <c r="A10" s="1" t="inlineStr">
@@ -17863,6 +18240,45 @@
       <c r="AC10" t="n">
         <v>0.549423481163317</v>
       </c>
+      <c r="AD10" t="n">
+        <v>3.112864385663483</v>
+      </c>
+      <c r="AE10" t="n">
+        <v>16.67851658484326</v>
+      </c>
+      <c r="AF10" t="n">
+        <v>2086.02670248613</v>
+      </c>
+      <c r="AG10" t="n">
+        <v>3674.908202193714</v>
+      </c>
+      <c r="AH10" t="n">
+        <v>263.5178140444795</v>
+      </c>
+      <c r="AI10" t="n">
+        <v>117.743157738966</v>
+      </c>
+      <c r="AJ10" t="n">
+        <v>634.7842078666346</v>
+      </c>
+      <c r="AK10" t="n">
+        <v>1.751105455438916</v>
+      </c>
+      <c r="AL10" t="n">
+        <v>9.943593194490346</v>
+      </c>
+      <c r="AM10" t="n">
+        <v>1.260719159531667</v>
+      </c>
+      <c r="AN10" t="n">
+        <v>2.366651336923406</v>
+      </c>
+      <c r="AO10" t="n">
+        <v>0.06476768967898497</v>
+      </c>
+      <c r="AP10" t="n">
+        <v>0.5467173852690022</v>
+      </c>
     </row>
     <row r="11">
       <c r="A11" s="1" t="inlineStr">
@@ -17958,6 +18374,45 @@
       <c r="AC11" t="n">
         <v>0.5650012467231937</v>
       </c>
+      <c r="AD11" t="n">
+        <v>3.046629639623478</v>
+      </c>
+      <c r="AE11" t="n">
+        <v>16.64908950634315</v>
+      </c>
+      <c r="AF11" t="n">
+        <v>2094.826259174193</v>
+      </c>
+      <c r="AG11" t="n">
+        <v>3674.908202193714</v>
+      </c>
+      <c r="AH11" t="n">
+        <v>259.3494141241315</v>
+      </c>
+      <c r="AI11" t="n">
+        <v>117.6907726442314</v>
+      </c>
+      <c r="AJ11" t="n">
+        <v>649.5639378996601</v>
+      </c>
+      <c r="AK11" t="n">
+        <v>1.731496794266508</v>
+      </c>
+      <c r="AL11" t="n">
+        <v>10.01194091149132</v>
+      </c>
+      <c r="AM11" t="n">
+        <v>1.247471202308046</v>
+      </c>
+      <c r="AN11" t="n">
+        <v>2.40296040380903</v>
+      </c>
+      <c r="AO11" t="n">
+        <v>0.06402635927685921</v>
+      </c>
+      <c r="AP11" t="n">
+        <v>0.5622807149132506</v>
+      </c>
     </row>
     <row r="12">
       <c r="A12" s="1" t="inlineStr">
@@ -18053,6 +18508,45 @@
       <c r="AC12" t="n">
         <v>0.5495166752198273</v>
       </c>
+      <c r="AD12" t="n">
+        <v>3.09183620704292</v>
+      </c>
+      <c r="AE12" t="n">
+        <v>16.5280063047552</v>
+      </c>
+      <c r="AF12" t="n">
+        <v>2072.321507831768</v>
+      </c>
+      <c r="AG12" t="n">
+        <v>3674.908202193714</v>
+      </c>
+      <c r="AH12" t="n">
+        <v>256.4397785578516</v>
+      </c>
+      <c r="AI12" t="n">
+        <v>115.765407776385</v>
+      </c>
+      <c r="AJ12" t="n">
+        <v>637.9393877783244</v>
+      </c>
+      <c r="AK12" t="n">
+        <v>1.705855095003441</v>
+      </c>
+      <c r="AL12" t="n">
+        <v>9.615241265334641</v>
+      </c>
+      <c r="AM12" t="n">
+        <v>1.223501563987967</v>
+      </c>
+      <c r="AN12" t="n">
+        <v>2.324303818865154</v>
+      </c>
+      <c r="AO12" t="n">
+        <v>0.06149672497613987</v>
+      </c>
+      <c r="AP12" t="n">
+        <v>0.5468063068008432</v>
+      </c>
     </row>
     <row r="13">
       <c r="A13" s="1" t="inlineStr">
@@ -18148,6 +18642,45 @@
       <c r="AC13" t="n">
         <v>0.5502316495184391</v>
       </c>
+      <c r="AD13" t="n">
+        <v>2.918147954323878</v>
+      </c>
+      <c r="AE13" t="n">
+        <v>16.55951045181903</v>
+      </c>
+      <c r="AF13" t="n">
+        <v>2063.619148670997</v>
+      </c>
+      <c r="AG13" t="n">
+        <v>3674.908202193714</v>
+      </c>
+      <c r="AH13" t="n">
+        <v>252.8991996404884</v>
+      </c>
+      <c r="AI13" t="n">
+        <v>115.0606967095611</v>
+      </c>
+      <c r="AJ13" t="n">
+        <v>636.8135504047822</v>
+      </c>
+      <c r="AK13" t="n">
+        <v>1.70576258909959</v>
+      </c>
+      <c r="AL13" t="n">
+        <v>9.613184642496599</v>
+      </c>
+      <c r="AM13" t="n">
+        <v>1.203894745678302</v>
+      </c>
+      <c r="AN13" t="n">
+        <v>2.320344468880381</v>
+      </c>
+      <c r="AO13" t="n">
+        <v>0.06376360560949154</v>
+      </c>
+      <c r="AP13" t="n">
+        <v>0.5475257201749377</v>
+      </c>
     </row>
     <row r="14">
       <c r="A14" s="1" t="inlineStr">
@@ -18243,6 +18776,45 @@
       <c r="AC14" t="n">
         <v>0.5434953026934386</v>
       </c>
+      <c r="AD14" t="n">
+        <v>3.032487225675411</v>
+      </c>
+      <c r="AE14" t="n">
+        <v>16.57773245808293</v>
+      </c>
+      <c r="AF14" t="n">
+        <v>2094.898218771554</v>
+      </c>
+      <c r="AG14" t="n">
+        <v>3674.908202193714</v>
+      </c>
+      <c r="AH14" t="n">
+        <v>256.7819666282213</v>
+      </c>
+      <c r="AI14" t="n">
+        <v>115.1270727154248</v>
+      </c>
+      <c r="AJ14" t="n">
+        <v>636.1880011823118</v>
+      </c>
+      <c r="AK14" t="n">
+        <v>1.711796496873089</v>
+      </c>
+      <c r="AL14" t="n">
+        <v>9.774159185210252</v>
+      </c>
+      <c r="AM14" t="n">
+        <v>1.239114440998222</v>
+      </c>
+      <c r="AN14" t="n">
+        <v>2.337339248418536</v>
+      </c>
+      <c r="AO14" t="n">
+        <v>0.06410797353251561</v>
+      </c>
+      <c r="AP14" t="n">
+        <v>0.5408148035940263</v>
+      </c>
     </row>
     <row r="15">
       <c r="A15" s="1" t="inlineStr">
@@ -18338,6 +18910,45 @@
       <c r="AC15" t="n">
         <v>0.5698229062407644</v>
       </c>
+      <c r="AD15" t="n">
+        <v>3.039162168810725</v>
+      </c>
+      <c r="AE15" t="n">
+        <v>16.82476522708093</v>
+      </c>
+      <c r="AF15" t="n">
+        <v>2098.806643751228</v>
+      </c>
+      <c r="AG15" t="n">
+        <v>3674.908202193714</v>
+      </c>
+      <c r="AH15" t="n">
+        <v>262.2327374344755</v>
+      </c>
+      <c r="AI15" t="n">
+        <v>117.5501353414752</v>
+      </c>
+      <c r="AJ15" t="n">
+        <v>640.8145630682449</v>
+      </c>
+      <c r="AK15" t="n">
+        <v>1.724338443176569</v>
+      </c>
+      <c r="AL15" t="n">
+        <v>9.838238856610698</v>
+      </c>
+      <c r="AM15" t="n">
+        <v>1.235049547893554</v>
+      </c>
+      <c r="AN15" t="n">
+        <v>2.369862172697205</v>
+      </c>
+      <c r="AO15" t="n">
+        <v>0.06421886627730329</v>
+      </c>
+      <c r="AP15" t="n">
+        <v>0.5670101405872291</v>
+      </c>
     </row>
     <row r="16">
       <c r="A16" s="1" t="inlineStr">
@@ -18433,6 +19044,45 @@
       <c r="AC16" t="n">
         <v>0.5584054757670992</v>
       </c>
+      <c r="AD16" t="n">
+        <v>3.025582583608641</v>
+      </c>
+      <c r="AE16" t="n">
+        <v>16.58399698824823</v>
+      </c>
+      <c r="AF16" t="n">
+        <v>2103.117262912997</v>
+      </c>
+      <c r="AG16" t="n">
+        <v>3674.908202193714</v>
+      </c>
+      <c r="AH16" t="n">
+        <v>260.613542070295</v>
+      </c>
+      <c r="AI16" t="n">
+        <v>117.4814281507359</v>
+      </c>
+      <c r="AJ16" t="n">
+        <v>648.9045468743706</v>
+      </c>
+      <c r="AK16" t="n">
+        <v>1.748466226787774</v>
+      </c>
+      <c r="AL16" t="n">
+        <v>9.821386536201379</v>
+      </c>
+      <c r="AM16" t="n">
+        <v>1.246916263363856</v>
+      </c>
+      <c r="AN16" t="n">
+        <v>2.346920434288331</v>
+      </c>
+      <c r="AO16" t="n">
+        <v>0.06297142613950102</v>
+      </c>
+      <c r="AP16" t="n">
+        <v>0.5556463567538458</v>
+      </c>
     </row>
     <row r="17">
       <c r="A17" s="1" t="inlineStr">
@@ -18528,6 +19178,45 @@
       <c r="AC17" t="n">
         <v>0.2735683335858453</v>
       </c>
+      <c r="AD17" t="n">
+        <v>0.508084154725893</v>
+      </c>
+      <c r="AE17" t="n">
+        <v>1235.369257783203</v>
+      </c>
+      <c r="AF17" t="n">
+        <v>2253.44286697373</v>
+      </c>
+      <c r="AG17" t="n">
+        <v>2396.46791492262</v>
+      </c>
+      <c r="AH17" t="n">
+        <v>1703.522737698909</v>
+      </c>
+      <c r="AI17" t="n">
+        <v>1183.715815321626</v>
+      </c>
+      <c r="AJ17" t="n">
+        <v>2329.623738488579</v>
+      </c>
+      <c r="AK17" t="n">
+        <v>7.843558247071055</v>
+      </c>
+      <c r="AL17" t="n">
+        <v>2.622982263003141</v>
+      </c>
+      <c r="AM17" t="n">
+        <v>0.3284105450456155</v>
+      </c>
+      <c r="AN17" t="n">
+        <v>0.9150412117090377</v>
+      </c>
+      <c r="AO17" t="n">
+        <v>0.04784663774684041</v>
+      </c>
+      <c r="AP17" t="n">
+        <v>0.2735427007428565</v>
+      </c>
     </row>
     <row r="18">
       <c r="A18" s="1" t="inlineStr">
@@ -18623,6 +19312,45 @@
       <c r="AC18" t="n">
         <v>0.1703618690694655</v>
       </c>
+      <c r="AD18" t="n">
+        <v>0.4725483187810663</v>
+      </c>
+      <c r="AE18" t="n">
+        <v>1174.388264012084</v>
+      </c>
+      <c r="AF18" t="n">
+        <v>2168.893470484474</v>
+      </c>
+      <c r="AG18" t="n">
+        <v>2396.46791492262</v>
+      </c>
+      <c r="AH18" t="n">
+        <v>1555.091187918796</v>
+      </c>
+      <c r="AI18" t="n">
+        <v>1171.526610699623</v>
+      </c>
+      <c r="AJ18" t="n">
+        <v>2218.765582911176</v>
+      </c>
+      <c r="AK18" t="n">
+        <v>6.796286281190197</v>
+      </c>
+      <c r="AL18" t="n">
+        <v>2.294313885891203</v>
+      </c>
+      <c r="AM18" t="n">
+        <v>0.3167975100674</v>
+      </c>
+      <c r="AN18" t="n">
+        <v>0.7065289525394467</v>
+      </c>
+      <c r="AO18" t="n">
+        <v>0.04458361158018932</v>
+      </c>
+      <c r="AP18" t="n">
+        <v>0.1703226554681902</v>
+      </c>
     </row>
     <row r="19">
       <c r="A19" s="1" t="inlineStr">
@@ -18718,6 +19446,45 @@
       <c r="AC19" t="n">
         <v>0.1750879373994345</v>
       </c>
+      <c r="AD19" t="n">
+        <v>0.5079593006682761</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>1172.645024000954</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>2138.281429832199</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>2396.46791492262</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>1578.162055610088</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>1170.009785775367</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>2170.060361814114</v>
+      </c>
+      <c r="AK19" t="n">
+        <v>6.771353143318334</v>
+      </c>
+      <c r="AL19" t="n">
+        <v>2.214317436956726</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.3148940126746722</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.6821872197197784</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>0.05072212141196186</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>0.1750474850448548</v>
+      </c>
     </row>
     <row r="20">
       <c r="A20" s="1" t="inlineStr">
@@ -18813,6 +19580,45 @@
       <c r="AC20" t="n">
         <v>0.1769138997101105</v>
       </c>
+      <c r="AD20" t="n">
+        <v>0.4484950687012397</v>
+      </c>
+      <c r="AE20" t="n">
+        <v>1175.054907599417</v>
+      </c>
+      <c r="AF20" t="n">
+        <v>2165.464204759148</v>
+      </c>
+      <c r="AG20" t="n">
+        <v>2396.46791492262</v>
+      </c>
+      <c r="AH20" t="n">
+        <v>1564.625688904452</v>
+      </c>
+      <c r="AI20" t="n">
+        <v>1182.655011026648</v>
+      </c>
+      <c r="AJ20" t="n">
+        <v>2174.690461340442</v>
+      </c>
+      <c r="AK20" t="n">
+        <v>6.822448692262152</v>
+      </c>
+      <c r="AL20" t="n">
+        <v>2.302126417414333</v>
+      </c>
+      <c r="AM20" t="n">
+        <v>0.3256615067701371</v>
+      </c>
+      <c r="AN20" t="n">
+        <v>0.6923830389446824</v>
+      </c>
+      <c r="AO20" t="n">
+        <v>0.04547196461374302</v>
+      </c>
+      <c r="AP20" t="n">
+        <v>0.1768769853161549</v>
+      </c>
     </row>
     <row r="21">
       <c r="A21" s="1" t="inlineStr">
@@ -18907,6 +19713,45 @@
       </c>
       <c r="AC21" t="n">
         <v>0.1764563978547965</v>
+      </c>
+      <c r="AD21" t="n">
+        <v>0.4863679133968036</v>
+      </c>
+      <c r="AE21" t="n">
+        <v>1167.655682181899</v>
+      </c>
+      <c r="AF21" t="n">
+        <v>2137.103638180532</v>
+      </c>
+      <c r="AG21" t="n">
+        <v>2396.46791492262</v>
+      </c>
+      <c r="AH21" t="n">
+        <v>1552.332892806679</v>
+      </c>
+      <c r="AI21" t="n">
+        <v>1166.432074468111</v>
+      </c>
+      <c r="AJ21" t="n">
+        <v>2153.519990963594</v>
+      </c>
+      <c r="AK21" t="n">
+        <v>6.657416559780061</v>
+      </c>
+      <c r="AL21" t="n">
+        <v>2.200279969070592</v>
+      </c>
+      <c r="AM21" t="n">
+        <v>0.3077340504157632</v>
+      </c>
+      <c r="AN21" t="n">
+        <v>0.672547099055717</v>
+      </c>
+      <c r="AO21" t="n">
+        <v>0.04887524849853255</v>
+      </c>
+      <c r="AP21" t="n">
+        <v>0.1764156061081543</v>
       </c>
     </row>
   </sheetData>
@@ -20141,7 +20986,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:AC6"/>
+  <dimension ref="A1:AP6"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -20232,67 +21077,132 @@
       </c>
       <c r="Q1" s="1" t="inlineStr">
         <is>
-          <t>7Li_se</t>
+          <t>7Li_exterr</t>
         </is>
       </c>
       <c r="R1" s="1" t="inlineStr">
         <is>
-          <t>24Mg_se</t>
+          <t>24Mg_exterr</t>
         </is>
       </c>
       <c r="S1" s="1" t="inlineStr">
         <is>
-          <t>27Al_se</t>
+          <t>27Al_exterr</t>
         </is>
       </c>
       <c r="T1" s="1" t="inlineStr">
         <is>
-          <t>29Si_se</t>
+          <t>29Si_exterr</t>
         </is>
       </c>
       <c r="U1" s="1" t="inlineStr">
         <is>
-          <t>43Ca_se</t>
+          <t>43Ca_exterr</t>
         </is>
       </c>
       <c r="V1" s="1" t="inlineStr">
         <is>
-          <t>48Ti_se</t>
+          <t>48Ti_exterr</t>
         </is>
       </c>
       <c r="W1" s="1" t="inlineStr">
         <is>
-          <t>57Fe_se</t>
+          <t>57Fe_exterr</t>
         </is>
       </c>
       <c r="X1" s="1" t="inlineStr">
         <is>
-          <t>88Sr_se</t>
+          <t>88Sr_exterr</t>
         </is>
       </c>
       <c r="Y1" s="1" t="inlineStr">
         <is>
-          <t>138Ba_se</t>
+          <t>138Ba_exterr</t>
         </is>
       </c>
       <c r="Z1" s="1" t="inlineStr">
         <is>
-          <t>139La_se</t>
+          <t>139La_exterr</t>
         </is>
       </c>
       <c r="AA1" s="1" t="inlineStr">
         <is>
-          <t>140Ce_se</t>
+          <t>140Ce_exterr</t>
         </is>
       </c>
       <c r="AB1" s="1" t="inlineStr">
         <is>
-          <t>153Eu_se</t>
+          <t>153Eu_exterr</t>
         </is>
       </c>
       <c r="AC1" s="1" t="inlineStr">
         <is>
-          <t>208Pb_se</t>
+          <t>208Pb_exterr</t>
+        </is>
+      </c>
+      <c r="AD1" s="1" t="inlineStr">
+        <is>
+          <t>7Li_interr</t>
+        </is>
+      </c>
+      <c r="AE1" s="1" t="inlineStr">
+        <is>
+          <t>24Mg_interr</t>
+        </is>
+      </c>
+      <c r="AF1" s="1" t="inlineStr">
+        <is>
+          <t>27Al_interr</t>
+        </is>
+      </c>
+      <c r="AG1" s="1" t="inlineStr">
+        <is>
+          <t>29Si_interr</t>
+        </is>
+      </c>
+      <c r="AH1" s="1" t="inlineStr">
+        <is>
+          <t>43Ca_interr</t>
+        </is>
+      </c>
+      <c r="AI1" s="1" t="inlineStr">
+        <is>
+          <t>48Ti_interr</t>
+        </is>
+      </c>
+      <c r="AJ1" s="1" t="inlineStr">
+        <is>
+          <t>57Fe_interr</t>
+        </is>
+      </c>
+      <c r="AK1" s="1" t="inlineStr">
+        <is>
+          <t>88Sr_interr</t>
+        </is>
+      </c>
+      <c r="AL1" s="1" t="inlineStr">
+        <is>
+          <t>138Ba_interr</t>
+        </is>
+      </c>
+      <c r="AM1" s="1" t="inlineStr">
+        <is>
+          <t>139La_interr</t>
+        </is>
+      </c>
+      <c r="AN1" s="1" t="inlineStr">
+        <is>
+          <t>140Ce_interr</t>
+        </is>
+      </c>
+      <c r="AO1" s="1" t="inlineStr">
+        <is>
+          <t>153Eu_interr</t>
+        </is>
+      </c>
+      <c r="AP1" s="1" t="inlineStr">
+        <is>
+          <t>208Pb_interr</t>
         </is>
       </c>
     </row>
@@ -20390,6 +21300,45 @@
       <c r="AC2" t="n">
         <v>3.63511914452108</v>
       </c>
+      <c r="AD2" t="n">
+        <v>4.310849861348289</v>
+      </c>
+      <c r="AE2" t="n">
+        <v>5.79278467072074</v>
+      </c>
+      <c r="AF2" t="n">
+        <v>349.4331594922516</v>
+      </c>
+      <c r="AG2" t="n">
+        <v>3494.8440318784</v>
+      </c>
+      <c r="AH2" t="n">
+        <v>1814.18137754411</v>
+      </c>
+      <c r="AI2" t="n">
+        <v>33.51772433195656</v>
+      </c>
+      <c r="AJ2" t="n">
+        <v>4.133081606343394</v>
+      </c>
+      <c r="AK2" t="n">
+        <v>1.515862785444546</v>
+      </c>
+      <c r="AL2" t="n">
+        <v>0.7340012681887673</v>
+      </c>
+      <c r="AM2" t="n">
+        <v>0.8637873930834047</v>
+      </c>
+      <c r="AN2" t="n">
+        <v>0.7748579719358629</v>
+      </c>
+      <c r="AO2" t="n">
+        <v>0.7405824009823327</v>
+      </c>
+      <c r="AP2" t="n">
+        <v>3.614033336049892</v>
+      </c>
     </row>
     <row r="3">
       <c r="A3" s="1" t="inlineStr">
@@ -20485,6 +21434,45 @@
       <c r="AC3" t="n">
         <v>3.590855959057254</v>
       </c>
+      <c r="AD3" t="n">
+        <v>4.384640618949425</v>
+      </c>
+      <c r="AE3" t="n">
+        <v>3.848289933397186</v>
+      </c>
+      <c r="AF3" t="n">
+        <v>347.9949171628779</v>
+      </c>
+      <c r="AG3" t="n">
+        <v>3494.8440318784</v>
+      </c>
+      <c r="AH3" t="n">
+        <v>1813.954037752538</v>
+      </c>
+      <c r="AI3" t="n">
+        <v>33.43110354783111</v>
+      </c>
+      <c r="AJ3" t="n">
+        <v>2.082937594836802</v>
+      </c>
+      <c r="AK3" t="n">
+        <v>1.520716260653602</v>
+      </c>
+      <c r="AL3" t="n">
+        <v>0.7244540637823822</v>
+      </c>
+      <c r="AM3" t="n">
+        <v>0.8503511317123591</v>
+      </c>
+      <c r="AN3" t="n">
+        <v>0.7726704324317801</v>
+      </c>
+      <c r="AO3" t="n">
+        <v>0.7468615396971675</v>
+      </c>
+      <c r="AP3" t="n">
+        <v>3.570031963930742</v>
+      </c>
     </row>
     <row r="4">
       <c r="A4" s="1" t="inlineStr">
@@ -20580,6 +21568,45 @@
       <c r="AC4" t="n">
         <v>3.695273597792309</v>
       </c>
+      <c r="AD4" t="n">
+        <v>4.420436030378218</v>
+      </c>
+      <c r="AE4" t="n">
+        <v>1.93363599248161</v>
+      </c>
+      <c r="AF4" t="n">
+        <v>351.6339565545468</v>
+      </c>
+      <c r="AG4" t="n">
+        <v>3494.8440318784</v>
+      </c>
+      <c r="AH4" t="n">
+        <v>1860.901541509482</v>
+      </c>
+      <c r="AI4" t="n">
+        <v>34.80585753270905</v>
+      </c>
+      <c r="AJ4" t="n">
+        <v>2.306940926423347</v>
+      </c>
+      <c r="AK4" t="n">
+        <v>1.563118915501478</v>
+      </c>
+      <c r="AL4" t="n">
+        <v>0.7588899557159853</v>
+      </c>
+      <c r="AM4" t="n">
+        <v>0.8892015069739104</v>
+      </c>
+      <c r="AN4" t="n">
+        <v>0.7969731978764486</v>
+      </c>
+      <c r="AO4" t="n">
+        <v>0.7664447516724296</v>
+      </c>
+      <c r="AP4" t="n">
+        <v>3.673819316244001</v>
+      </c>
     </row>
     <row r="5">
       <c r="A5" s="1" t="inlineStr">
@@ -20675,6 +21702,45 @@
       <c r="AC5" t="n">
         <v>3.687379287968199</v>
       </c>
+      <c r="AD5" t="n">
+        <v>4.167334823323447</v>
+      </c>
+      <c r="AE5" t="n">
+        <v>1.928058216505245</v>
+      </c>
+      <c r="AF5" t="n">
+        <v>355.8415374699192</v>
+      </c>
+      <c r="AG5" t="n">
+        <v>3494.8440318784</v>
+      </c>
+      <c r="AH5" t="n">
+        <v>1848.860454885024</v>
+      </c>
+      <c r="AI5" t="n">
+        <v>34.43261770125828</v>
+      </c>
+      <c r="AJ5" t="n">
+        <v>2.583524431629171</v>
+      </c>
+      <c r="AK5" t="n">
+        <v>1.550515326003251</v>
+      </c>
+      <c r="AL5" t="n">
+        <v>0.7597187995662145</v>
+      </c>
+      <c r="AM5" t="n">
+        <v>0.8729114067304686</v>
+      </c>
+      <c r="AN5" t="n">
+        <v>0.7836380924989667</v>
+      </c>
+      <c r="AO5" t="n">
+        <v>0.7671728752419564</v>
+      </c>
+      <c r="AP5" t="n">
+        <v>3.66597850093768</v>
+      </c>
     </row>
     <row r="6">
       <c r="A6" s="1" t="inlineStr">
@@ -20769,6 +21835,45 @@
       </c>
       <c r="AC6" t="n">
         <v>3.660260050526333</v>
+      </c>
+      <c r="AD6" t="n">
+        <v>4.177660414211473</v>
+      </c>
+      <c r="AE6" t="n">
+        <v>1.943673197241472</v>
+      </c>
+      <c r="AF6" t="n">
+        <v>351.2263165169414</v>
+      </c>
+      <c r="AG6" t="n">
+        <v>3494.8440318784</v>
+      </c>
+      <c r="AH6" t="n">
+        <v>1828.035083032504</v>
+      </c>
+      <c r="AI6" t="n">
+        <v>34.21461636363728</v>
+      </c>
+      <c r="AJ6" t="n">
+        <v>1.966109823816679</v>
+      </c>
+      <c r="AK6" t="n">
+        <v>1.533575607467014</v>
+      </c>
+      <c r="AL6" t="n">
+        <v>0.7385365934077393</v>
+      </c>
+      <c r="AM6" t="n">
+        <v>0.8468605764498519</v>
+      </c>
+      <c r="AN6" t="n">
+        <v>0.7651156832965907</v>
+      </c>
+      <c r="AO6" t="n">
+        <v>0.7543417654773046</v>
+      </c>
+      <c r="AP6" t="n">
+        <v>3.639020558077191</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/lasercalc_example_export_BCR-2G.xlsx
+++ b/test_data/lasercalc_example_export_BCR-2G.xlsx
@@ -6012,7 +6012,7 @@
     <outlinePr summaryBelow="1" summaryRight="1"/>
     <pageSetUpPr/>
   </sheetPr>
-  <dimension ref="A1:EU18"/>
+  <dimension ref="A1:EU19"/>
   <sheetViews>
     <sheetView workbookViewId="0">
       <selection activeCell="A1" sqref="A1"/>
@@ -10957,7 +10957,7 @@
         <v>120</v>
       </c>
       <c r="DB11" t="n">
-        <v>0</v>
+        <v>0.174</v>
       </c>
       <c r="DC11" t="n">
         <v>0.17</v>
@@ -14133,6 +14133,417 @@
       <c r="EU18" t="n">
         <v>180</v>
       </c>
+    </row>
+    <row r="19">
+      <c r="A19" s="1" t="inlineStr">
+        <is>
+          <t>NIST-616</t>
+        </is>
+      </c>
+      <c r="B19" t="n">
+        <v>0.048</v>
+      </c>
+      <c r="C19" t="inlineStr"/>
+      <c r="D19" t="n">
+        <v>0.2</v>
+      </c>
+      <c r="E19" t="n">
+        <v>0.189</v>
+      </c>
+      <c r="F19" t="n">
+        <v>0.9399999999999999</v>
+      </c>
+      <c r="G19" t="n">
+        <v>2.31</v>
+      </c>
+      <c r="H19" t="n">
+        <v>0.028</v>
+      </c>
+      <c r="I19" t="n">
+        <v>0.021</v>
+      </c>
+      <c r="J19" t="inlineStr"/>
+      <c r="K19" t="inlineStr"/>
+      <c r="L19" t="n">
+        <v>0.036</v>
+      </c>
+      <c r="M19" t="n">
+        <v>0.0292</v>
+      </c>
+      <c r="N19" t="inlineStr"/>
+      <c r="O19" t="n">
+        <v>0.051</v>
+      </c>
+      <c r="P19" t="n">
+        <v>0.4</v>
+      </c>
+      <c r="Q19" t="n">
+        <v>0.027</v>
+      </c>
+      <c r="R19" t="n">
+        <v>0.7</v>
+      </c>
+      <c r="S19" t="n">
+        <v>0.0173</v>
+      </c>
+      <c r="T19" t="n">
+        <v>0.0157</v>
+      </c>
+      <c r="U19" t="n">
+        <v>0.0146</v>
+      </c>
+      <c r="V19" t="inlineStr"/>
+      <c r="W19" t="n">
+        <v>16</v>
+      </c>
+      <c r="X19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="Y19" t="n">
+        <v>0.0162</v>
+      </c>
+      <c r="Z19" t="n">
+        <v>0.283</v>
+      </c>
+      <c r="AA19" t="n">
+        <v>0.0154</v>
+      </c>
+      <c r="AB19" t="n">
+        <v>0.0169</v>
+      </c>
+      <c r="AC19" t="n">
+        <v>0.0302</v>
+      </c>
+      <c r="AD19" t="n">
+        <v>29</v>
+      </c>
+      <c r="AE19" t="n">
+        <v>0.0298</v>
+      </c>
+      <c r="AF19" t="n">
+        <v>0.895</v>
+      </c>
+      <c r="AG19" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="AH19" t="n">
+        <v>34.7</v>
+      </c>
+      <c r="AI19" t="n">
+        <v>0.609</v>
+      </c>
+      <c r="AJ19" t="n">
+        <v>0.08790000000000001</v>
+      </c>
+      <c r="AK19" t="inlineStr"/>
+      <c r="AL19" t="n">
+        <v>0.0194</v>
+      </c>
+      <c r="AM19" t="n">
+        <v>0.0227</v>
+      </c>
+      <c r="AN19" t="n">
+        <v>0.435</v>
+      </c>
+      <c r="AO19" t="n">
+        <v>13</v>
+      </c>
+      <c r="AP19" t="n">
+        <v>1.85</v>
+      </c>
+      <c r="AQ19" t="n">
+        <v>0.015</v>
+      </c>
+      <c r="AR19" t="n">
+        <v>0.104</v>
+      </c>
+      <c r="AS19" t="n">
+        <v>0.0036</v>
+      </c>
+      <c r="AT19" t="inlineStr"/>
+      <c r="AU19" t="n">
+        <v>0.076</v>
+      </c>
+      <c r="AV19" t="n">
+        <v>0.026</v>
+      </c>
+      <c r="AW19" t="n">
+        <v>0.22</v>
+      </c>
+      <c r="AX19" t="n">
+        <v>338891.61659704</v>
+      </c>
+      <c r="AY19" t="n">
+        <v>0.0164</v>
+      </c>
+      <c r="AZ19" t="n">
+        <v>1.18</v>
+      </c>
+      <c r="BA19" t="n">
+        <v>41.72</v>
+      </c>
+      <c r="BB19" t="n">
+        <v>0.0299</v>
+      </c>
+      <c r="BC19" t="n">
+        <v>0.0145</v>
+      </c>
+      <c r="BD19" t="n">
+        <v>0.0252</v>
+      </c>
+      <c r="BE19" t="n">
+        <v>2.65</v>
+      </c>
+      <c r="BF19" t="n">
+        <v>0.0081</v>
+      </c>
+      <c r="BG19" t="n">
+        <v>0.0144</v>
+      </c>
+      <c r="BH19" t="n">
+        <v>0.0721</v>
+      </c>
+      <c r="BI19" t="n">
+        <v>0.228</v>
+      </c>
+      <c r="BJ19" t="n">
+        <v>0.043</v>
+      </c>
+      <c r="BK19" t="n">
+        <v>0.0288</v>
+      </c>
+      <c r="BL19" t="n">
+        <v>0.0171</v>
+      </c>
+      <c r="BM19" t="n">
+        <v>1.33</v>
+      </c>
+      <c r="BN19" t="n">
+        <v>0.0951</v>
+      </c>
+      <c r="BO19" t="n">
+        <v>0.01</v>
+      </c>
+      <c r="BP19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BQ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BR19" t="n">
+        <v>0.012</v>
+      </c>
+      <c r="BS19" t="n">
+        <v>0.235</v>
+      </c>
+      <c r="BT19" t="n">
+        <v>0.06</v>
+      </c>
+      <c r="BU19" t="n">
+        <v>0.0125</v>
+      </c>
+      <c r="BV19" t="n">
+        <v>0.003</v>
+      </c>
+      <c r="BW19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BY19" t="n">
+        <v>0</v>
+      </c>
+      <c r="BZ19" t="n">
+        <v>0.00055</v>
+      </c>
+      <c r="CA19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CB19" t="n">
+        <v>0.008</v>
+      </c>
+      <c r="CC19" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="CD19" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="CE19" t="n">
+        <v>0.15</v>
+      </c>
+      <c r="CF19" t="n">
+        <v>0.0007</v>
+      </c>
+      <c r="CG19" t="n">
+        <v>0.00065</v>
+      </c>
+      <c r="CH19" t="n">
+        <v>0.00035</v>
+      </c>
+      <c r="CI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CJ19" t="n">
+        <v>4</v>
+      </c>
+      <c r="CK19" t="n">
+        <v>0.065</v>
+      </c>
+      <c r="CL19" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="CM19" t="n">
+        <v>0.0195</v>
+      </c>
+      <c r="CN19" t="n">
+        <v>0.0009</v>
+      </c>
+      <c r="CO19" t="n">
+        <v>0.00155</v>
+      </c>
+      <c r="CP19" t="n">
+        <v>0.00175</v>
+      </c>
+      <c r="CQ19" t="n">
+        <v>0.5</v>
+      </c>
+      <c r="CR19" t="n">
+        <v>0.0016</v>
+      </c>
+      <c r="CS19" t="n">
+        <v>0.0295</v>
+      </c>
+      <c r="CT19" t="n">
+        <v>0.001</v>
+      </c>
+      <c r="CU19" t="n">
+        <v>1.4</v>
+      </c>
+      <c r="CV19" t="n">
+        <v>0.0135</v>
+      </c>
+      <c r="CW19" t="n">
+        <v>0.0065</v>
+      </c>
+      <c r="CX19" t="n">
+        <v>0</v>
+      </c>
+      <c r="CY19" t="n">
+        <v>0.00075</v>
+      </c>
+      <c r="CZ19" t="n">
+        <v>0.00155</v>
+      </c>
+      <c r="DA19" t="n">
+        <v>0.05</v>
+      </c>
+      <c r="DB19" t="n">
+        <v>5</v>
+      </c>
+      <c r="DC19" t="n">
+        <v>0.02</v>
+      </c>
+      <c r="DD19" t="n">
+        <v>0.00045</v>
+      </c>
+      <c r="DE19" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="DF19" t="n">
+        <v>0.00065</v>
+      </c>
+      <c r="DG19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DH19" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="DI19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DJ19" t="n">
+        <v>0</v>
+      </c>
+      <c r="DK19" t="n">
+        <v>3272.056</v>
+      </c>
+      <c r="DL19" t="n">
+        <v>0.00145</v>
+      </c>
+      <c r="DM19" t="n">
+        <v>0.04</v>
+      </c>
+      <c r="DN19" t="n">
+        <v>0.025</v>
+      </c>
+      <c r="DO19" t="n">
+        <v>0.00275</v>
+      </c>
+      <c r="DP19" t="n">
+        <v>0.00105</v>
+      </c>
+      <c r="DQ19" t="n">
+        <v>0.0035</v>
+      </c>
+      <c r="DR19" t="n">
+        <v>0.145</v>
+      </c>
+      <c r="DS19" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="DT19" t="n">
+        <v>0.0005999999999999999</v>
+      </c>
+      <c r="DU19" t="n">
+        <v>0.00065</v>
+      </c>
+      <c r="DV19" t="n">
+        <v>0.0075</v>
+      </c>
+      <c r="DW19" t="n">
+        <v>0.002</v>
+      </c>
+      <c r="DX19" t="n">
+        <v>0.0012</v>
+      </c>
+      <c r="DY19" t="n">
+        <v>0.00115</v>
+      </c>
+      <c r="DZ19" t="n">
+        <v>0.135</v>
+      </c>
+      <c r="EA19" t="n">
+        <v>0.004</v>
+      </c>
+      <c r="EB19" t="n">
+        <v>725000</v>
+      </c>
+      <c r="EC19" t="inlineStr"/>
+      <c r="ED19" t="inlineStr"/>
+      <c r="EE19" t="inlineStr"/>
+      <c r="EF19" t="inlineStr"/>
+      <c r="EG19" t="inlineStr"/>
+      <c r="EH19" t="inlineStr"/>
+      <c r="EI19" t="n">
+        <v>13700</v>
+      </c>
+      <c r="EJ19" t="inlineStr"/>
+      <c r="EK19" t="inlineStr"/>
+      <c r="EL19" t="n">
+        <v>7000</v>
+      </c>
+      <c r="EM19" t="inlineStr"/>
+      <c r="EN19" t="inlineStr"/>
+      <c r="EO19" t="inlineStr"/>
+      <c r="EP19" t="inlineStr"/>
+      <c r="EQ19" t="inlineStr"/>
+      <c r="ER19" t="inlineStr"/>
+      <c r="ES19" t="n">
+        <v>9000</v>
+      </c>
+      <c r="ET19" t="inlineStr"/>
+      <c r="EU19" t="inlineStr"/>
     </row>
   </sheetData>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
@@ -16348,7 +16759,7 @@
         </is>
       </c>
       <c r="C2" t="n">
-        <v>0.0004499628318596198</v>
+        <v>0.00044996283185962</v>
       </c>
       <c r="D2" t="n">
         <v>21.67426632758452</v>
@@ -16504,7 +16915,7 @@
         </is>
       </c>
       <c r="C6" t="n">
-        <v>2.190534078267105e-07</v>
+        <v>2.190534078267104e-07</v>
       </c>
       <c r="D6" t="n">
         <v>96.6589318091596</v>
@@ -16660,7 +17071,7 @@
         </is>
       </c>
       <c r="C10" t="n">
-        <v>2.073748466128361e-10</v>
+        <v>2.07374846612836e-10</v>
       </c>
       <c r="D10" t="n">
         <v>305.2878357762683</v>
@@ -16699,7 +17110,7 @@
         </is>
       </c>
       <c r="C11" t="n">
-        <v>7.243159635597474e-09</v>
+        <v>7.243159635597471e-09</v>
       </c>
       <c r="D11" t="n">
         <v>171.6331609126637</v>
@@ -16738,7 +17149,7 @@
         </is>
       </c>
       <c r="C12" t="n">
-        <v>9.203588038047527e-10</v>
+        <v>9.203588038047518e-10</v>
       </c>
       <c r="D12" t="n">
         <v>240.2603930248168</v>
@@ -16777,7 +17188,7 @@
         </is>
       </c>
       <c r="C13" t="n">
-        <v>4.030016928614415e-09</v>
+        <v>4.030016928614411e-09</v>
       </c>
       <c r="D13" t="n">
         <v>188.9742400927013</v>
@@ -16816,7 +17227,7 @@
         </is>
       </c>
       <c r="C14" t="n">
-        <v>5.322208261827458e-09</v>
+        <v>5.322208261827455e-09</v>
       </c>
       <c r="D14" t="n">
         <v>180.5529546364902</v>
@@ -17169,43 +17580,43 @@
         <v>0.6644538762439895</v>
       </c>
       <c r="AD2" t="n">
-        <v>2.99884954517325</v>
+        <v>0.8252859321763683</v>
       </c>
       <c r="AE2" t="n">
-        <v>48.89894113114184</v>
+        <v>46.75956669775771</v>
       </c>
       <c r="AF2" t="n">
-        <v>2054.470196328495</v>
+        <v>696.1073497143615</v>
       </c>
       <c r="AG2" t="n">
-        <v>3674.908202193714</v>
+        <v>3272.251308900523</v>
       </c>
       <c r="AH2" t="n">
-        <v>288.3988600395895</v>
+        <v>225.2351453019907</v>
       </c>
       <c r="AI2" t="n">
-        <v>111.107842412584</v>
+        <v>24.33602386331645</v>
       </c>
       <c r="AJ2" t="n">
-        <v>611.0676505325631</v>
+        <v>249.3313075740208</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.687864375368129</v>
+        <v>1.367797867563141</v>
       </c>
       <c r="AL2" t="n">
-        <v>9.692056101501699</v>
+        <v>8.46077143018371</v>
       </c>
       <c r="AM2" t="n">
-        <v>1.221923406170256</v>
+        <v>1.046962491145324</v>
       </c>
       <c r="AN2" t="n">
-        <v>2.317004528629859</v>
+        <v>2.123920204474599</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.0648134729050522</v>
+        <v>0.06039825921122582</v>
       </c>
       <c r="AP2" t="n">
-        <v>0.6622267791898836</v>
+        <v>0.3934685797029261</v>
       </c>
     </row>
     <row r="3">
@@ -17303,43 +17714,43 @@
         <v>0.5331471995062036</v>
       </c>
       <c r="AD3" t="n">
-        <v>3.063484187314715</v>
+        <v>0.8351237351021986</v>
       </c>
       <c r="AE3" t="n">
-        <v>15.96768893768607</v>
+        <v>7.298287030641506</v>
       </c>
       <c r="AF3" t="n">
-        <v>2052.029463518423</v>
+        <v>680.6291417736679</v>
       </c>
       <c r="AG3" t="n">
-        <v>3674.908202193714</v>
+        <v>3272.251308900523</v>
       </c>
       <c r="AH3" t="n">
-        <v>255.7431783670662</v>
+        <v>183.5297894218344</v>
       </c>
       <c r="AI3" t="n">
-        <v>112.5062105657118</v>
+        <v>24.24242561597299</v>
       </c>
       <c r="AJ3" t="n">
-        <v>611.8986831716545</v>
+        <v>241.4650496039297</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.683607805334793</v>
+        <v>1.35618237037631</v>
       </c>
       <c r="AL3" t="n">
-        <v>9.458524230717785</v>
+        <v>8.200378584561971</v>
       </c>
       <c r="AM3" t="n">
-        <v>1.201585809031792</v>
+        <v>1.02747411275684</v>
       </c>
       <c r="AN3" t="n">
-        <v>2.279990595576796</v>
+        <v>2.082203187846552</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.06154961528371558</v>
+        <v>0.05668393757181263</v>
       </c>
       <c r="AP3" t="n">
-        <v>0.5305181401048905</v>
+        <v>0.1136438641040705</v>
       </c>
     </row>
     <row r="4">
@@ -17437,43 +17848,43 @@
         <v>0.5566525763285903</v>
       </c>
       <c r="AD4" t="n">
-        <v>3.013958139085485</v>
+        <v>0.8219493157803187</v>
       </c>
       <c r="AE4" t="n">
-        <v>17.16654268608011</v>
+        <v>8.974538962074005</v>
       </c>
       <c r="AF4" t="n">
-        <v>2081.344579068213</v>
+        <v>710.7809621043049</v>
       </c>
       <c r="AG4" t="n">
-        <v>3674.908202193714</v>
+        <v>3272.251308900523</v>
       </c>
       <c r="AH4" t="n">
-        <v>260.5078612846243</v>
+        <v>183.7050650698579</v>
       </c>
       <c r="AI4" t="n">
-        <v>115.0057949850195</v>
+        <v>25.00493755951468</v>
       </c>
       <c r="AJ4" t="n">
-        <v>625.0929332459941</v>
+        <v>250.6649390840211</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.737508862968636</v>
+        <v>1.401475327380453</v>
       </c>
       <c r="AL4" t="n">
-        <v>9.851096965883187</v>
+        <v>8.575375183937382</v>
       </c>
       <c r="AM4" t="n">
-        <v>1.256847508806852</v>
+        <v>1.076299359811143</v>
       </c>
       <c r="AN4" t="n">
-        <v>2.372410924149129</v>
+        <v>2.169499274250827</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.06488106396811474</v>
+        <v>0.06012411246738152</v>
       </c>
       <c r="AP4" t="n">
-        <v>0.5540364298939671</v>
+        <v>0.1671148759976118</v>
       </c>
     </row>
     <row r="5">
@@ -17571,43 +17982,43 @@
         <v>0.5448124450633746</v>
       </c>
       <c r="AD5" t="n">
-        <v>3.051264093685064</v>
+        <v>0.8312164390169015</v>
       </c>
       <c r="AE5" t="n">
-        <v>16.41450068572062</v>
+        <v>7.638625613271928</v>
       </c>
       <c r="AF5" t="n">
-        <v>2071.437042740539</v>
+        <v>691.3425794071833</v>
       </c>
       <c r="AG5" t="n">
-        <v>3674.908202193714</v>
+        <v>3272.251308900523</v>
       </c>
       <c r="AH5" t="n">
-        <v>263.2575557525885</v>
+        <v>192.6848008492933</v>
       </c>
       <c r="AI5" t="n">
-        <v>114.6491165379979</v>
+        <v>24.79986708058141</v>
       </c>
       <c r="AJ5" t="n">
-        <v>627.9086184498912</v>
+        <v>250.2643226578481</v>
       </c>
       <c r="AK5" t="n">
-        <v>1.724226175882502</v>
+        <v>1.388707164164284</v>
       </c>
       <c r="AL5" t="n">
-        <v>9.815957466681054</v>
+        <v>8.516130048005699</v>
       </c>
       <c r="AM5" t="n">
-        <v>1.245431961277169</v>
+        <v>1.066695032786934</v>
       </c>
       <c r="AN5" t="n">
-        <v>2.338513401763503</v>
+        <v>2.136676518204002</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.0639069417626261</v>
+        <v>0.05896929170858412</v>
       </c>
       <c r="AP5" t="n">
-        <v>0.5421317640714155</v>
+        <v>0.1187736889375374</v>
       </c>
     </row>
     <row r="6">
@@ -17705,43 +18116,43 @@
         <v>0.5678599065224346</v>
       </c>
       <c r="AD6" t="n">
-        <v>3.097347602283943</v>
+        <v>0.8484204417478058</v>
       </c>
       <c r="AE6" t="n">
-        <v>16.72955856561553</v>
+        <v>7.724596329402087</v>
       </c>
       <c r="AF6" t="n">
-        <v>2094.771179519221</v>
+        <v>701.7579161524087</v>
       </c>
       <c r="AG6" t="n">
-        <v>3674.908202193714</v>
+        <v>3272.251308900523</v>
       </c>
       <c r="AH6" t="n">
-        <v>266.1213050856113</v>
+        <v>191.0794203270988</v>
       </c>
       <c r="AI6" t="n">
-        <v>116.7266881221813</v>
+        <v>25.48872641194832</v>
       </c>
       <c r="AJ6" t="n">
-        <v>628.3835748407728</v>
+        <v>251.551553437094</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.748732673360951</v>
+        <v>1.408674818160468</v>
       </c>
       <c r="AL6" t="n">
-        <v>10.00092050331233</v>
+        <v>8.688869447119107</v>
       </c>
       <c r="AM6" t="n">
-        <v>1.261438857762394</v>
+        <v>1.079198296534234</v>
       </c>
       <c r="AN6" t="n">
-        <v>2.390571890564169</v>
+        <v>2.185768017747785</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.06643033124233753</v>
+        <v>0.06166788768973908</v>
       </c>
       <c r="AP6" t="n">
-        <v>0.5650628078403056</v>
+        <v>0.1224554420388375</v>
       </c>
     </row>
     <row r="7">
@@ -17839,43 +18250,43 @@
         <v>0.5662956448359023</v>
       </c>
       <c r="AD7" t="n">
-        <v>3.148340124627654</v>
+        <v>0.8619064695955538</v>
       </c>
       <c r="AE7" t="n">
-        <v>16.61207386922101</v>
+        <v>7.625756058302615</v>
       </c>
       <c r="AF7" t="n">
-        <v>2079.084315315049</v>
+        <v>694.7355618615439</v>
       </c>
       <c r="AG7" t="n">
-        <v>3674.908202193714</v>
+        <v>3272.251308900523</v>
       </c>
       <c r="AH7" t="n">
-        <v>267.5037539872917</v>
+        <v>195.595789086088</v>
       </c>
       <c r="AI7" t="n">
-        <v>116.6716110198576</v>
+        <v>25.31569698960931</v>
       </c>
       <c r="AJ7" t="n">
-        <v>637.1359167474503</v>
+        <v>254.8418898767785</v>
       </c>
       <c r="AK7" t="n">
-        <v>1.752277281380337</v>
+        <v>1.417236342191466</v>
       </c>
       <c r="AL7" t="n">
-        <v>9.983931239484622</v>
+        <v>8.687227475848905</v>
       </c>
       <c r="AM7" t="n">
-        <v>1.257580190222183</v>
+        <v>1.075779827889936</v>
       </c>
       <c r="AN7" t="n">
-        <v>2.412926728357637</v>
+        <v>2.208137037534713</v>
       </c>
       <c r="AO7" t="n">
-        <v>0.0668838391239651</v>
+        <v>0.06210976184750645</v>
       </c>
       <c r="AP7" t="n">
-        <v>0.5635078113309172</v>
+        <v>0.1228146392161332</v>
       </c>
     </row>
     <row r="8">
@@ -17973,43 +18384,43 @@
         <v>0.5625624787611712</v>
       </c>
       <c r="AD8" t="n">
-        <v>3.159637294009065</v>
+        <v>0.8544907540747751</v>
       </c>
       <c r="AE8" t="n">
-        <v>16.85472657989437</v>
+        <v>7.883058629382739</v>
       </c>
       <c r="AF8" t="n">
-        <v>2112.818711005713</v>
+        <v>723.3653819732699</v>
       </c>
       <c r="AG8" t="n">
-        <v>3674.908202193714</v>
+        <v>3272.251308900523</v>
       </c>
       <c r="AH8" t="n">
-        <v>267.0079023070129</v>
+        <v>191.5429627734972</v>
       </c>
       <c r="AI8" t="n">
-        <v>118.4358305629869</v>
+        <v>26.07430446584228</v>
       </c>
       <c r="AJ8" t="n">
-        <v>641.1284596286813</v>
+        <v>259.9569236205006</v>
       </c>
       <c r="AK8" t="n">
-        <v>1.795034333221278</v>
+        <v>1.457183763356519</v>
       </c>
       <c r="AL8" t="n">
-        <v>10.17228462369724</v>
+        <v>8.868936337171819</v>
       </c>
       <c r="AM8" t="n">
-        <v>1.281551318539665</v>
+        <v>1.10118127111554</v>
       </c>
       <c r="AN8" t="n">
-        <v>2.445148069826108</v>
+        <v>2.239732124246355</v>
       </c>
       <c r="AO8" t="n">
-        <v>0.06414456886466371</v>
+        <v>0.05901458447722477</v>
       </c>
       <c r="AP8" t="n">
-        <v>0.5597793824161401</v>
+        <v>0.1157731349843886</v>
       </c>
     </row>
     <row r="9">
@@ -18107,43 +18518,43 @@
         <v>0.5622388184462893</v>
       </c>
       <c r="AD9" t="n">
-        <v>3.086683972577208</v>
+        <v>0.8383124391757713</v>
       </c>
       <c r="AE9" t="n">
-        <v>16.69125305716587</v>
+        <v>7.902295030791174</v>
       </c>
       <c r="AF9" t="n">
-        <v>2087.533201793496</v>
+        <v>706.4142462921204</v>
       </c>
       <c r="AG9" t="n">
-        <v>3674.908202193714</v>
+        <v>3272.251308900523</v>
       </c>
       <c r="AH9" t="n">
-        <v>263.6378708495386</v>
+        <v>189.5445005008482</v>
       </c>
       <c r="AI9" t="n">
-        <v>118.3240095599956</v>
+        <v>25.95591351381763</v>
       </c>
       <c r="AJ9" t="n">
-        <v>638.0907190648031</v>
+        <v>255.8011446572502</v>
       </c>
       <c r="AK9" t="n">
-        <v>1.76300325192444</v>
+        <v>1.4262278300397</v>
       </c>
       <c r="AL9" t="n">
-        <v>10.0136251965347</v>
+        <v>8.716275721474517</v>
       </c>
       <c r="AM9" t="n">
-        <v>1.262837401112847</v>
+        <v>1.079167560525672</v>
       </c>
       <c r="AN9" t="n">
-        <v>2.42992066217099</v>
+        <v>2.224418241399063</v>
       </c>
       <c r="AO9" t="n">
-        <v>0.06487385524833321</v>
+        <v>0.05986973808332359</v>
       </c>
       <c r="AP9" t="n">
-        <v>0.5594649593380577</v>
+        <v>0.1192351207550541</v>
       </c>
     </row>
     <row r="10">
@@ -18241,43 +18652,43 @@
         <v>0.549423481163317</v>
       </c>
       <c r="AD10" t="n">
-        <v>3.112864385663483</v>
+        <v>0.8529582714271625</v>
       </c>
       <c r="AE10" t="n">
-        <v>16.67851658484326</v>
+        <v>7.691462612758346</v>
       </c>
       <c r="AF10" t="n">
-        <v>2086.02670248613</v>
+        <v>701.8195904947427</v>
       </c>
       <c r="AG10" t="n">
-        <v>3674.908202193714</v>
+        <v>3272.251308900523</v>
       </c>
       <c r="AH10" t="n">
-        <v>263.5178140444795</v>
+        <v>189.3999172696874</v>
       </c>
       <c r="AI10" t="n">
-        <v>117.743157738966</v>
+        <v>25.62866163781824</v>
       </c>
       <c r="AJ10" t="n">
-        <v>634.7842078666346</v>
+        <v>253.9669665221831</v>
       </c>
       <c r="AK10" t="n">
-        <v>1.751105455438916</v>
+        <v>1.415092335367673</v>
       </c>
       <c r="AL10" t="n">
-        <v>9.943593194490346</v>
+        <v>8.65626575829226</v>
       </c>
       <c r="AM10" t="n">
-        <v>1.260719159531667</v>
+        <v>1.079122451120266</v>
       </c>
       <c r="AN10" t="n">
-        <v>2.366651336923406</v>
+        <v>2.161986831302537</v>
       </c>
       <c r="AO10" t="n">
-        <v>0.06476768967898497</v>
+        <v>0.06018682450649736</v>
       </c>
       <c r="AP10" t="n">
-        <v>0.5467173852690022</v>
+        <v>0.1185651263308148</v>
       </c>
     </row>
     <row r="11">
@@ -18375,43 +18786,43 @@
         <v>0.5650012467231937</v>
       </c>
       <c r="AD11" t="n">
-        <v>3.046629639623478</v>
+        <v>0.8331710350772541</v>
       </c>
       <c r="AE11" t="n">
-        <v>16.64908950634315</v>
+        <v>7.740884806185411</v>
       </c>
       <c r="AF11" t="n">
-        <v>2094.826259174193</v>
+        <v>708.5419376978625</v>
       </c>
       <c r="AG11" t="n">
-        <v>3674.908202193714</v>
+        <v>3272.251308900523</v>
       </c>
       <c r="AH11" t="n">
-        <v>259.3494141241315</v>
+        <v>183.7268220012597</v>
       </c>
       <c r="AI11" t="n">
-        <v>117.6907726442314</v>
+        <v>25.71736472480174</v>
       </c>
       <c r="AJ11" t="n">
-        <v>649.5639378996601</v>
+        <v>261.9601181949556</v>
       </c>
       <c r="AK11" t="n">
-        <v>1.731496794266508</v>
+        <v>1.397877047688177</v>
       </c>
       <c r="AL11" t="n">
-        <v>10.01194091149132</v>
+        <v>8.723604702649371</v>
       </c>
       <c r="AM11" t="n">
-        <v>1.247471202308046</v>
+        <v>1.068432222589955</v>
       </c>
       <c r="AN11" t="n">
-        <v>2.40296040380903</v>
+        <v>2.201660653584014</v>
       </c>
       <c r="AO11" t="n">
-        <v>0.06402635927685921</v>
+        <v>0.05915966183727141</v>
       </c>
       <c r="AP11" t="n">
-        <v>0.5622807149132506</v>
+        <v>0.1471815492942153</v>
       </c>
     </row>
     <row r="12">
@@ -18509,43 +18920,43 @@
         <v>0.5495166752198273</v>
       </c>
       <c r="AD12" t="n">
-        <v>3.09183620704292</v>
+        <v>0.834240899061065</v>
       </c>
       <c r="AE12" t="n">
-        <v>16.5280063047552</v>
+        <v>7.686159793759878</v>
       </c>
       <c r="AF12" t="n">
-        <v>2072.321507831768</v>
+        <v>701.8376043350511</v>
       </c>
       <c r="AG12" t="n">
-        <v>3674.908202193714</v>
+        <v>3272.251308900523</v>
       </c>
       <c r="AH12" t="n">
-        <v>256.4397785578516</v>
+        <v>187.3371555127301</v>
       </c>
       <c r="AI12" t="n">
-        <v>115.765407776385</v>
+        <v>25.13846952243929</v>
       </c>
       <c r="AJ12" t="n">
-        <v>637.9393877783244</v>
+        <v>253.3537229229596</v>
       </c>
       <c r="AK12" t="n">
-        <v>1.705855095003441</v>
+        <v>1.380006088824754</v>
       </c>
       <c r="AL12" t="n">
-        <v>9.615241265334641</v>
+        <v>8.378990194840116</v>
       </c>
       <c r="AM12" t="n">
-        <v>1.223501563987967</v>
+        <v>1.048437132777449</v>
       </c>
       <c r="AN12" t="n">
-        <v>2.324303818865154</v>
+        <v>2.128628660821677</v>
       </c>
       <c r="AO12" t="n">
-        <v>0.06149672497613987</v>
+        <v>0.0566581855632144</v>
       </c>
       <c r="AP12" t="n">
-        <v>0.5468063068008432</v>
+        <v>0.1168666085758115</v>
       </c>
     </row>
     <row r="13">
@@ -18643,43 +19054,43 @@
         <v>0.5502316495184391</v>
       </c>
       <c r="AD13" t="n">
-        <v>2.918147954323878</v>
+        <v>0.8097055146021254</v>
       </c>
       <c r="AE13" t="n">
-        <v>16.55951045181903</v>
+        <v>7.653322835548636</v>
       </c>
       <c r="AF13" t="n">
-        <v>2063.619148670997</v>
+        <v>697.6702691000255</v>
       </c>
       <c r="AG13" t="n">
-        <v>3674.908202193714</v>
+        <v>3272.251308900523</v>
       </c>
       <c r="AH13" t="n">
-        <v>252.8991996404884</v>
+        <v>178.7407348817541</v>
       </c>
       <c r="AI13" t="n">
-        <v>115.0606967095611</v>
+        <v>25.15503008084625</v>
       </c>
       <c r="AJ13" t="n">
-        <v>636.8135504047822</v>
+        <v>259.8289714497894</v>
       </c>
       <c r="AK13" t="n">
-        <v>1.70576258909959</v>
+        <v>1.382322722140557</v>
       </c>
       <c r="AL13" t="n">
-        <v>9.613184642496599</v>
+        <v>8.355573950121263</v>
       </c>
       <c r="AM13" t="n">
-        <v>1.203894745678302</v>
+        <v>1.031162295708442</v>
       </c>
       <c r="AN13" t="n">
-        <v>2.320344468880381</v>
+        <v>2.124609399665712</v>
       </c>
       <c r="AO13" t="n">
-        <v>0.06376360560949154</v>
+        <v>0.05921293138194621</v>
       </c>
       <c r="AP13" t="n">
-        <v>0.5475257201749377</v>
+        <v>0.1205806694883212</v>
       </c>
     </row>
     <row r="14">
@@ -18777,43 +19188,43 @@
         <v>0.5434953026934386</v>
       </c>
       <c r="AD14" t="n">
-        <v>3.032487225675411</v>
+        <v>0.8256240569649598</v>
       </c>
       <c r="AE14" t="n">
-        <v>16.57773245808293</v>
+        <v>7.714802619514612</v>
       </c>
       <c r="AF14" t="n">
-        <v>2094.898218771554</v>
+        <v>709.0397244071912</v>
       </c>
       <c r="AG14" t="n">
-        <v>3674.908202193714</v>
+        <v>3272.251308900523</v>
       </c>
       <c r="AH14" t="n">
-        <v>256.7819666282213</v>
+        <v>184.9692782825286</v>
       </c>
       <c r="AI14" t="n">
-        <v>115.1270727154248</v>
+        <v>25.16236960099299</v>
       </c>
       <c r="AJ14" t="n">
-        <v>636.1880011823118</v>
+        <v>257.6233323212759</v>
       </c>
       <c r="AK14" t="n">
-        <v>1.711796496873089</v>
+        <v>1.386390779545268</v>
       </c>
       <c r="AL14" t="n">
-        <v>9.774159185210252</v>
+        <v>8.513229584400557</v>
       </c>
       <c r="AM14" t="n">
-        <v>1.239114440998222</v>
+        <v>1.06221868517904</v>
       </c>
       <c r="AN14" t="n">
-        <v>2.337339248418536</v>
+        <v>2.137341032416392</v>
       </c>
       <c r="AO14" t="n">
-        <v>0.06410797353251561</v>
+        <v>0.05925261441648563</v>
       </c>
       <c r="AP14" t="n">
-        <v>0.5408148035940263</v>
+        <v>0.1156632945244958</v>
       </c>
     </row>
     <row r="15">
@@ -18911,43 +19322,43 @@
         <v>0.5698229062407644</v>
       </c>
       <c r="AD15" t="n">
-        <v>3.039162168810725</v>
+        <v>0.8257877170836112</v>
       </c>
       <c r="AE15" t="n">
-        <v>16.82476522708093</v>
+        <v>7.771525725640419</v>
       </c>
       <c r="AF15" t="n">
-        <v>2098.806643751228</v>
+        <v>703.4758080652732</v>
       </c>
       <c r="AG15" t="n">
-        <v>3674.908202193714</v>
+        <v>3272.251308900523</v>
       </c>
       <c r="AH15" t="n">
-        <v>262.2327374344755</v>
+        <v>191.1939015524269</v>
       </c>
       <c r="AI15" t="n">
-        <v>117.5501353414752</v>
+        <v>25.61547581748122</v>
       </c>
       <c r="AJ15" t="n">
-        <v>640.8145630682449</v>
+        <v>257.143445299015</v>
       </c>
       <c r="AK15" t="n">
-        <v>1.724338443176569</v>
+        <v>1.390990395225364</v>
       </c>
       <c r="AL15" t="n">
-        <v>9.838238856610698</v>
+        <v>8.557066573129726</v>
       </c>
       <c r="AM15" t="n">
-        <v>1.235049547893554</v>
+        <v>1.057128079850119</v>
       </c>
       <c r="AN15" t="n">
-        <v>2.369862172697205</v>
+        <v>2.167440199805198</v>
       </c>
       <c r="AO15" t="n">
-        <v>0.06421886627730329</v>
+        <v>0.05956816348783518</v>
       </c>
       <c r="AP15" t="n">
-        <v>0.5670101405872291</v>
+        <v>0.1201633650251187</v>
       </c>
     </row>
     <row r="16">
@@ -19045,43 +19456,43 @@
         <v>0.5584054757670992</v>
       </c>
       <c r="AD16" t="n">
-        <v>3.025582583608641</v>
+        <v>0.82730434666178</v>
       </c>
       <c r="AE16" t="n">
-        <v>16.58399698824823</v>
+        <v>7.662447920256216</v>
       </c>
       <c r="AF16" t="n">
-        <v>2103.117262912997</v>
+        <v>704.7324126347049</v>
       </c>
       <c r="AG16" t="n">
-        <v>3674.908202193714</v>
+        <v>3272.251308900523</v>
       </c>
       <c r="AH16" t="n">
-        <v>260.613542070295</v>
+        <v>188.645008648944</v>
       </c>
       <c r="AI16" t="n">
-        <v>117.4814281507359</v>
+        <v>25.47104566765526</v>
       </c>
       <c r="AJ16" t="n">
-        <v>648.9045468743706</v>
+        <v>261.98228650609</v>
       </c>
       <c r="AK16" t="n">
-        <v>1.748466226787774</v>
+        <v>1.417824845976169</v>
       </c>
       <c r="AL16" t="n">
-        <v>9.821386536201379</v>
+        <v>8.538152662448654</v>
       </c>
       <c r="AM16" t="n">
-        <v>1.246916263363856</v>
+        <v>1.069875505418731</v>
       </c>
       <c r="AN16" t="n">
-        <v>2.346920434288331</v>
+        <v>2.144961768818006</v>
       </c>
       <c r="AO16" t="n">
-        <v>0.06297142613950102</v>
+        <v>0.05814104542954145</v>
       </c>
       <c r="AP16" t="n">
-        <v>0.5556463567538458</v>
+        <v>0.1165073116191062</v>
       </c>
     </row>
     <row r="17">
@@ -19179,43 +19590,43 @@
         <v>0.2735683335858453</v>
       </c>
       <c r="AD17" t="n">
-        <v>0.508084154725893</v>
+        <v>0.2335229131288413</v>
       </c>
       <c r="AE17" t="n">
-        <v>1235.369257783203</v>
+        <v>592.7727348732301</v>
       </c>
       <c r="AF17" t="n">
-        <v>2253.44286697373</v>
+        <v>767.6811502323878</v>
       </c>
       <c r="AG17" t="n">
-        <v>2396.46791492262</v>
+        <v>467.4644727000749</v>
       </c>
       <c r="AH17" t="n">
-        <v>1703.522737698909</v>
+        <v>1074.454362207458</v>
       </c>
       <c r="AI17" t="n">
-        <v>1183.715815321626</v>
+        <v>278.7122949309602</v>
       </c>
       <c r="AJ17" t="n">
-        <v>2329.623738488579</v>
+        <v>1073.198313181838</v>
       </c>
       <c r="AK17" t="n">
-        <v>7.843558247071055</v>
+        <v>5.885024557011827</v>
       </c>
       <c r="AL17" t="n">
-        <v>2.622982263003141</v>
+        <v>2.111759442633518</v>
       </c>
       <c r="AM17" t="n">
-        <v>0.3284105450456155</v>
+        <v>0.2566455959626625</v>
       </c>
       <c r="AN17" t="n">
-        <v>0.9150412117090377</v>
+        <v>0.815088303178916</v>
       </c>
       <c r="AO17" t="n">
-        <v>0.04784663774684041</v>
+        <v>0.04116756280893323</v>
       </c>
       <c r="AP17" t="n">
-        <v>0.2735427007428565</v>
+        <v>0.2156055340735251</v>
       </c>
     </row>
     <row r="18">
@@ -19313,43 +19724,43 @@
         <v>0.1703618690694655</v>
       </c>
       <c r="AD18" t="n">
-        <v>0.4725483187810663</v>
+        <v>0.1550094563252535</v>
       </c>
       <c r="AE18" t="n">
-        <v>1174.388264012084</v>
+        <v>413.4976692768269</v>
       </c>
       <c r="AF18" t="n">
-        <v>2168.893470484474</v>
+        <v>468.0764253680608</v>
       </c>
       <c r="AG18" t="n">
-        <v>2396.46791492262</v>
+        <v>467.4644727000749</v>
       </c>
       <c r="AH18" t="n">
-        <v>1555.091187918796</v>
+        <v>833.9949963215045</v>
       </c>
       <c r="AI18" t="n">
-        <v>1171.526610699623</v>
+        <v>217.0238316634856</v>
       </c>
       <c r="AJ18" t="n">
-        <v>2218.765582911176</v>
+        <v>757.4819710199459</v>
       </c>
       <c r="AK18" t="n">
-        <v>6.796286281190197</v>
+        <v>4.323981626854378</v>
       </c>
       <c r="AL18" t="n">
-        <v>2.294313885891203</v>
+        <v>1.700946019848965</v>
       </c>
       <c r="AM18" t="n">
-        <v>0.3167975100674</v>
+        <v>0.2409490623574485</v>
       </c>
       <c r="AN18" t="n">
-        <v>0.7065289525394467</v>
+        <v>0.5675926738985889</v>
       </c>
       <c r="AO18" t="n">
-        <v>0.04458361158018932</v>
+        <v>0.03772618757754352</v>
       </c>
       <c r="AP18" t="n">
-        <v>0.1703226554681902</v>
+        <v>0.04486492641750237</v>
       </c>
     </row>
     <row r="19">
@@ -19447,43 +19858,43 @@
         <v>0.1750879373994345</v>
       </c>
       <c r="AD19" t="n">
-        <v>0.5079593006682761</v>
+        <v>0.161734293450243</v>
       </c>
       <c r="AE19" t="n">
-        <v>1172.645024000954</v>
+        <v>384.7301335985855</v>
       </c>
       <c r="AF19" t="n">
-        <v>2138.281429832199</v>
+        <v>396.6920619295927</v>
       </c>
       <c r="AG19" t="n">
-        <v>2396.46791492262</v>
+        <v>467.4644727000749</v>
       </c>
       <c r="AH19" t="n">
-        <v>1578.162055610088</v>
+        <v>813.8566957151378</v>
       </c>
       <c r="AI19" t="n">
-        <v>1170.009785775367</v>
+        <v>211.681060854935</v>
       </c>
       <c r="AJ19" t="n">
-        <v>2170.060361814114</v>
+        <v>552.6950938910098</v>
       </c>
       <c r="AK19" t="n">
-        <v>6.771353143318334</v>
+        <v>4.202707109620146</v>
       </c>
       <c r="AL19" t="n">
-        <v>2.214317436956726</v>
+        <v>1.565067658378571</v>
       </c>
       <c r="AM19" t="n">
-        <v>0.3148940126746722</v>
+        <v>0.2352339373778849</v>
       </c>
       <c r="AN19" t="n">
-        <v>0.6821872197197784</v>
+        <v>0.5334375417022894</v>
       </c>
       <c r="AO19" t="n">
-        <v>0.05072212141196186</v>
+        <v>0.04440892411332811</v>
       </c>
       <c r="AP19" t="n">
-        <v>0.1750474850448548</v>
+        <v>0.044936267288736</v>
       </c>
     </row>
     <row r="20">
@@ -19581,43 +19992,43 @@
         <v>0.1769138997101105</v>
       </c>
       <c r="AD20" t="n">
-        <v>0.4484950687012397</v>
+        <v>0.1592230896092939</v>
       </c>
       <c r="AE20" t="n">
-        <v>1175.054907599417</v>
+        <v>391.964208818527</v>
       </c>
       <c r="AF20" t="n">
-        <v>2165.464204759148</v>
+        <v>432.7641207781085</v>
       </c>
       <c r="AG20" t="n">
-        <v>2396.46791492262</v>
+        <v>467.4644727000749</v>
       </c>
       <c r="AH20" t="n">
-        <v>1564.625688904452</v>
+        <v>810.7899802550767</v>
       </c>
       <c r="AI20" t="n">
-        <v>1182.655011026648</v>
+        <v>216.4604539023937</v>
       </c>
       <c r="AJ20" t="n">
-        <v>2174.690461340442</v>
+        <v>500.8726075575935</v>
       </c>
       <c r="AK20" t="n">
-        <v>6.822448692262152</v>
+        <v>4.291411922577738</v>
       </c>
       <c r="AL20" t="n">
-        <v>2.302126417414333</v>
+        <v>1.701935519158792</v>
       </c>
       <c r="AM20" t="n">
-        <v>0.3256615067701371</v>
+        <v>0.2495452688484334</v>
       </c>
       <c r="AN20" t="n">
-        <v>0.6923830389446824</v>
+        <v>0.547105772536325</v>
       </c>
       <c r="AO20" t="n">
-        <v>0.04547196461374302</v>
+        <v>0.03826782183103732</v>
       </c>
       <c r="AP20" t="n">
-        <v>0.1768769853161549</v>
+        <v>0.06995525004702867</v>
       </c>
     </row>
     <row r="21">
@@ -19715,43 +20126,43 @@
         <v>0.1764563978547965</v>
       </c>
       <c r="AD21" t="n">
-        <v>0.4863679133968036</v>
+        <v>0.1594470743480702</v>
       </c>
       <c r="AE21" t="n">
-        <v>1167.655682181899</v>
+        <v>390.2713231531164</v>
       </c>
       <c r="AF21" t="n">
-        <v>2137.103638180532</v>
+        <v>361.6497982381827</v>
       </c>
       <c r="AG21" t="n">
-        <v>2396.46791492262</v>
+        <v>467.4644727000749</v>
       </c>
       <c r="AH21" t="n">
-        <v>1552.332892806679</v>
+        <v>804.8831657671595</v>
       </c>
       <c r="AI21" t="n">
-        <v>1166.432074468111</v>
+        <v>208.9519187565009</v>
       </c>
       <c r="AJ21" t="n">
-        <v>2153.519990963594</v>
+        <v>487.0310413495528</v>
       </c>
       <c r="AK21" t="n">
-        <v>6.657416559780061</v>
+        <v>4.065198264448886</v>
       </c>
       <c r="AL21" t="n">
-        <v>2.200279969070592</v>
+        <v>1.54317019815041</v>
       </c>
       <c r="AM21" t="n">
-        <v>0.3077340504157632</v>
+        <v>0.2313656715425294</v>
       </c>
       <c r="AN21" t="n">
-        <v>0.672547099055717</v>
+        <v>0.5293554960182081</v>
       </c>
       <c r="AO21" t="n">
-        <v>0.04887524849853255</v>
+        <v>0.04178268629621495</v>
       </c>
       <c r="AP21" t="n">
-        <v>0.1764156061081543</v>
+        <v>0.0451042124543742</v>
       </c>
     </row>
   </sheetData>
@@ -21301,43 +21712,43 @@
         <v>3.63511914452108</v>
       </c>
       <c r="AD2" t="n">
-        <v>4.310849861348289</v>
+        <v>1.162264246805131</v>
       </c>
       <c r="AE2" t="n">
-        <v>5.79278467072074</v>
+        <v>5.560019514024806</v>
       </c>
       <c r="AF2" t="n">
-        <v>349.4331594922516</v>
+        <v>122.768653564983</v>
       </c>
       <c r="AG2" t="n">
-        <v>3494.8440318784</v>
+        <v>3360.869963217549</v>
       </c>
       <c r="AH2" t="n">
-        <v>1814.18137754411</v>
+        <v>1262.633475863294</v>
       </c>
       <c r="AI2" t="n">
-        <v>33.51772433195656</v>
+        <v>7.421737879785495</v>
       </c>
       <c r="AJ2" t="n">
-        <v>4.133081606343394</v>
+        <v>3.947311012139542</v>
       </c>
       <c r="AK2" t="n">
-        <v>1.515862785444546</v>
+        <v>1.261554012355148</v>
       </c>
       <c r="AL2" t="n">
-        <v>0.7340012681887673</v>
+        <v>0.6595434686329512</v>
       </c>
       <c r="AM2" t="n">
-        <v>0.8637873930834047</v>
+        <v>0.7561940934029691</v>
       </c>
       <c r="AN2" t="n">
-        <v>0.7748579719358629</v>
+        <v>0.726017301485074</v>
       </c>
       <c r="AO2" t="n">
-        <v>0.7405824009823327</v>
+        <v>0.6738068459549961</v>
       </c>
       <c r="AP2" t="n">
-        <v>3.614033336049892</v>
+        <v>0.7063055496578282</v>
       </c>
     </row>
     <row r="3">
@@ -21435,43 +21846,43 @@
         <v>3.590855959057254</v>
       </c>
       <c r="AD3" t="n">
-        <v>4.384640618949425</v>
+        <v>1.180321192332656</v>
       </c>
       <c r="AE3" t="n">
-        <v>3.848289933397186</v>
+        <v>3.508641345508761</v>
       </c>
       <c r="AF3" t="n">
-        <v>347.9949171628779</v>
+        <v>122.7929026980866</v>
       </c>
       <c r="AG3" t="n">
-        <v>3494.8440318784</v>
+        <v>3360.869963217549</v>
       </c>
       <c r="AH3" t="n">
-        <v>1813.954037752538</v>
+        <v>1266.996363429176</v>
       </c>
       <c r="AI3" t="n">
-        <v>33.43110354783111</v>
+        <v>7.430249353907502</v>
       </c>
       <c r="AJ3" t="n">
-        <v>2.082937594836802</v>
+        <v>1.63197883648362</v>
       </c>
       <c r="AK3" t="n">
-        <v>1.520716260653602</v>
+        <v>1.269262691507989</v>
       </c>
       <c r="AL3" t="n">
-        <v>0.7244540637823822</v>
+        <v>0.6491165325742583</v>
       </c>
       <c r="AM3" t="n">
-        <v>0.8503511317123591</v>
+        <v>0.7429351223833037</v>
       </c>
       <c r="AN3" t="n">
-        <v>0.7726704324317801</v>
+        <v>0.7237645078432202</v>
       </c>
       <c r="AO3" t="n">
-        <v>0.7468615396971675</v>
+        <v>0.6808891843567177</v>
       </c>
       <c r="AP3" t="n">
-        <v>3.570031963930742</v>
+        <v>0.6998560942348385</v>
       </c>
     </row>
     <row r="4">
@@ -21569,43 +21980,43 @@
         <v>3.695273597792309</v>
       </c>
       <c r="AD4" t="n">
-        <v>4.420436030378218</v>
+        <v>1.189623463436637</v>
       </c>
       <c r="AE4" t="n">
-        <v>1.93363599248161</v>
+        <v>1.000912181842025</v>
       </c>
       <c r="AF4" t="n">
-        <v>351.6339565545468</v>
+        <v>125.3168171102235</v>
       </c>
       <c r="AG4" t="n">
-        <v>3494.8440318784</v>
+        <v>3360.869963217549</v>
       </c>
       <c r="AH4" t="n">
-        <v>1860.901541509482</v>
+        <v>1293.459699280186</v>
       </c>
       <c r="AI4" t="n">
-        <v>34.80585753270905</v>
+        <v>7.728677146576411</v>
       </c>
       <c r="AJ4" t="n">
-        <v>2.306940926423347</v>
+        <v>1.937780656444265</v>
       </c>
       <c r="AK4" t="n">
-        <v>1.563118915501478</v>
+        <v>1.305966549254238</v>
       </c>
       <c r="AL4" t="n">
-        <v>0.7588899557159853</v>
+        <v>0.6832143801439589</v>
       </c>
       <c r="AM4" t="n">
-        <v>0.8892015069739104</v>
+        <v>0.777811876071564</v>
       </c>
       <c r="AN4" t="n">
-        <v>0.7969731978764486</v>
+        <v>0.7476128868964177</v>
       </c>
       <c r="AO4" t="n">
-        <v>0.7664447516724296</v>
+        <v>0.6998597919506693</v>
       </c>
       <c r="AP4" t="n">
-        <v>3.673819316244001</v>
+        <v>0.7096268500426569</v>
       </c>
     </row>
     <row r="5">
@@ -21703,43 +22114,43 @@
         <v>3.687379287968199</v>
       </c>
       <c r="AD5" t="n">
-        <v>4.167334823323447</v>
+        <v>1.126241874982204</v>
       </c>
       <c r="AE5" t="n">
-        <v>1.928058216505245</v>
+        <v>1.018821842883591</v>
       </c>
       <c r="AF5" t="n">
-        <v>355.8415374699192</v>
+        <v>127.194864164186</v>
       </c>
       <c r="AG5" t="n">
-        <v>3494.8440318784</v>
+        <v>3360.869963217549</v>
       </c>
       <c r="AH5" t="n">
-        <v>1848.860454885024</v>
+        <v>1298.611019020658</v>
       </c>
       <c r="AI5" t="n">
-        <v>34.43261770125828</v>
+        <v>7.709636098001313</v>
       </c>
       <c r="AJ5" t="n">
-        <v>2.583524431629171</v>
+        <v>2.295421340395443</v>
       </c>
       <c r="AK5" t="n">
-        <v>1.550515326003251</v>
+        <v>1.295089492020795</v>
       </c>
       <c r="AL5" t="n">
-        <v>0.7597187995662145</v>
+        <v>0.6840762472024707</v>
       </c>
       <c r="AM5" t="n">
-        <v>0.8729114067304686</v>
+        <v>0.7646049967019285</v>
       </c>
       <c r="AN5" t="n">
-        <v>0.7836380924989667</v>
+        <v>0.735320204156135</v>
       </c>
       <c r="AO5" t="n">
-        <v>0.7671728752419564</v>
+        <v>0.701056230514435</v>
       </c>
       <c r="AP5" t="n">
-        <v>3.66597850093768</v>
+        <v>0.711402567250958</v>
       </c>
     </row>
     <row r="6">
@@ -21837,43 +22248,43 @@
         <v>3.660260050526333</v>
       </c>
       <c r="AD6" t="n">
-        <v>4.177660414211473</v>
+        <v>1.125650815588447</v>
       </c>
       <c r="AE6" t="n">
-        <v>1.943673197241472</v>
+        <v>1.017136379799526</v>
       </c>
       <c r="AF6" t="n">
-        <v>351.2263165169414</v>
+        <v>123.9847872926721</v>
       </c>
       <c r="AG6" t="n">
-        <v>3494.8440318784</v>
+        <v>3360.869963217549</v>
       </c>
       <c r="AH6" t="n">
-        <v>1828.035083032504</v>
+        <v>1270.816332874892</v>
       </c>
       <c r="AI6" t="n">
-        <v>34.21461636363728</v>
+        <v>7.608558935088382</v>
       </c>
       <c r="AJ6" t="n">
-        <v>1.966109823816679</v>
+        <v>1.598284946639324</v>
       </c>
       <c r="AK6" t="n">
-        <v>1.533575607467014</v>
+        <v>1.279042326778019</v>
       </c>
       <c r="AL6" t="n">
-        <v>0.7385365934077393</v>
+        <v>0.6632048111663146</v>
       </c>
       <c r="AM6" t="n">
-        <v>0.8468605764498519</v>
+        <v>0.7402704780956014</v>
       </c>
       <c r="AN6" t="n">
-        <v>0.7651156832965907</v>
+        <v>0.7172338553691573</v>
       </c>
       <c r="AO6" t="n">
-        <v>0.7543417654773046</v>
+        <v>0.6882439683667685</v>
       </c>
       <c r="AP6" t="n">
-        <v>3.639020558077191</v>
+        <v>0.7078403675707124</v>
       </c>
     </row>
   </sheetData>

--- a/test_data/lasercalc_example_export_BCR-2G.xlsx
+++ b/test_data/lasercalc_example_export_BCR-2G.xlsx
@@ -632,12 +632,12 @@
       </c>
       <c r="AM1" s="1" t="inlineStr">
         <is>
-          <t>internal_std_comp</t>
+          <t>int_std_comp</t>
         </is>
       </c>
       <c r="AN1" s="1" t="inlineStr">
         <is>
-          <t>internal_std_rel_unc</t>
+          <t>int_std_rel_unc</t>
         </is>
       </c>
     </row>
